--- a/Manual Testing (Bikroy.com)/TestCase_Bikroy.com.xlsx
+++ b/Manual Testing (Bikroy.com)/TestCase_Bikroy.com.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Testing\Manual-Testing--Test-Cases-with-Scenarios--Mindmaps--Reports---Test-Metrics-\Manual Testing (Bikroy.com)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snapp\Desktop\New folder (2)\Manual-Testing--Test-Cases-with-Scenarios--Mindmaps--Reports---Test-Metrics-\Manual Testing (Bikroy.com)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C92CC3D-0C7B-4932-AC85-F34E43ACB547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mind Maps" sheetId="2" r:id="rId1"/>
@@ -22,8 +23,18 @@
     <definedName name="Remember_Me_checkbox_error" localSheetId="4">TestCase!#REF!</definedName>
     <definedName name="Remember_Me_checkbox_error">TestCase!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -32,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="451">
   <si>
     <t>Test Case Report</t>
   </si>
@@ -1606,11 +1617,25 @@
   <si>
     <t>19/04/2023</t>
   </si>
+  <si>
+    <t>Checking OTP expiration time</t>
+  </si>
+  <si>
+    <t>An unauthorized message should be shown to the user</t>
+  </si>
+  <si>
+    <t>1. Goto the URL
+https://www.bikroy.com/
+2. Click on 'Login' button at the top right corner
+3. Click on 'Continue with Mobile number and OTP'
+4. Wait until the OTP is expired
+5- Enter the OTP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="43">
     <font>
       <sz val="10"/>
@@ -3231,17 +3256,20 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3253,26 +3281,99 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3286,84 +3387,8 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3882,7 +3907,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3970,7 +3994,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
@@ -3998,9 +4021,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-FEC7-42DB-822E-9B49AB70D8DE}"/>
                 </c:ext>
@@ -4008,7 +4029,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
@@ -4036,9 +4056,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-FEC7-42DB-822E-9B49AB70D8DE}"/>
                 </c:ext>
@@ -4046,7 +4064,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
@@ -4074,9 +4091,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-FEC7-42DB-822E-9B49AB70D8DE}"/>
                 </c:ext>
@@ -4084,7 +4099,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:spPr>
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
@@ -4112,9 +4126,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-FEC7-42DB-822E-9B49AB70D8DE}"/>
                 </c:ext>
@@ -4222,7 +4234,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -4301,7 +4312,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4350,7 +4367,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4630,10 +4653,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8"/>
   <sheetData/>
@@ -4644,7 +4667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6419,7 +6442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z250"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6444,39 +6467,39 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="293" t="s">
+      <c r="B4" s="281" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="293"/>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
+      <c r="C4" s="281"/>
+      <c r="D4" s="281"/>
+      <c r="E4" s="281"/>
+      <c r="F4" s="281"/>
+      <c r="G4" s="281"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="289" t="s">
+      <c r="C5" s="282" t="s">
         <v>443</v>
       </c>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="282"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="289">
+      <c r="C6" s="282">
         <v>1</v>
       </c>
-      <c r="D6" s="289"/>
-      <c r="E6" s="289"/>
-      <c r="F6" s="289"/>
-      <c r="G6" s="289"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
       <c r="I6" s="4">
         <f>C14</f>
         <v>40</v>
@@ -6491,13 +6514,13 @@
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="289" t="s">
+      <c r="C7" s="282" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="289"/>
-      <c r="E7" s="289"/>
-      <c r="F7" s="289"/>
-      <c r="G7" s="289"/>
+      <c r="D7" s="282"/>
+      <c r="E7" s="282"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="282"/>
       <c r="I7" s="4">
         <f>D14</f>
         <v>6</v>
@@ -6512,13 +6535,13 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="289" t="s">
+      <c r="C8" s="282" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="289"/>
-      <c r="E8" s="289"/>
-      <c r="F8" s="289"/>
-      <c r="G8" s="289"/>
+      <c r="D8" s="282"/>
+      <c r="E8" s="282"/>
+      <c r="F8" s="282"/>
+      <c r="G8" s="282"/>
       <c r="I8" s="4">
         <f>E14</f>
         <v>0</v>
@@ -6545,13 +6568,13 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="289" t="s">
+      <c r="C9" s="282" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
+      <c r="D9" s="282"/>
+      <c r="E9" s="282"/>
+      <c r="F9" s="282"/>
+      <c r="G9" s="282"/>
       <c r="I9" s="4">
         <f>F14</f>
         <v>0</v>
@@ -6567,22 +6590,22 @@
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B10" s="290" t="s">
+      <c r="B10" s="283" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="290"/>
-      <c r="D10" s="290"/>
-      <c r="E10" s="290"/>
-      <c r="F10" s="290"/>
-      <c r="G10" s="290"/>
+      <c r="C10" s="283"/>
+      <c r="D10" s="283"/>
+      <c r="E10" s="283"/>
+      <c r="F10" s="283"/>
+      <c r="G10" s="283"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="290"/>
-      <c r="C11" s="290"/>
-      <c r="D11" s="290"/>
-      <c r="E11" s="290"/>
-      <c r="F11" s="290"/>
-      <c r="G11" s="290"/>
+      <c r="B11" s="283"/>
+      <c r="C11" s="283"/>
+      <c r="D11" s="283"/>
+      <c r="E11" s="283"/>
+      <c r="F11" s="283"/>
+      <c r="G11" s="283"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="B12" s="10" t="s">
@@ -6717,21 +6740,21 @@
       <c r="R16" s="13"/>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B17" s="291" t="s">
+      <c r="B17" s="284" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="291"/>
-      <c r="D17" s="291"/>
-      <c r="E17" s="291"/>
-      <c r="F17" s="291"/>
-      <c r="G17" s="291"/>
+      <c r="C17" s="284"/>
+      <c r="D17" s="284"/>
+      <c r="E17" s="284"/>
+      <c r="F17" s="284"/>
+      <c r="G17" s="284"/>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B18" s="292" t="s">
+      <c r="B18" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="292"/>
-      <c r="D18" s="292"/>
+      <c r="C18" s="285"/>
+      <c r="D18" s="285"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28" t="s">
         <v>22</v>
@@ -6741,11 +6764,11 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B19" s="285" t="s">
+      <c r="B19" s="286" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="285"/>
-      <c r="D19" s="285"/>
+      <c r="C19" s="286"/>
+      <c r="D19" s="286"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29" t="s">
         <v>25</v>
@@ -6755,11 +6778,11 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B20" s="285" t="s">
+      <c r="B20" s="286" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="285"/>
-      <c r="D20" s="285"/>
+      <c r="C20" s="286"/>
+      <c r="D20" s="286"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29" t="s">
         <v>25</v>
@@ -6770,306 +6793,306 @@
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="22" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B22" s="286"/>
-      <c r="C22" s="287" t="s">
+      <c r="B22" s="287"/>
+      <c r="C22" s="288" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="288" t="s">
+      <c r="D22" s="289" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="288"/>
-      <c r="F22" s="288"/>
-      <c r="G22" s="288"/>
+      <c r="E22" s="289"/>
+      <c r="F22" s="289"/>
+      <c r="G22" s="289"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B23" s="286"/>
-      <c r="C23" s="286"/>
-      <c r="D23" s="288"/>
-      <c r="E23" s="288"/>
-      <c r="F23" s="288"/>
-      <c r="G23" s="288"/>
+      <c r="B23" s="287"/>
+      <c r="C23" s="287"/>
+      <c r="D23" s="289"/>
+      <c r="E23" s="289"/>
+      <c r="F23" s="289"/>
+      <c r="G23" s="289"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B24" s="286"/>
-      <c r="C24" s="286"/>
-      <c r="D24" s="288"/>
-      <c r="E24" s="288"/>
-      <c r="F24" s="288"/>
-      <c r="G24" s="288"/>
+      <c r="B24" s="287"/>
+      <c r="C24" s="287"/>
+      <c r="D24" s="289"/>
+      <c r="E24" s="289"/>
+      <c r="F24" s="289"/>
+      <c r="G24" s="289"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B25" s="286"/>
-      <c r="C25" s="286"/>
-      <c r="D25" s="288"/>
-      <c r="E25" s="288"/>
-      <c r="F25" s="288"/>
-      <c r="G25" s="288"/>
+      <c r="B25" s="287"/>
+      <c r="C25" s="287"/>
+      <c r="D25" s="289"/>
+      <c r="E25" s="289"/>
+      <c r="F25" s="289"/>
+      <c r="G25" s="289"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B26" s="281" t="s">
+      <c r="B26" s="290" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="282" t="s">
+      <c r="C26" s="291" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="283" t="s">
+      <c r="D26" s="292" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="283"/>
-      <c r="F26" s="283"/>
-      <c r="G26" s="283"/>
+      <c r="E26" s="292"/>
+      <c r="F26" s="292"/>
+      <c r="G26" s="292"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B27" s="281"/>
-      <c r="C27" s="281"/>
-      <c r="D27" s="283"/>
-      <c r="E27" s="283"/>
-      <c r="F27" s="283"/>
-      <c r="G27" s="283"/>
+      <c r="B27" s="290"/>
+      <c r="C27" s="290"/>
+      <c r="D27" s="292"/>
+      <c r="E27" s="292"/>
+      <c r="F27" s="292"/>
+      <c r="G27" s="292"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B28" s="281"/>
-      <c r="C28" s="281"/>
-      <c r="D28" s="283"/>
-      <c r="E28" s="283"/>
-      <c r="F28" s="283"/>
-      <c r="G28" s="283"/>
+      <c r="B28" s="290"/>
+      <c r="C28" s="290"/>
+      <c r="D28" s="292"/>
+      <c r="E28" s="292"/>
+      <c r="F28" s="292"/>
+      <c r="G28" s="292"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B29" s="281"/>
-      <c r="C29" s="281"/>
-      <c r="D29" s="283"/>
-      <c r="E29" s="283"/>
-      <c r="F29" s="283"/>
-      <c r="G29" s="283"/>
+      <c r="B29" s="290"/>
+      <c r="C29" s="290"/>
+      <c r="D29" s="292"/>
+      <c r="E29" s="292"/>
+      <c r="F29" s="292"/>
+      <c r="G29" s="292"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B30" s="281" t="s">
+      <c r="B30" s="290" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="282" t="s">
+      <c r="C30" s="291" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="283" t="s">
+      <c r="D30" s="292" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="283"/>
-      <c r="F30" s="283"/>
-      <c r="G30" s="283"/>
+      <c r="E30" s="292"/>
+      <c r="F30" s="292"/>
+      <c r="G30" s="292"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B31" s="281"/>
-      <c r="C31" s="281"/>
-      <c r="D31" s="283"/>
-      <c r="E31" s="283"/>
-      <c r="F31" s="283"/>
-      <c r="G31" s="283"/>
+      <c r="B31" s="290"/>
+      <c r="C31" s="290"/>
+      <c r="D31" s="292"/>
+      <c r="E31" s="292"/>
+      <c r="F31" s="292"/>
+      <c r="G31" s="292"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B32" s="281"/>
-      <c r="C32" s="281"/>
-      <c r="D32" s="283"/>
-      <c r="E32" s="283"/>
-      <c r="F32" s="283"/>
-      <c r="G32" s="283"/>
+      <c r="B32" s="290"/>
+      <c r="C32" s="290"/>
+      <c r="D32" s="292"/>
+      <c r="E32" s="292"/>
+      <c r="F32" s="292"/>
+      <c r="G32" s="292"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="281"/>
-      <c r="C33" s="281"/>
-      <c r="D33" s="283"/>
-      <c r="E33" s="283"/>
-      <c r="F33" s="283"/>
-      <c r="G33" s="283"/>
+      <c r="B33" s="290"/>
+      <c r="C33" s="290"/>
+      <c r="D33" s="292"/>
+      <c r="E33" s="292"/>
+      <c r="F33" s="292"/>
+      <c r="G33" s="292"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="281" t="s">
+      <c r="B34" s="290" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="282" t="s">
+      <c r="C34" s="291" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="283" t="s">
+      <c r="D34" s="292" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="283"/>
-      <c r="F34" s="283"/>
-      <c r="G34" s="283"/>
+      <c r="E34" s="292"/>
+      <c r="F34" s="292"/>
+      <c r="G34" s="292"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="281"/>
-      <c r="C35" s="281"/>
-      <c r="D35" s="283"/>
-      <c r="E35" s="283"/>
-      <c r="F35" s="283"/>
-      <c r="G35" s="283"/>
+      <c r="B35" s="290"/>
+      <c r="C35" s="290"/>
+      <c r="D35" s="292"/>
+      <c r="E35" s="292"/>
+      <c r="F35" s="292"/>
+      <c r="G35" s="292"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="281"/>
-      <c r="C36" s="281"/>
-      <c r="D36" s="283"/>
-      <c r="E36" s="283"/>
-      <c r="F36" s="283"/>
-      <c r="G36" s="283"/>
+      <c r="B36" s="290"/>
+      <c r="C36" s="290"/>
+      <c r="D36" s="292"/>
+      <c r="E36" s="292"/>
+      <c r="F36" s="292"/>
+      <c r="G36" s="292"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="281"/>
-      <c r="C37" s="281"/>
-      <c r="D37" s="283"/>
-      <c r="E37" s="283"/>
-      <c r="F37" s="283"/>
-      <c r="G37" s="283"/>
+      <c r="B37" s="290"/>
+      <c r="C37" s="290"/>
+      <c r="D37" s="292"/>
+      <c r="E37" s="292"/>
+      <c r="F37" s="292"/>
+      <c r="G37" s="292"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="281" t="s">
+      <c r="B38" s="290" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="282" t="s">
+      <c r="C38" s="291" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="283" t="s">
+      <c r="D38" s="292" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="283"/>
-      <c r="F38" s="283"/>
-      <c r="G38" s="283"/>
+      <c r="E38" s="292"/>
+      <c r="F38" s="292"/>
+      <c r="G38" s="292"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="281"/>
-      <c r="C39" s="281"/>
-      <c r="D39" s="283"/>
-      <c r="E39" s="283"/>
-      <c r="F39" s="283"/>
-      <c r="G39" s="283"/>
+      <c r="B39" s="290"/>
+      <c r="C39" s="290"/>
+      <c r="D39" s="292"/>
+      <c r="E39" s="292"/>
+      <c r="F39" s="292"/>
+      <c r="G39" s="292"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="281"/>
-      <c r="C40" s="281"/>
-      <c r="D40" s="283"/>
-      <c r="E40" s="283"/>
-      <c r="F40" s="283"/>
-      <c r="G40" s="283"/>
+      <c r="B40" s="290"/>
+      <c r="C40" s="290"/>
+      <c r="D40" s="292"/>
+      <c r="E40" s="292"/>
+      <c r="F40" s="292"/>
+      <c r="G40" s="292"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="281"/>
-      <c r="C41" s="281"/>
-      <c r="D41" s="283"/>
-      <c r="E41" s="283"/>
-      <c r="F41" s="283"/>
-      <c r="G41" s="283"/>
+      <c r="B41" s="290"/>
+      <c r="C41" s="290"/>
+      <c r="D41" s="292"/>
+      <c r="E41" s="292"/>
+      <c r="F41" s="292"/>
+      <c r="G41" s="292"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="281" t="s">
+      <c r="B42" s="290" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="284" t="s">
+      <c r="C42" s="293" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="283" t="s">
+      <c r="D42" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="283"/>
-      <c r="F42" s="283"/>
-      <c r="G42" s="283"/>
+      <c r="E42" s="292"/>
+      <c r="F42" s="292"/>
+      <c r="G42" s="292"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="281"/>
-      <c r="C43" s="281"/>
-      <c r="D43" s="283"/>
-      <c r="E43" s="283"/>
-      <c r="F43" s="283"/>
-      <c r="G43" s="283"/>
+      <c r="B43" s="290"/>
+      <c r="C43" s="290"/>
+      <c r="D43" s="292"/>
+      <c r="E43" s="292"/>
+      <c r="F43" s="292"/>
+      <c r="G43" s="292"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="281"/>
-      <c r="C44" s="281"/>
-      <c r="D44" s="283"/>
-      <c r="E44" s="283"/>
-      <c r="F44" s="283"/>
-      <c r="G44" s="283"/>
+      <c r="B44" s="290"/>
+      <c r="C44" s="290"/>
+      <c r="D44" s="292"/>
+      <c r="E44" s="292"/>
+      <c r="F44" s="292"/>
+      <c r="G44" s="292"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="281"/>
-      <c r="C45" s="281"/>
-      <c r="D45" s="283"/>
-      <c r="E45" s="283"/>
-      <c r="F45" s="283"/>
-      <c r="G45" s="283"/>
+      <c r="B45" s="290"/>
+      <c r="C45" s="290"/>
+      <c r="D45" s="292"/>
+      <c r="E45" s="292"/>
+      <c r="F45" s="292"/>
+      <c r="G45" s="292"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="281" t="s">
+      <c r="B46" s="290" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="284" t="s">
+      <c r="C46" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="283" t="s">
+      <c r="D46" s="292" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="283"/>
-      <c r="F46" s="283"/>
-      <c r="G46" s="283"/>
+      <c r="E46" s="292"/>
+      <c r="F46" s="292"/>
+      <c r="G46" s="292"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="281"/>
-      <c r="C47" s="281"/>
-      <c r="D47" s="283"/>
-      <c r="E47" s="283"/>
-      <c r="F47" s="283"/>
-      <c r="G47" s="283"/>
+      <c r="B47" s="290"/>
+      <c r="C47" s="290"/>
+      <c r="D47" s="292"/>
+      <c r="E47" s="292"/>
+      <c r="F47" s="292"/>
+      <c r="G47" s="292"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="281"/>
-      <c r="C48" s="281"/>
-      <c r="D48" s="283"/>
-      <c r="E48" s="283"/>
-      <c r="F48" s="283"/>
-      <c r="G48" s="283"/>
+      <c r="B48" s="290"/>
+      <c r="C48" s="290"/>
+      <c r="D48" s="292"/>
+      <c r="E48" s="292"/>
+      <c r="F48" s="292"/>
+      <c r="G48" s="292"/>
     </row>
     <row r="49" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B49" s="281"/>
-      <c r="C49" s="281"/>
-      <c r="D49" s="283"/>
-      <c r="E49" s="283"/>
-      <c r="F49" s="283"/>
-      <c r="G49" s="283"/>
+      <c r="B49" s="290"/>
+      <c r="C49" s="290"/>
+      <c r="D49" s="292"/>
+      <c r="E49" s="292"/>
+      <c r="F49" s="292"/>
+      <c r="G49" s="292"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B50" s="281" t="s">
+      <c r="B50" s="290" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="284" t="s">
+      <c r="C50" s="293" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="283" t="s">
+      <c r="D50" s="292" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="283"/>
-      <c r="F50" s="283"/>
-      <c r="G50" s="283"/>
+      <c r="E50" s="292"/>
+      <c r="F50" s="292"/>
+      <c r="G50" s="292"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="281"/>
-      <c r="C51" s="281"/>
-      <c r="D51" s="283"/>
-      <c r="E51" s="283"/>
-      <c r="F51" s="283"/>
-      <c r="G51" s="283"/>
+      <c r="B51" s="290"/>
+      <c r="C51" s="290"/>
+      <c r="D51" s="292"/>
+      <c r="E51" s="292"/>
+      <c r="F51" s="292"/>
+      <c r="G51" s="292"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="281"/>
-      <c r="C52" s="281"/>
-      <c r="D52" s="283"/>
-      <c r="E52" s="283"/>
-      <c r="F52" s="283"/>
-      <c r="G52" s="283"/>
+      <c r="B52" s="290"/>
+      <c r="C52" s="290"/>
+      <c r="D52" s="292"/>
+      <c r="E52" s="292"/>
+      <c r="F52" s="292"/>
+      <c r="G52" s="292"/>
     </row>
     <row r="53" spans="2:7" ht="39" customHeight="1">
-      <c r="B53" s="281"/>
-      <c r="C53" s="281"/>
-      <c r="D53" s="283"/>
-      <c r="E53" s="283"/>
-      <c r="F53" s="283"/>
-      <c r="G53" s="283"/>
+      <c r="B53" s="290"/>
+      <c r="C53" s="290"/>
+      <c r="D53" s="292"/>
+      <c r="E53" s="292"/>
+      <c r="F53" s="292"/>
+      <c r="G53" s="292"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
@@ -7270,29 +7293,6 @@
     <row r="250" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B10:G11"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:G25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:G29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:G33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:G37"/>
     <mergeCell ref="B38:B41"/>
     <mergeCell ref="C38:C41"/>
     <mergeCell ref="D38:G41"/>
@@ -7305,6 +7305,29 @@
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="D46:G49"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:G33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:G37"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:G25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:G29"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B10:G11"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -7313,12 +7336,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD371"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AD372"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8"/>
@@ -7341,11 +7364,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="299" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
+      <c r="B1" s="299"/>
+      <c r="C1" s="299"/>
       <c r="D1" s="219" t="s">
         <v>178</v>
       </c>
@@ -7365,10 +7388,10 @@
       <c r="J1" s="33"/>
       <c r="K1" s="33"/>
       <c r="L1" s="34"/>
-      <c r="M1" s="319" t="s">
+      <c r="M1" s="300" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="319"/>
+      <c r="N1" s="300"/>
       <c r="O1" s="35"/>
       <c r="P1" s="35"/>
       <c r="Q1" s="35"/>
@@ -7387,11 +7410,11 @@
       <c r="AD1" s="35"/>
     </row>
     <row r="2" spans="1:30" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A2" s="320" t="s">
+      <c r="A2" s="301" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
       <c r="D2" s="221" t="s">
         <v>179</v>
       </c>
@@ -7415,7 +7438,7 @@
         <v>3</v>
       </c>
       <c r="N2" s="40">
-        <f>COUNTIF(M8:M58, "Passed")</f>
+        <f>COUNTIF(M8:M59, "Passed")</f>
         <v>40</v>
       </c>
       <c r="O2" s="35"/>
@@ -7436,9 +7459,9 @@
       <c r="AD2" s="35"/>
     </row>
     <row r="3" spans="1:30" ht="33" customHeight="1" thickBot="1">
-      <c r="A3" s="321"/>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
+      <c r="A3" s="302"/>
+      <c r="B3" s="302"/>
+      <c r="C3" s="302"/>
       <c r="D3" s="222"/>
       <c r="E3" s="37" t="s">
         <v>50</v>
@@ -7460,7 +7483,7 @@
         <v>5</v>
       </c>
       <c r="N3" s="40">
-        <f>COUNTIF(M8:M485, "Failed")</f>
+        <f>COUNTIF(M8:M486, "Failed")</f>
         <v>6</v>
       </c>
       <c r="O3" s="35"/>
@@ -7481,9 +7504,9 @@
       <c r="AD3" s="35"/>
     </row>
     <row r="4" spans="1:30" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A4" s="321"/>
-      <c r="B4" s="321"/>
-      <c r="C4" s="321"/>
+      <c r="A4" s="302"/>
+      <c r="B4" s="302"/>
+      <c r="C4" s="302"/>
       <c r="D4" s="222"/>
       <c r="E4" s="37" t="s">
         <v>53</v>
@@ -7505,7 +7528,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="40">
-        <f>COUNTIF(M7:M485, "Not Executed")</f>
+        <f>COUNTIF(M7:M486, "Not Executed")</f>
         <v>0</v>
       </c>
       <c r="O4" s="35"/>
@@ -7526,16 +7549,16 @@
       <c r="AD4" s="35"/>
     </row>
     <row r="5" spans="1:30" s="49" customFormat="1" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A5" s="322" t="s">
+      <c r="A5" s="294" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="322"/>
-      <c r="C5" s="322"/>
-      <c r="D5" s="323"/>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="324"/>
-      <c r="H5" s="324"/>
+      <c r="B5" s="294"/>
+      <c r="C5" s="294"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
       <c r="I5" s="44"/>
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
@@ -7544,7 +7567,7 @@
         <v>14</v>
       </c>
       <c r="N5" s="47">
-        <f>COUNTIF(M7:M485, "Out of Scope")</f>
+        <f>COUNTIF(M7:M486, "Out of Scope")</f>
         <v>0</v>
       </c>
       <c r="O5" s="48"/>
@@ -7750,13 +7773,13 @@
       <c r="B10" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="310" t="s">
+      <c r="C10" s="303" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="325" t="s">
+      <c r="D10" s="297" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="326" t="s">
+      <c r="E10" s="298" t="s">
         <v>318</v>
       </c>
       <c r="F10" s="62" t="s">
@@ -7804,9 +7827,9 @@
       <c r="B11" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="311"/>
-      <c r="D11" s="325"/>
-      <c r="E11" s="326"/>
+      <c r="C11" s="304"/>
+      <c r="D11" s="297"/>
+      <c r="E11" s="298"/>
       <c r="F11" s="62" t="s">
         <v>80</v>
       </c>
@@ -7852,9 +7875,9 @@
       <c r="B12" s="59" t="s">
         <v>391</v>
       </c>
-      <c r="C12" s="311"/>
-      <c r="D12" s="325"/>
-      <c r="E12" s="326"/>
+      <c r="C12" s="304"/>
+      <c r="D12" s="297"/>
+      <c r="E12" s="298"/>
       <c r="F12" s="62" t="s">
         <v>82</v>
       </c>
@@ -7900,9 +7923,9 @@
       <c r="B13" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="311"/>
-      <c r="D13" s="325"/>
-      <c r="E13" s="326"/>
+      <c r="C13" s="304"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="298"/>
       <c r="F13" s="62" t="s">
         <v>84</v>
       </c>
@@ -7944,9 +7967,9 @@
     <row r="14" spans="1:30" s="92" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A14" s="69"/>
       <c r="B14" s="226"/>
-      <c r="C14" s="311"/>
+      <c r="C14" s="304"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="326"/>
+      <c r="E14" s="298"/>
       <c r="F14" s="86"/>
       <c r="G14" s="86"/>
       <c r="H14" s="86"/>
@@ -7980,11 +8003,11 @@
       <c r="B15" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="311"/>
-      <c r="D15" s="326" t="s">
+      <c r="C15" s="304"/>
+      <c r="D15" s="298" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="326"/>
+      <c r="E15" s="298"/>
       <c r="F15" s="94" t="s">
         <v>88</v>
       </c>
@@ -8030,9 +8053,9 @@
       <c r="B16" s="59" t="s">
         <v>392</v>
       </c>
-      <c r="C16" s="311"/>
-      <c r="D16" s="326"/>
-      <c r="E16" s="326"/>
+      <c r="C16" s="304"/>
+      <c r="D16" s="298"/>
+      <c r="E16" s="298"/>
       <c r="F16" s="94" t="s">
         <v>326</v>
       </c>
@@ -8078,9 +8101,9 @@
       <c r="B17" s="59" t="s">
         <v>393</v>
       </c>
-      <c r="C17" s="311"/>
-      <c r="D17" s="326"/>
-      <c r="E17" s="326"/>
+      <c r="C17" s="304"/>
+      <c r="D17" s="298"/>
+      <c r="E17" s="298"/>
       <c r="F17" s="102" t="s">
         <v>92</v>
       </c>
@@ -8126,9 +8149,9 @@
       <c r="B18" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="C18" s="311"/>
-      <c r="D18" s="326"/>
-      <c r="E18" s="326"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="298"/>
+      <c r="E18" s="298"/>
       <c r="F18" s="94" t="s">
         <v>327</v>
       </c>
@@ -8176,9 +8199,9 @@
       <c r="B19" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="311"/>
-      <c r="D19" s="326"/>
-      <c r="E19" s="326"/>
+      <c r="C19" s="304"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
       <c r="F19" s="94" t="s">
         <v>328</v>
       </c>
@@ -8226,9 +8249,9 @@
       <c r="B20" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="C20" s="311"/>
-      <c r="D20" s="326"/>
-      <c r="E20" s="326"/>
+      <c r="C20" s="304"/>
+      <c r="D20" s="298"/>
+      <c r="E20" s="298"/>
       <c r="F20" s="94" t="s">
         <v>340</v>
       </c>
@@ -8276,9 +8299,9 @@
       <c r="B21" s="59" t="s">
         <v>395</v>
       </c>
-      <c r="C21" s="311"/>
-      <c r="D21" s="326"/>
-      <c r="E21" s="326"/>
+      <c r="C21" s="304"/>
+      <c r="D21" s="298"/>
+      <c r="E21" s="298"/>
       <c r="F21" s="94" t="s">
         <v>341</v>
       </c>
@@ -8324,9 +8347,9 @@
       <c r="B22" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="C22" s="311"/>
-      <c r="D22" s="326"/>
-      <c r="E22" s="326"/>
+      <c r="C22" s="304"/>
+      <c r="D22" s="298"/>
+      <c r="E22" s="298"/>
       <c r="F22" s="94" t="s">
         <v>339</v>
       </c>
@@ -8372,9 +8395,9 @@
       <c r="B23" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="311"/>
-      <c r="D23" s="326"/>
-      <c r="E23" s="326"/>
+      <c r="C23" s="304"/>
+      <c r="D23" s="298"/>
+      <c r="E23" s="298"/>
       <c r="F23" s="94" t="s">
         <v>338</v>
       </c>
@@ -8422,9 +8445,9 @@
       <c r="B24" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="311"/>
-      <c r="D24" s="326"/>
-      <c r="E24" s="326"/>
+      <c r="C24" s="304"/>
+      <c r="D24" s="298"/>
+      <c r="E24" s="298"/>
       <c r="F24" s="94" t="s">
         <v>342</v>
       </c>
@@ -8470,9 +8493,9 @@
       <c r="B25" s="59" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="311"/>
-      <c r="D25" s="326"/>
-      <c r="E25" s="326"/>
+      <c r="C25" s="304"/>
+      <c r="D25" s="298"/>
+      <c r="E25" s="298"/>
       <c r="F25" s="94" t="s">
         <v>99</v>
       </c>
@@ -8518,9 +8541,9 @@
       <c r="B26" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="311"/>
-      <c r="D26" s="326"/>
-      <c r="E26" s="326"/>
+      <c r="C26" s="304"/>
+      <c r="D26" s="298"/>
+      <c r="E26" s="298"/>
       <c r="F26" s="102" t="s">
         <v>102</v>
       </c>
@@ -8566,9 +8589,9 @@
       <c r="B27" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="311"/>
-      <c r="D27" s="326"/>
-      <c r="E27" s="326"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="298"/>
+      <c r="E27" s="298"/>
       <c r="F27" s="102" t="s">
         <v>104</v>
       </c>
@@ -8614,9 +8637,9 @@
       <c r="B28" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="311"/>
-      <c r="D28" s="326"/>
-      <c r="E28" s="326"/>
+      <c r="C28" s="304"/>
+      <c r="D28" s="298"/>
+      <c r="E28" s="298"/>
       <c r="F28" s="62" t="s">
         <v>105</v>
       </c>
@@ -8662,9 +8685,9 @@
       <c r="B29" s="59" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="311"/>
-      <c r="D29" s="326"/>
-      <c r="E29" s="326"/>
+      <c r="C29" s="304"/>
+      <c r="D29" s="298"/>
+      <c r="E29" s="298"/>
       <c r="F29" s="62" t="s">
         <v>107</v>
       </c>
@@ -8710,9 +8733,9 @@
       <c r="B30" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="311"/>
-      <c r="D30" s="326"/>
-      <c r="E30" s="326"/>
+      <c r="C30" s="304"/>
+      <c r="D30" s="298"/>
+      <c r="E30" s="298"/>
       <c r="F30" s="62" t="s">
         <v>109</v>
       </c>
@@ -8758,9 +8781,9 @@
       <c r="B31" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="C31" s="311"/>
-      <c r="D31" s="326"/>
-      <c r="E31" s="326"/>
+      <c r="C31" s="304"/>
+      <c r="D31" s="298"/>
+      <c r="E31" s="298"/>
       <c r="F31" s="62" t="s">
         <v>111</v>
       </c>
@@ -8806,9 +8829,9 @@
       <c r="B32" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="311"/>
-      <c r="D32" s="326"/>
-      <c r="E32" s="326"/>
+      <c r="C32" s="304"/>
+      <c r="D32" s="298"/>
+      <c r="E32" s="298"/>
       <c r="F32" s="62" t="s">
         <v>112</v>
       </c>
@@ -8854,9 +8877,9 @@
       <c r="B33" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="311"/>
-      <c r="D33" s="326"/>
-      <c r="E33" s="326"/>
+      <c r="C33" s="304"/>
+      <c r="D33" s="298"/>
+      <c r="E33" s="298"/>
       <c r="F33" s="62" t="s">
         <v>114</v>
       </c>
@@ -8902,9 +8925,9 @@
       <c r="B34" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="311"/>
-      <c r="D34" s="326"/>
-      <c r="E34" s="326"/>
+      <c r="C34" s="304"/>
+      <c r="D34" s="298"/>
+      <c r="E34" s="298"/>
       <c r="F34" s="62" t="s">
         <v>115</v>
       </c>
@@ -8950,9 +8973,9 @@
       <c r="B35" s="59" t="s">
         <v>203</v>
       </c>
-      <c r="C35" s="311"/>
-      <c r="D35" s="326"/>
-      <c r="E35" s="326"/>
+      <c r="C35" s="304"/>
+      <c r="D35" s="298"/>
+      <c r="E35" s="298"/>
       <c r="F35" s="62" t="s">
         <v>116</v>
       </c>
@@ -9000,9 +9023,9 @@
       <c r="B36" s="59" t="s">
         <v>204</v>
       </c>
-      <c r="C36" s="311"/>
-      <c r="D36" s="326"/>
-      <c r="E36" s="326"/>
+      <c r="C36" s="304"/>
+      <c r="D36" s="298"/>
+      <c r="E36" s="298"/>
       <c r="F36" s="95" t="s">
         <v>119</v>
       </c>
@@ -9048,9 +9071,9 @@
       <c r="B37" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="C37" s="311"/>
-      <c r="D37" s="326"/>
-      <c r="E37" s="326"/>
+      <c r="C37" s="304"/>
+      <c r="D37" s="298"/>
+      <c r="E37" s="298"/>
       <c r="F37" s="95" t="s">
         <v>120</v>
       </c>
@@ -9092,9 +9115,9 @@
     <row r="38" spans="1:30" s="107" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A38" s="103"/>
       <c r="B38" s="226"/>
-      <c r="C38" s="311"/>
+      <c r="C38" s="304"/>
       <c r="D38" s="104"/>
-      <c r="E38" s="326"/>
+      <c r="E38" s="298"/>
       <c r="F38" s="105"/>
       <c r="G38" s="86"/>
       <c r="H38" s="86"/>
@@ -9128,11 +9151,11 @@
       <c r="B39" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="C39" s="311"/>
-      <c r="D39" s="326" t="s">
+      <c r="C39" s="304"/>
+      <c r="D39" s="298" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="326"/>
+      <c r="E39" s="298"/>
       <c r="F39" s="102" t="s">
         <v>122</v>
       </c>
@@ -9178,9 +9201,9 @@
       <c r="B40" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="C40" s="311"/>
-      <c r="D40" s="326"/>
-      <c r="E40" s="326"/>
+      <c r="C40" s="304"/>
+      <c r="D40" s="298"/>
+      <c r="E40" s="298"/>
       <c r="F40" s="108" t="s">
         <v>125</v>
       </c>
@@ -9222,7 +9245,7 @@
     <row r="41" spans="1:30" s="258" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A41" s="250"/>
       <c r="B41" s="226"/>
-      <c r="C41" s="311"/>
+      <c r="C41" s="304"/>
       <c r="D41" s="263"/>
       <c r="E41" s="264"/>
       <c r="F41" s="265"/>
@@ -9258,11 +9281,11 @@
       <c r="B42" s="59" t="s">
         <v>208</v>
       </c>
-      <c r="C42" s="311"/>
-      <c r="D42" s="315" t="s">
+      <c r="C42" s="304"/>
+      <c r="D42" s="308" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="315" t="s">
+      <c r="E42" s="308" t="s">
         <v>256</v>
       </c>
       <c r="F42" s="95" t="s">
@@ -9310,9 +9333,9 @@
       <c r="B43" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="C43" s="311"/>
-      <c r="D43" s="316"/>
-      <c r="E43" s="316"/>
+      <c r="C43" s="304"/>
+      <c r="D43" s="309"/>
+      <c r="E43" s="309"/>
       <c r="F43" s="102" t="s">
         <v>131</v>
       </c>
@@ -9358,9 +9381,9 @@
       <c r="B44" s="59" t="s">
         <v>398</v>
       </c>
-      <c r="C44" s="311"/>
-      <c r="D44" s="316"/>
-      <c r="E44" s="316"/>
+      <c r="C44" s="304"/>
+      <c r="D44" s="309"/>
+      <c r="E44" s="309"/>
       <c r="F44" s="102" t="s">
         <v>132</v>
       </c>
@@ -9406,9 +9429,9 @@
       <c r="B45" s="59" t="s">
         <v>399</v>
       </c>
-      <c r="C45" s="311"/>
-      <c r="D45" s="316"/>
-      <c r="E45" s="316"/>
+      <c r="C45" s="304"/>
+      <c r="D45" s="309"/>
+      <c r="E45" s="309"/>
       <c r="F45" s="102" t="s">
         <v>133</v>
       </c>
@@ -9454,9 +9477,9 @@
       <c r="B46" s="59" t="s">
         <v>400</v>
       </c>
-      <c r="C46" s="311"/>
-      <c r="D46" s="316"/>
-      <c r="E46" s="316"/>
+      <c r="C46" s="304"/>
+      <c r="D46" s="309"/>
+      <c r="E46" s="309"/>
       <c r="F46" s="102" t="s">
         <v>134</v>
       </c>
@@ -9502,9 +9525,9 @@
       <c r="B47" s="59" t="s">
         <v>401</v>
       </c>
-      <c r="C47" s="311"/>
-      <c r="D47" s="316"/>
-      <c r="E47" s="316"/>
+      <c r="C47" s="304"/>
+      <c r="D47" s="309"/>
+      <c r="E47" s="309"/>
       <c r="F47" s="79" t="s">
         <v>136</v>
       </c>
@@ -9550,9 +9573,9 @@
       <c r="B48" s="59" t="s">
         <v>402</v>
       </c>
-      <c r="C48" s="311"/>
-      <c r="D48" s="316"/>
-      <c r="E48" s="316"/>
+      <c r="C48" s="304"/>
+      <c r="D48" s="309"/>
+      <c r="E48" s="309"/>
       <c r="F48" s="102" t="s">
         <v>139</v>
       </c>
@@ -9598,9 +9621,9 @@
       <c r="B49" s="59" t="s">
         <v>403</v>
       </c>
-      <c r="C49" s="311"/>
-      <c r="D49" s="316"/>
-      <c r="E49" s="316"/>
+      <c r="C49" s="304"/>
+      <c r="D49" s="309"/>
+      <c r="E49" s="309"/>
       <c r="F49" s="102" t="s">
         <v>141</v>
       </c>
@@ -9646,9 +9669,9 @@
       <c r="B50" s="59" t="s">
         <v>404</v>
       </c>
-      <c r="C50" s="311"/>
-      <c r="D50" s="316"/>
-      <c r="E50" s="316"/>
+      <c r="C50" s="304"/>
+      <c r="D50" s="309"/>
+      <c r="E50" s="309"/>
       <c r="F50" s="102" t="s">
         <v>143</v>
       </c>
@@ -9694,9 +9717,9 @@
       <c r="B51" s="59" t="s">
         <v>405</v>
       </c>
-      <c r="C51" s="311"/>
-      <c r="D51" s="316"/>
-      <c r="E51" s="316"/>
+      <c r="C51" s="304"/>
+      <c r="D51" s="309"/>
+      <c r="E51" s="309"/>
       <c r="F51" s="102" t="s">
         <v>145</v>
       </c>
@@ -9744,9 +9767,9 @@
       <c r="B52" s="59" t="s">
         <v>406</v>
       </c>
-      <c r="C52" s="311"/>
-      <c r="D52" s="316"/>
-      <c r="E52" s="316"/>
+      <c r="C52" s="304"/>
+      <c r="D52" s="309"/>
+      <c r="E52" s="309"/>
       <c r="F52" s="94" t="s">
         <v>147</v>
       </c>
@@ -9792,9 +9815,9 @@
       <c r="B53" s="59" t="s">
         <v>407</v>
       </c>
-      <c r="C53" s="311"/>
-      <c r="D53" s="316"/>
-      <c r="E53" s="316"/>
+      <c r="C53" s="304"/>
+      <c r="D53" s="309"/>
+      <c r="E53" s="309"/>
       <c r="F53" s="102" t="s">
         <v>149</v>
       </c>
@@ -9840,9 +9863,9 @@
       <c r="B54" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="C54" s="311"/>
-      <c r="D54" s="316"/>
-      <c r="E54" s="316"/>
+      <c r="C54" s="304"/>
+      <c r="D54" s="309"/>
+      <c r="E54" s="309"/>
       <c r="F54" s="246" t="s">
         <v>365</v>
       </c>
@@ -9888,9 +9911,9 @@
       <c r="B55" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="C55" s="311"/>
-      <c r="D55" s="316"/>
-      <c r="E55" s="316"/>
+      <c r="C55" s="304"/>
+      <c r="D55" s="309"/>
+      <c r="E55" s="309"/>
       <c r="F55" s="246" t="s">
         <v>366</v>
       </c>
@@ -9936,9 +9959,9 @@
       <c r="B56" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="C56" s="311"/>
-      <c r="D56" s="316"/>
-      <c r="E56" s="316"/>
+      <c r="C56" s="304"/>
+      <c r="D56" s="309"/>
+      <c r="E56" s="309"/>
       <c r="F56" s="246" t="s">
         <v>413</v>
       </c>
@@ -9978,35 +10001,27 @@
       <c r="AD56" s="99"/>
     </row>
     <row r="57" spans="1:30" s="100" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A57" s="93">
-        <v>46</v>
-      </c>
-      <c r="B57" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="C57" s="311"/>
-      <c r="D57" s="317"/>
-      <c r="E57" s="317"/>
+      <c r="A57" s="93"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="304"/>
+      <c r="D57" s="309"/>
+      <c r="E57" s="309"/>
       <c r="F57" s="246" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="G57" s="95" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="H57" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="I57" s="246">
-        <v>1701013335</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="I57" s="246"/>
       <c r="J57" s="95" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="K57" s="95"/>
       <c r="L57" s="95"/>
-      <c r="M57" s="65" t="s">
-        <v>74</v>
-      </c>
+      <c r="M57" s="65"/>
       <c r="N57" s="65"/>
       <c r="O57" s="98"/>
       <c r="P57" s="98"/>
@@ -10025,175 +10040,175 @@
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
     </row>
-    <row r="58" spans="1:30" s="107" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A58" s="103"/>
-      <c r="B58" s="226"/>
-      <c r="C58" s="311"/>
-      <c r="D58" s="247"/>
-      <c r="E58" s="248"/>
-      <c r="F58" s="113"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="86"/>
-      <c r="L58" s="86"/>
-      <c r="M58" s="106"/>
-      <c r="N58" s="114"/>
-      <c r="O58" s="69"/>
-      <c r="P58" s="69"/>
-      <c r="Q58" s="69"/>
-      <c r="R58" s="69"/>
-      <c r="S58" s="69"/>
-      <c r="T58" s="69"/>
-      <c r="U58" s="69"/>
-      <c r="V58" s="75"/>
-      <c r="W58" s="75"/>
-      <c r="X58" s="75"/>
-      <c r="Y58" s="75"/>
-      <c r="Z58" s="75"/>
-      <c r="AA58" s="75"/>
-      <c r="AB58" s="75"/>
-      <c r="AC58" s="75"/>
-      <c r="AD58" s="75"/>
-    </row>
-    <row r="59" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A59" s="93">
+    <row r="58" spans="1:30" s="100" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A58" s="93">
+        <v>46</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" s="304"/>
+      <c r="D58" s="310"/>
+      <c r="E58" s="310"/>
+      <c r="F58" s="246" t="s">
+        <v>416</v>
+      </c>
+      <c r="G58" s="95" t="s">
+        <v>417</v>
+      </c>
+      <c r="H58" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="I58" s="246">
+        <v>1701013335</v>
+      </c>
+      <c r="J58" s="95" t="s">
+        <v>418</v>
+      </c>
+      <c r="K58" s="95"/>
+      <c r="L58" s="95"/>
+      <c r="M58" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="N58" s="65"/>
+      <c r="O58" s="98"/>
+      <c r="P58" s="98"/>
+      <c r="Q58" s="98"/>
+      <c r="R58" s="98"/>
+      <c r="S58" s="98"/>
+      <c r="T58" s="98"/>
+      <c r="U58" s="98"/>
+      <c r="V58" s="99"/>
+      <c r="W58" s="99"/>
+      <c r="X58" s="99"/>
+      <c r="Y58" s="99"/>
+      <c r="Z58" s="99"/>
+      <c r="AA58" s="99"/>
+      <c r="AB58" s="99"/>
+      <c r="AC58" s="99"/>
+      <c r="AD58" s="99"/>
+    </row>
+    <row r="59" spans="1:30" s="107" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A59" s="103"/>
+      <c r="B59" s="226"/>
+      <c r="C59" s="304"/>
+      <c r="D59" s="247"/>
+      <c r="E59" s="248"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="86"/>
+      <c r="H59" s="86"/>
+      <c r="I59" s="86"/>
+      <c r="J59" s="86"/>
+      <c r="K59" s="86"/>
+      <c r="L59" s="86"/>
+      <c r="M59" s="106"/>
+      <c r="N59" s="114"/>
+      <c r="O59" s="69"/>
+      <c r="P59" s="69"/>
+      <c r="Q59" s="69"/>
+      <c r="R59" s="69"/>
+      <c r="S59" s="69"/>
+      <c r="T59" s="69"/>
+      <c r="U59" s="69"/>
+      <c r="V59" s="75"/>
+      <c r="W59" s="75"/>
+      <c r="X59" s="75"/>
+      <c r="Y59" s="75"/>
+      <c r="Z59" s="75"/>
+      <c r="AA59" s="75"/>
+      <c r="AB59" s="75"/>
+      <c r="AC59" s="75"/>
+      <c r="AD59" s="75"/>
+    </row>
+    <row r="60" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A60" s="93">
         <v>47</v>
       </c>
-      <c r="B59" s="59"/>
-      <c r="C59" s="312"/>
-      <c r="D59" s="259"/>
-      <c r="E59" s="249" t="s">
+      <c r="B60" s="59"/>
+      <c r="C60" s="305"/>
+      <c r="D60" s="259"/>
+      <c r="E60" s="249" t="s">
         <v>151</v>
       </c>
-      <c r="F59" s="102" t="s">
+      <c r="F60" s="102" t="s">
         <v>412</v>
       </c>
-      <c r="G59" s="95"/>
-      <c r="H59" s="95"/>
-      <c r="I59" s="95"/>
-      <c r="J59" s="95"/>
-      <c r="K59" s="95"/>
-      <c r="L59" s="95"/>
-      <c r="M59" s="65"/>
-      <c r="N59" s="101"/>
-      <c r="O59" s="98"/>
-      <c r="P59" s="98"/>
-      <c r="Q59" s="98"/>
-      <c r="R59" s="98"/>
-      <c r="S59" s="98"/>
-      <c r="T59" s="98"/>
-      <c r="U59" s="98"/>
-      <c r="V59" s="99"/>
-      <c r="W59" s="99"/>
-      <c r="X59" s="99"/>
-      <c r="Y59" s="99"/>
-      <c r="Z59" s="99"/>
-      <c r="AA59" s="99"/>
-      <c r="AB59" s="99"/>
-      <c r="AC59" s="99"/>
-      <c r="AD59" s="99"/>
-    </row>
-    <row r="60" spans="1:30" s="258" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
-      <c r="A60" s="250"/>
-      <c r="B60" s="226"/>
-      <c r="C60" s="262"/>
-      <c r="D60" s="260"/>
-      <c r="E60" s="251"/>
-      <c r="F60" s="252"/>
-      <c r="G60" s="253"/>
-      <c r="H60" s="253"/>
-      <c r="I60" s="253"/>
-      <c r="J60" s="253"/>
-      <c r="K60" s="253"/>
-      <c r="L60" s="253"/>
-      <c r="M60" s="254"/>
-      <c r="N60" s="255"/>
-      <c r="O60" s="256"/>
-      <c r="P60" s="256"/>
-      <c r="Q60" s="256"/>
-      <c r="R60" s="256"/>
-      <c r="S60" s="256"/>
-      <c r="T60" s="256"/>
-      <c r="U60" s="256"/>
-      <c r="V60" s="257"/>
-      <c r="W60" s="257"/>
-      <c r="X60" s="257"/>
-      <c r="Y60" s="257"/>
-      <c r="Z60" s="257"/>
-      <c r="AA60" s="257"/>
-      <c r="AB60" s="257"/>
-      <c r="AC60" s="257"/>
-      <c r="AD60" s="257"/>
-    </row>
-    <row r="61" spans="1:30" s="100" customFormat="1" ht="35.4" customHeight="1" thickBot="1">
-      <c r="A61" s="93">
+      <c r="G60" s="95"/>
+      <c r="H60" s="95"/>
+      <c r="I60" s="95"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="95"/>
+      <c r="L60" s="95"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="101"/>
+      <c r="O60" s="98"/>
+      <c r="P60" s="98"/>
+      <c r="Q60" s="98"/>
+      <c r="R60" s="98"/>
+      <c r="S60" s="98"/>
+      <c r="T60" s="98"/>
+      <c r="U60" s="98"/>
+      <c r="V60" s="99"/>
+      <c r="W60" s="99"/>
+      <c r="X60" s="99"/>
+      <c r="Y60" s="99"/>
+      <c r="Z60" s="99"/>
+      <c r="AA60" s="99"/>
+      <c r="AB60" s="99"/>
+      <c r="AC60" s="99"/>
+      <c r="AD60" s="99"/>
+    </row>
+    <row r="61" spans="1:30" s="258" customFormat="1" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A61" s="250"/>
+      <c r="B61" s="226"/>
+      <c r="C61" s="262"/>
+      <c r="D61" s="260"/>
+      <c r="E61" s="251"/>
+      <c r="F61" s="252"/>
+      <c r="G61" s="253"/>
+      <c r="H61" s="253"/>
+      <c r="I61" s="253"/>
+      <c r="J61" s="253"/>
+      <c r="K61" s="253"/>
+      <c r="L61" s="253"/>
+      <c r="M61" s="254"/>
+      <c r="N61" s="255"/>
+      <c r="O61" s="256"/>
+      <c r="P61" s="256"/>
+      <c r="Q61" s="256"/>
+      <c r="R61" s="256"/>
+      <c r="S61" s="256"/>
+      <c r="T61" s="256"/>
+      <c r="U61" s="256"/>
+      <c r="V61" s="257"/>
+      <c r="W61" s="257"/>
+      <c r="X61" s="257"/>
+      <c r="Y61" s="257"/>
+      <c r="Z61" s="257"/>
+      <c r="AA61" s="257"/>
+      <c r="AB61" s="257"/>
+      <c r="AC61" s="257"/>
+      <c r="AD61" s="257"/>
+    </row>
+    <row r="62" spans="1:30" s="100" customFormat="1" ht="35.4" customHeight="1" thickBot="1">
+      <c r="A62" s="93">
         <v>48</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B62" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="C61" s="261"/>
-      <c r="D61" s="296" t="s">
+      <c r="C62" s="261"/>
+      <c r="D62" s="322" t="s">
         <v>76</v>
       </c>
-      <c r="E61" s="310" t="s">
+      <c r="E62" s="303" t="s">
         <v>278</v>
       </c>
-      <c r="F61" s="62" t="s">
+      <c r="F62" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="62" t="s">
+      <c r="G62" s="62" t="s">
         <v>78</v>
-      </c>
-      <c r="H61" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="I61" s="96" t="s">
-        <v>375</v>
-      </c>
-      <c r="J61" s="96" t="s">
-        <v>425</v>
-      </c>
-      <c r="K61" s="95"/>
-      <c r="L61" s="97"/>
-      <c r="M61" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="N61" s="65"/>
-      <c r="O61" s="98"/>
-      <c r="P61" s="98"/>
-      <c r="Q61" s="98"/>
-      <c r="R61" s="98"/>
-      <c r="S61" s="98"/>
-      <c r="T61" s="98"/>
-      <c r="U61" s="98"/>
-      <c r="V61" s="99"/>
-      <c r="W61" s="99"/>
-      <c r="X61" s="99"/>
-      <c r="Y61" s="99"/>
-      <c r="Z61" s="99"/>
-      <c r="AA61" s="99"/>
-      <c r="AB61" s="99"/>
-      <c r="AC61" s="99"/>
-      <c r="AD61" s="99"/>
-    </row>
-    <row r="62" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A62" s="93">
-        <v>49</v>
-      </c>
-      <c r="B62" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="C62" s="261"/>
-      <c r="D62" s="297"/>
-      <c r="E62" s="311"/>
-      <c r="F62" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" s="62" t="s">
-        <v>81</v>
       </c>
       <c r="H62" s="62" t="s">
         <v>73</v>
@@ -10202,7 +10217,7 @@
         <v>375</v>
       </c>
       <c r="J62" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K62" s="95"/>
       <c r="L62" s="97"/>
@@ -10227,21 +10242,21 @@
       <c r="AC62" s="99"/>
       <c r="AD62" s="99"/>
     </row>
-    <row r="63" spans="1:30" s="100" customFormat="1" ht="31.8" customHeight="1" thickBot="1">
+    <row r="63" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A63" s="93">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C63" s="261"/>
-      <c r="D63" s="297"/>
-      <c r="E63" s="311"/>
+      <c r="D63" s="323"/>
+      <c r="E63" s="304"/>
       <c r="F63" s="62" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G63" s="62" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H63" s="62" t="s">
         <v>73</v>
@@ -10250,7 +10265,7 @@
         <v>375</v>
       </c>
       <c r="J63" s="96" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K63" s="95"/>
       <c r="L63" s="97"/>
@@ -10277,22 +10292,34 @@
     </row>
     <row r="64" spans="1:30" s="100" customFormat="1" ht="31.8" customHeight="1" thickBot="1">
       <c r="A64" s="93">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" s="59" t="s">
-        <v>428</v>
+        <v>216</v>
       </c>
       <c r="C64" s="261"/>
-      <c r="D64" s="298"/>
-      <c r="E64" s="311"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="96"/>
-      <c r="J64" s="96"/>
+      <c r="D64" s="323"/>
+      <c r="E64" s="304"/>
+      <c r="F64" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="G64" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="H64" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="I64" s="96" t="s">
+        <v>375</v>
+      </c>
+      <c r="J64" s="96" t="s">
+        <v>427</v>
+      </c>
       <c r="K64" s="95"/>
       <c r="L64" s="97"/>
-      <c r="M64" s="65"/>
+      <c r="M64" s="65" t="s">
+        <v>74</v>
+      </c>
       <c r="N64" s="65"/>
       <c r="O64" s="98"/>
       <c r="P64" s="98"/>
@@ -10311,97 +10338,95 @@
       <c r="AC64" s="99"/>
       <c r="AD64" s="99"/>
     </row>
-    <row r="65" spans="1:30" s="258" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A65" s="250"/>
-      <c r="B65" s="226"/>
-      <c r="C65" s="262"/>
-      <c r="D65" s="268"/>
-      <c r="E65" s="311"/>
-      <c r="F65" s="269"/>
-      <c r="G65" s="270"/>
-      <c r="H65" s="271"/>
-      <c r="I65" s="253"/>
-      <c r="J65" s="253"/>
-      <c r="K65" s="253"/>
-      <c r="L65" s="253"/>
-      <c r="M65" s="254"/>
-      <c r="N65" s="254"/>
-      <c r="O65" s="256"/>
-      <c r="P65" s="256"/>
-      <c r="Q65" s="256"/>
-      <c r="R65" s="256"/>
-      <c r="S65" s="256"/>
-      <c r="T65" s="256"/>
-      <c r="U65" s="256"/>
-      <c r="V65" s="257"/>
-      <c r="W65" s="257"/>
-      <c r="X65" s="257"/>
-      <c r="Y65" s="257"/>
-      <c r="Z65" s="257"/>
-      <c r="AA65" s="257"/>
-      <c r="AB65" s="257"/>
-      <c r="AC65" s="257"/>
-      <c r="AD65" s="257"/>
-    </row>
-    <row r="66" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A66" s="93">
-        <v>52</v>
-      </c>
-      <c r="B66" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="C66" s="261"/>
-      <c r="D66" s="275" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" s="311"/>
-      <c r="F66" s="276" t="s">
-        <v>429</v>
-      </c>
-      <c r="G66" s="95"/>
-      <c r="H66" s="95"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="95"/>
-      <c r="K66" s="95"/>
-      <c r="L66" s="97"/>
-      <c r="M66" s="65"/>
-      <c r="N66" s="101"/>
-      <c r="O66" s="98"/>
-      <c r="P66" s="98"/>
-      <c r="Q66" s="98"/>
-      <c r="R66" s="98"/>
-      <c r="S66" s="98"/>
-      <c r="T66" s="98"/>
-      <c r="U66" s="98"/>
-      <c r="V66" s="99"/>
-      <c r="W66" s="99"/>
-      <c r="X66" s="99"/>
-      <c r="Y66" s="99"/>
-      <c r="Z66" s="99"/>
-      <c r="AA66" s="99"/>
-      <c r="AB66" s="99"/>
-      <c r="AC66" s="99"/>
-      <c r="AD66" s="99"/>
+    <row r="65" spans="1:30" s="100" customFormat="1" ht="31.8" customHeight="1" thickBot="1">
+      <c r="A65" s="93">
+        <v>51</v>
+      </c>
+      <c r="B65" s="59" t="s">
+        <v>428</v>
+      </c>
+      <c r="C65" s="261"/>
+      <c r="D65" s="324"/>
+      <c r="E65" s="304"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="96"/>
+      <c r="J65" s="96"/>
+      <c r="K65" s="95"/>
+      <c r="L65" s="97"/>
+      <c r="M65" s="65"/>
+      <c r="N65" s="65"/>
+      <c r="O65" s="98"/>
+      <c r="P65" s="98"/>
+      <c r="Q65" s="98"/>
+      <c r="R65" s="98"/>
+      <c r="S65" s="98"/>
+      <c r="T65" s="98"/>
+      <c r="U65" s="98"/>
+      <c r="V65" s="99"/>
+      <c r="W65" s="99"/>
+      <c r="X65" s="99"/>
+      <c r="Y65" s="99"/>
+      <c r="Z65" s="99"/>
+      <c r="AA65" s="99"/>
+      <c r="AB65" s="99"/>
+      <c r="AC65" s="99"/>
+      <c r="AD65" s="99"/>
+    </row>
+    <row r="66" spans="1:30" s="258" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A66" s="250"/>
+      <c r="B66" s="226"/>
+      <c r="C66" s="262"/>
+      <c r="D66" s="268"/>
+      <c r="E66" s="304"/>
+      <c r="F66" s="269"/>
+      <c r="G66" s="270"/>
+      <c r="H66" s="271"/>
+      <c r="I66" s="253"/>
+      <c r="J66" s="253"/>
+      <c r="K66" s="253"/>
+      <c r="L66" s="253"/>
+      <c r="M66" s="254"/>
+      <c r="N66" s="254"/>
+      <c r="O66" s="256"/>
+      <c r="P66" s="256"/>
+      <c r="Q66" s="256"/>
+      <c r="R66" s="256"/>
+      <c r="S66" s="256"/>
+      <c r="T66" s="256"/>
+      <c r="U66" s="256"/>
+      <c r="V66" s="257"/>
+      <c r="W66" s="257"/>
+      <c r="X66" s="257"/>
+      <c r="Y66" s="257"/>
+      <c r="Z66" s="257"/>
+      <c r="AA66" s="257"/>
+      <c r="AB66" s="257"/>
+      <c r="AC66" s="257"/>
+      <c r="AD66" s="257"/>
     </row>
     <row r="67" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A67" s="93">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C67" s="261"/>
-      <c r="D67" s="115"/>
-      <c r="E67" s="311"/>
+      <c r="D67" s="275" t="s">
+        <v>128</v>
+      </c>
+      <c r="E67" s="304"/>
       <c r="F67" s="276" t="s">
-        <v>430</v>
-      </c>
-      <c r="G67" s="77"/>
+        <v>429</v>
+      </c>
+      <c r="G67" s="95"/>
       <c r="H67" s="95"/>
       <c r="I67" s="95"/>
       <c r="J67" s="95"/>
       <c r="K67" s="95"/>
-      <c r="L67" s="95"/>
+      <c r="L67" s="97"/>
       <c r="M67" s="65"/>
       <c r="N67" s="101"/>
       <c r="O67" s="98"/>
@@ -10423,18 +10448,18 @@
     </row>
     <row r="68" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A68" s="93">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68" s="59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C68" s="261"/>
       <c r="D68" s="115"/>
-      <c r="E68" s="311"/>
+      <c r="E68" s="304"/>
       <c r="F68" s="276" t="s">
-        <v>431</v>
-      </c>
-      <c r="G68" s="95"/>
+        <v>430</v>
+      </c>
+      <c r="G68" s="77"/>
       <c r="H68" s="95"/>
       <c r="I68" s="95"/>
       <c r="J68" s="95"/>
@@ -10461,16 +10486,16 @@
     </row>
     <row r="69" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A69" s="93">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B69" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C69" s="261"/>
       <c r="D69" s="115"/>
-      <c r="E69" s="311"/>
+      <c r="E69" s="304"/>
       <c r="F69" s="276" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G69" s="95"/>
       <c r="H69" s="95"/>
@@ -10499,16 +10524,16 @@
     </row>
     <row r="70" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A70" s="93">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B70" s="59" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C70" s="261"/>
       <c r="D70" s="115"/>
-      <c r="E70" s="311"/>
+      <c r="E70" s="304"/>
       <c r="F70" s="276" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G70" s="95"/>
       <c r="H70" s="95"/>
@@ -10537,18 +10562,18 @@
     </row>
     <row r="71" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A71" s="93">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B71" s="59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C71" s="261"/>
       <c r="D71" s="115"/>
-      <c r="E71" s="311"/>
+      <c r="E71" s="304"/>
       <c r="F71" s="276" t="s">
-        <v>434</v>
-      </c>
-      <c r="G71" s="77"/>
+        <v>433</v>
+      </c>
+      <c r="G71" s="95"/>
       <c r="H71" s="95"/>
       <c r="I71" s="95"/>
       <c r="J71" s="95"/>
@@ -10575,18 +10600,18 @@
     </row>
     <row r="72" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A72" s="93">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B72" s="59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C72" s="261"/>
       <c r="D72" s="115"/>
-      <c r="E72" s="311"/>
+      <c r="E72" s="304"/>
       <c r="F72" s="276" t="s">
-        <v>435</v>
-      </c>
-      <c r="G72" s="95"/>
+        <v>434</v>
+      </c>
+      <c r="G72" s="77"/>
       <c r="H72" s="95"/>
       <c r="I72" s="95"/>
       <c r="J72" s="95"/>
@@ -10613,25 +10638,25 @@
     </row>
     <row r="73" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A73" s="93">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B73" s="59" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C73" s="261"/>
       <c r="D73" s="115"/>
-      <c r="E73" s="311"/>
+      <c r="E73" s="304"/>
       <c r="F73" s="276" t="s">
-        <v>436</v>
-      </c>
-      <c r="G73" s="62"/>
+        <v>435</v>
+      </c>
+      <c r="G73" s="95"/>
       <c r="H73" s="95"/>
       <c r="I73" s="95"/>
       <c r="J73" s="95"/>
       <c r="K73" s="95"/>
       <c r="L73" s="95"/>
       <c r="M73" s="65"/>
-      <c r="N73" s="65"/>
+      <c r="N73" s="101"/>
       <c r="O73" s="98"/>
       <c r="P73" s="98"/>
       <c r="Q73" s="98"/>
@@ -10651,16 +10676,16 @@
     </row>
     <row r="74" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A74" s="93">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B74" s="59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C74" s="261"/>
       <c r="D74" s="115"/>
-      <c r="E74" s="311"/>
+      <c r="E74" s="304"/>
       <c r="F74" s="276" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G74" s="62"/>
       <c r="H74" s="95"/>
@@ -10689,16 +10714,16 @@
     </row>
     <row r="75" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A75" s="93">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B75" s="59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C75" s="261"/>
       <c r="D75" s="115"/>
-      <c r="E75" s="311"/>
+      <c r="E75" s="304"/>
       <c r="F75" s="276" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G75" s="62"/>
       <c r="H75" s="95"/>
@@ -10727,23 +10752,23 @@
     </row>
     <row r="76" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A76" s="93">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B76" s="59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C76" s="261"/>
       <c r="D76" s="115"/>
-      <c r="E76" s="311"/>
+      <c r="E76" s="304"/>
       <c r="F76" s="276" t="s">
-        <v>439</v>
-      </c>
-      <c r="G76" s="101"/>
-      <c r="H76" s="101"/>
-      <c r="I76" s="101"/>
-      <c r="J76" s="101"/>
-      <c r="K76" s="101"/>
-      <c r="L76" s="101"/>
+        <v>438</v>
+      </c>
+      <c r="G76" s="62"/>
+      <c r="H76" s="95"/>
+      <c r="I76" s="95"/>
+      <c r="J76" s="95"/>
+      <c r="K76" s="95"/>
+      <c r="L76" s="95"/>
       <c r="M76" s="65"/>
       <c r="N76" s="65"/>
       <c r="O76" s="98"/>
@@ -10765,23 +10790,23 @@
     </row>
     <row r="77" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A77" s="93">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B77" s="59" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C77" s="261"/>
       <c r="D77" s="115"/>
-      <c r="E77" s="311"/>
+      <c r="E77" s="304"/>
       <c r="F77" s="276" t="s">
-        <v>440</v>
-      </c>
-      <c r="G77" s="95"/>
-      <c r="H77" s="95"/>
-      <c r="I77" s="95"/>
-      <c r="J77" s="95"/>
-      <c r="K77" s="95"/>
-      <c r="L77" s="97"/>
+        <v>439</v>
+      </c>
+      <c r="G77" s="101"/>
+      <c r="H77" s="101"/>
+      <c r="I77" s="101"/>
+      <c r="J77" s="101"/>
+      <c r="K77" s="101"/>
+      <c r="L77" s="101"/>
       <c r="M77" s="65"/>
       <c r="N77" s="65"/>
       <c r="O77" s="98"/>
@@ -10803,23 +10828,23 @@
     </row>
     <row r="78" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A78" s="93">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B78" s="59" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C78" s="261"/>
       <c r="D78" s="115"/>
-      <c r="E78" s="311"/>
+      <c r="E78" s="304"/>
       <c r="F78" s="276" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G78" s="95"/>
       <c r="H78" s="95"/>
       <c r="I78" s="95"/>
       <c r="J78" s="95"/>
       <c r="K78" s="95"/>
-      <c r="L78" s="95"/>
+      <c r="L78" s="97"/>
       <c r="M78" s="65"/>
       <c r="N78" s="65"/>
       <c r="O78" s="98"/>
@@ -10841,25 +10866,25 @@
     </row>
     <row r="79" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A79" s="93">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B79" s="59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C79" s="261"/>
       <c r="D79" s="115"/>
-      <c r="E79" s="311"/>
+      <c r="E79" s="304"/>
       <c r="F79" s="276" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G79" s="95"/>
       <c r="H79" s="95"/>
       <c r="I79" s="95"/>
       <c r="J79" s="95"/>
       <c r="K79" s="95"/>
-      <c r="L79" s="97"/>
-      <c r="M79" s="97"/>
-      <c r="N79" s="101"/>
+      <c r="L79" s="95"/>
+      <c r="M79" s="65"/>
+      <c r="N79" s="65"/>
       <c r="O79" s="98"/>
       <c r="P79" s="98"/>
       <c r="Q79" s="98"/>
@@ -10879,22 +10904,24 @@
     </row>
     <row r="80" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A80" s="93">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B80" s="59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C80" s="261"/>
       <c r="D80" s="115"/>
-      <c r="E80" s="311"/>
-      <c r="F80" s="276"/>
+      <c r="E80" s="304"/>
+      <c r="F80" s="276" t="s">
+        <v>442</v>
+      </c>
       <c r="G80" s="95"/>
       <c r="H80" s="95"/>
       <c r="I80" s="95"/>
       <c r="J80" s="95"/>
       <c r="K80" s="95"/>
-      <c r="L80" s="95"/>
-      <c r="M80" s="65"/>
+      <c r="L80" s="97"/>
+      <c r="M80" s="97"/>
       <c r="N80" s="101"/>
       <c r="O80" s="98"/>
       <c r="P80" s="98"/>
@@ -10915,14 +10942,14 @@
     </row>
     <row r="81" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A81" s="93">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B81" s="59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C81" s="261"/>
       <c r="D81" s="115"/>
-      <c r="E81" s="311"/>
+      <c r="E81" s="304"/>
       <c r="F81" s="276"/>
       <c r="G81" s="95"/>
       <c r="H81" s="95"/>
@@ -10951,23 +10978,23 @@
     </row>
     <row r="82" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A82" s="93">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B82" s="59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C82" s="261"/>
       <c r="D82" s="115"/>
-      <c r="E82" s="311"/>
+      <c r="E82" s="304"/>
       <c r="F82" s="276"/>
-      <c r="G82" s="62"/>
+      <c r="G82" s="95"/>
       <c r="H82" s="95"/>
       <c r="I82" s="95"/>
       <c r="J82" s="95"/>
       <c r="K82" s="95"/>
       <c r="L82" s="95"/>
       <c r="M82" s="65"/>
-      <c r="N82" s="65"/>
+      <c r="N82" s="101"/>
       <c r="O82" s="98"/>
       <c r="P82" s="98"/>
       <c r="Q82" s="98"/>
@@ -10987,21 +11014,21 @@
     </row>
     <row r="83" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A83" s="93">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B83" s="59" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C83" s="261"/>
       <c r="D83" s="115"/>
-      <c r="E83" s="311"/>
+      <c r="E83" s="304"/>
       <c r="F83" s="276"/>
-      <c r="G83" s="95"/>
+      <c r="G83" s="62"/>
       <c r="H83" s="95"/>
       <c r="I83" s="95"/>
       <c r="J83" s="95"/>
       <c r="K83" s="95"/>
-      <c r="L83" s="97"/>
+      <c r="L83" s="95"/>
       <c r="M83" s="65"/>
       <c r="N83" s="65"/>
       <c r="O83" s="98"/>
@@ -11023,21 +11050,21 @@
     </row>
     <row r="84" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A84" s="93">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B84" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C84" s="261"/>
       <c r="D84" s="115"/>
-      <c r="E84" s="311"/>
+      <c r="E84" s="304"/>
       <c r="F84" s="276"/>
       <c r="G84" s="95"/>
       <c r="H84" s="95"/>
       <c r="I84" s="95"/>
       <c r="J84" s="95"/>
       <c r="K84" s="95"/>
-      <c r="L84" s="95"/>
+      <c r="L84" s="97"/>
       <c r="M84" s="65"/>
       <c r="N84" s="65"/>
       <c r="O84" s="98"/>
@@ -11059,23 +11086,23 @@
     </row>
     <row r="85" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A85" s="93">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B85" s="59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C85" s="261"/>
       <c r="D85" s="115"/>
-      <c r="E85" s="311"/>
+      <c r="E85" s="304"/>
       <c r="F85" s="276"/>
       <c r="G85" s="95"/>
       <c r="H85" s="95"/>
       <c r="I85" s="95"/>
       <c r="J85" s="95"/>
       <c r="K85" s="95"/>
-      <c r="L85" s="97"/>
+      <c r="L85" s="95"/>
       <c r="M85" s="65"/>
-      <c r="N85" s="101"/>
+      <c r="N85" s="65"/>
       <c r="O85" s="98"/>
       <c r="P85" s="98"/>
       <c r="Q85" s="98"/>
@@ -11095,21 +11122,21 @@
     </row>
     <row r="86" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A86" s="93">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B86" s="59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C86" s="261"/>
       <c r="D86" s="115"/>
-      <c r="E86" s="311"/>
+      <c r="E86" s="304"/>
       <c r="F86" s="276"/>
       <c r="G86" s="95"/>
       <c r="H86" s="95"/>
       <c r="I86" s="95"/>
       <c r="J86" s="95"/>
       <c r="K86" s="95"/>
-      <c r="L86" s="95"/>
+      <c r="L86" s="97"/>
       <c r="M86" s="65"/>
       <c r="N86" s="101"/>
       <c r="O86" s="98"/>
@@ -11131,14 +11158,14 @@
     </row>
     <row r="87" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A87" s="93">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B87" s="59" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C87" s="261"/>
       <c r="D87" s="115"/>
-      <c r="E87" s="311"/>
+      <c r="E87" s="304"/>
       <c r="F87" s="276"/>
       <c r="G87" s="95"/>
       <c r="H87" s="95"/>
@@ -11167,23 +11194,23 @@
     </row>
     <row r="88" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A88" s="93">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B88" s="59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C88" s="261"/>
       <c r="D88" s="115"/>
-      <c r="E88" s="311"/>
+      <c r="E88" s="304"/>
       <c r="F88" s="276"/>
-      <c r="G88" s="62"/>
+      <c r="G88" s="95"/>
       <c r="H88" s="95"/>
       <c r="I88" s="95"/>
       <c r="J88" s="95"/>
       <c r="K88" s="95"/>
       <c r="L88" s="95"/>
       <c r="M88" s="65"/>
-      <c r="N88" s="65"/>
+      <c r="N88" s="101"/>
       <c r="O88" s="98"/>
       <c r="P88" s="98"/>
       <c r="Q88" s="98"/>
@@ -11203,21 +11230,21 @@
     </row>
     <row r="89" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A89" s="93">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B89" s="59" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C89" s="261"/>
       <c r="D89" s="115"/>
-      <c r="E89" s="311"/>
+      <c r="E89" s="304"/>
       <c r="F89" s="276"/>
-      <c r="G89" s="101"/>
-      <c r="H89" s="101"/>
-      <c r="I89" s="101"/>
-      <c r="J89" s="101"/>
-      <c r="K89" s="101"/>
-      <c r="L89" s="101"/>
+      <c r="G89" s="62"/>
+      <c r="H89" s="95"/>
+      <c r="I89" s="95"/>
+      <c r="J89" s="95"/>
+      <c r="K89" s="95"/>
+      <c r="L89" s="95"/>
       <c r="M89" s="65"/>
       <c r="N89" s="65"/>
       <c r="O89" s="98"/>
@@ -11239,21 +11266,21 @@
     </row>
     <row r="90" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A90" s="93">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B90" s="59" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C90" s="261"/>
       <c r="D90" s="115"/>
-      <c r="E90" s="311"/>
+      <c r="E90" s="304"/>
       <c r="F90" s="276"/>
-      <c r="G90" s="95"/>
-      <c r="H90" s="95"/>
-      <c r="I90" s="95"/>
-      <c r="J90" s="95"/>
-      <c r="K90" s="95"/>
-      <c r="L90" s="97"/>
+      <c r="G90" s="101"/>
+      <c r="H90" s="101"/>
+      <c r="I90" s="101"/>
+      <c r="J90" s="101"/>
+      <c r="K90" s="101"/>
+      <c r="L90" s="101"/>
       <c r="M90" s="65"/>
       <c r="N90" s="65"/>
       <c r="O90" s="98"/>
@@ -11275,22 +11302,22 @@
     </row>
     <row r="91" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A91" s="93">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B91" s="59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C91" s="261"/>
       <c r="D91" s="115"/>
-      <c r="E91" s="312"/>
+      <c r="E91" s="304"/>
       <c r="F91" s="276"/>
       <c r="G91" s="95"/>
       <c r="H91" s="95"/>
       <c r="I91" s="95"/>
       <c r="J91" s="95"/>
       <c r="K91" s="95"/>
-      <c r="L91" s="95"/>
-      <c r="M91" s="95"/>
+      <c r="L91" s="97"/>
+      <c r="M91" s="65"/>
       <c r="N91" s="65"/>
       <c r="O91" s="98"/>
       <c r="P91" s="98"/>
@@ -11311,23 +11338,23 @@
     </row>
     <row r="92" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A92" s="93">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B92" s="59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C92" s="261"/>
       <c r="D92" s="115"/>
-      <c r="E92" s="308"/>
+      <c r="E92" s="305"/>
       <c r="F92" s="276"/>
       <c r="G92" s="95"/>
       <c r="H92" s="95"/>
       <c r="I92" s="95"/>
       <c r="J92" s="95"/>
       <c r="K92" s="95"/>
-      <c r="L92" s="97"/>
-      <c r="M92" s="65"/>
-      <c r="N92" s="101"/>
+      <c r="L92" s="95"/>
+      <c r="M92" s="95"/>
+      <c r="N92" s="65"/>
       <c r="O92" s="98"/>
       <c r="P92" s="98"/>
       <c r="Q92" s="98"/>
@@ -11347,21 +11374,21 @@
     </row>
     <row r="93" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A93" s="93">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B93" s="59" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C93" s="261"/>
       <c r="D93" s="115"/>
-      <c r="E93" s="308"/>
+      <c r="E93" s="314"/>
       <c r="F93" s="276"/>
       <c r="G93" s="95"/>
       <c r="H93" s="95"/>
       <c r="I93" s="95"/>
       <c r="J93" s="95"/>
       <c r="K93" s="95"/>
-      <c r="L93" s="95"/>
+      <c r="L93" s="97"/>
       <c r="M93" s="65"/>
       <c r="N93" s="101"/>
       <c r="O93" s="98"/>
@@ -11383,14 +11410,14 @@
     </row>
     <row r="94" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A94" s="93">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B94" s="59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C94" s="261"/>
       <c r="D94" s="115"/>
-      <c r="E94" s="308"/>
+      <c r="E94" s="314"/>
       <c r="F94" s="276"/>
       <c r="G94" s="95"/>
       <c r="H94" s="95"/>
@@ -11419,24 +11446,24 @@
     </row>
     <row r="95" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A95" s="93">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B95" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C95" s="261"/>
       <c r="D95" s="115"/>
-      <c r="E95" s="308"/>
+      <c r="E95" s="314"/>
       <c r="F95" s="276"/>
-      <c r="G95" s="62"/>
+      <c r="G95" s="95"/>
       <c r="H95" s="95"/>
       <c r="I95" s="95"/>
       <c r="J95" s="95"/>
       <c r="K95" s="95"/>
       <c r="L95" s="95"/>
       <c r="M95" s="65"/>
-      <c r="N95" s="65"/>
-      <c r="O95" s="116"/>
+      <c r="N95" s="101"/>
+      <c r="O95" s="98"/>
       <c r="P95" s="98"/>
       <c r="Q95" s="98"/>
       <c r="R95" s="98"/>
@@ -11453,96 +11480,96 @@
       <c r="AC95" s="99"/>
       <c r="AD95" s="99"/>
     </row>
-    <row r="96" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="96" spans="1:30" s="100" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A96" s="93">
+        <v>81</v>
+      </c>
+      <c r="B96" s="59" t="s">
+        <v>246</v>
+      </c>
+      <c r="C96" s="261"/>
+      <c r="D96" s="115"/>
+      <c r="E96" s="314"/>
+      <c r="F96" s="276"/>
+      <c r="G96" s="62"/>
+      <c r="H96" s="95"/>
+      <c r="I96" s="95"/>
+      <c r="J96" s="95"/>
+      <c r="K96" s="95"/>
+      <c r="L96" s="95"/>
+      <c r="M96" s="65"/>
+      <c r="N96" s="65"/>
+      <c r="O96" s="116"/>
+      <c r="P96" s="98"/>
+      <c r="Q96" s="98"/>
+      <c r="R96" s="98"/>
+      <c r="S96" s="98"/>
+      <c r="T96" s="98"/>
+      <c r="U96" s="98"/>
+      <c r="V96" s="99"/>
+      <c r="W96" s="99"/>
+      <c r="X96" s="99"/>
+      <c r="Y96" s="99"/>
+      <c r="Z96" s="99"/>
+      <c r="AA96" s="99"/>
+      <c r="AB96" s="99"/>
+      <c r="AC96" s="99"/>
+      <c r="AD96" s="99"/>
+    </row>
+    <row r="97" spans="1:30" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A97" s="93">
         <v>82</v>
       </c>
-      <c r="B96" s="59" t="s">
+      <c r="B97" s="59" t="s">
         <v>247</v>
-      </c>
-      <c r="C96" s="261"/>
-      <c r="D96" s="117"/>
-      <c r="E96" s="308"/>
-      <c r="F96" s="276"/>
-      <c r="G96" s="118"/>
-      <c r="H96" s="118"/>
-      <c r="I96" s="118"/>
-      <c r="J96" s="118"/>
-      <c r="K96" s="118"/>
-      <c r="L96" s="118"/>
-      <c r="M96" s="118"/>
-      <c r="N96" s="119"/>
-      <c r="O96" s="120"/>
-      <c r="P96" s="120"/>
-      <c r="Q96" s="120"/>
-      <c r="R96" s="120"/>
-      <c r="S96" s="120"/>
-      <c r="T96" s="120"/>
-      <c r="U96" s="120"/>
-      <c r="V96" s="121"/>
-      <c r="W96" s="121"/>
-      <c r="X96" s="121"/>
-      <c r="Y96" s="121"/>
-      <c r="Z96" s="121"/>
-      <c r="AA96" s="121"/>
-      <c r="AB96" s="121"/>
-      <c r="AC96" s="121"/>
-      <c r="AD96" s="121"/>
-    </row>
-    <row r="97" spans="1:30" ht="30" customHeight="1" thickBot="1">
-      <c r="A97" s="93">
-        <v>83</v>
-      </c>
-      <c r="B97" s="59" t="s">
-        <v>248</v>
       </c>
       <c r="C97" s="261"/>
       <c r="D97" s="117"/>
-      <c r="E97" s="308"/>
+      <c r="E97" s="314"/>
       <c r="F97" s="276"/>
-      <c r="G97" s="123"/>
-      <c r="H97" s="124"/>
-      <c r="I97" s="124"/>
-      <c r="J97" s="124"/>
+      <c r="G97" s="118"/>
+      <c r="H97" s="118"/>
+      <c r="I97" s="118"/>
+      <c r="J97" s="118"/>
       <c r="K97" s="118"/>
-      <c r="L97" s="125"/>
-      <c r="M97" s="126"/>
-      <c r="N97" s="127"/>
-      <c r="O97" s="128"/>
-      <c r="P97" s="128"/>
-      <c r="Q97" s="128"/>
-      <c r="R97" s="128"/>
-      <c r="S97" s="128"/>
-      <c r="T97" s="128"/>
-      <c r="U97" s="128"/>
-      <c r="V97" s="35"/>
-      <c r="W97" s="35"/>
-      <c r="X97" s="35"/>
-      <c r="Y97" s="35"/>
-      <c r="Z97" s="35"/>
-      <c r="AA97" s="35"/>
-      <c r="AB97" s="35"/>
-      <c r="AC97" s="35"/>
-      <c r="AD97" s="35"/>
+      <c r="L97" s="118"/>
+      <c r="M97" s="118"/>
+      <c r="N97" s="119"/>
+      <c r="O97" s="120"/>
+      <c r="P97" s="120"/>
+      <c r="Q97" s="120"/>
+      <c r="R97" s="120"/>
+      <c r="S97" s="120"/>
+      <c r="T97" s="120"/>
+      <c r="U97" s="120"/>
+      <c r="V97" s="121"/>
+      <c r="W97" s="121"/>
+      <c r="X97" s="121"/>
+      <c r="Y97" s="121"/>
+      <c r="Z97" s="121"/>
+      <c r="AA97" s="121"/>
+      <c r="AB97" s="121"/>
+      <c r="AC97" s="121"/>
+      <c r="AD97" s="121"/>
     </row>
     <row r="98" spans="1:30" ht="30" customHeight="1" thickBot="1">
       <c r="A98" s="93">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B98" s="59" t="s">
-        <v>408</v>
+        <v>248</v>
       </c>
       <c r="C98" s="261"/>
       <c r="D98" s="117"/>
-      <c r="E98" s="308"/>
+      <c r="E98" s="314"/>
       <c r="F98" s="276"/>
-      <c r="G98" s="129"/>
-      <c r="H98" s="129"/>
-      <c r="I98" s="129"/>
-      <c r="J98" s="129"/>
-      <c r="K98" s="129"/>
-      <c r="L98" s="130"/>
-      <c r="M98" s="127"/>
+      <c r="G98" s="123"/>
+      <c r="H98" s="124"/>
+      <c r="I98" s="124"/>
+      <c r="J98" s="124"/>
+      <c r="K98" s="118"/>
+      <c r="L98" s="125"/>
+      <c r="M98" s="126"/>
       <c r="N98" s="127"/>
       <c r="O98" s="128"/>
       <c r="P98" s="128"/>
@@ -11563,21 +11590,21 @@
     </row>
     <row r="99" spans="1:30" ht="30" customHeight="1" thickBot="1">
       <c r="A99" s="93">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B99" s="59" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C99" s="261"/>
       <c r="D99" s="117"/>
-      <c r="E99" s="308"/>
+      <c r="E99" s="314"/>
       <c r="F99" s="276"/>
       <c r="G99" s="129"/>
       <c r="H99" s="129"/>
       <c r="I99" s="129"/>
       <c r="J99" s="129"/>
       <c r="K99" s="129"/>
-      <c r="L99" s="131"/>
+      <c r="L99" s="130"/>
       <c r="M99" s="127"/>
       <c r="N99" s="127"/>
       <c r="O99" s="128"/>
@@ -11599,14 +11626,14 @@
     </row>
     <row r="100" spans="1:30" ht="30" customHeight="1" thickBot="1">
       <c r="A100" s="93">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B100" s="59" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C100" s="261"/>
       <c r="D100" s="117"/>
-      <c r="E100" s="308"/>
+      <c r="E100" s="314"/>
       <c r="F100" s="276"/>
       <c r="G100" s="129"/>
       <c r="H100" s="129"/>
@@ -11635,19 +11662,19 @@
     </row>
     <row r="101" spans="1:30" ht="30" customHeight="1" thickBot="1">
       <c r="A101" s="93">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B101" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C101" s="261"/>
       <c r="D101" s="117"/>
-      <c r="E101" s="308"/>
+      <c r="E101" s="314"/>
       <c r="F101" s="276"/>
-      <c r="G101" s="123"/>
-      <c r="H101" s="124"/>
-      <c r="I101" s="124"/>
-      <c r="J101" s="124"/>
+      <c r="G101" s="129"/>
+      <c r="H101" s="129"/>
+      <c r="I101" s="129"/>
+      <c r="J101" s="129"/>
       <c r="K101" s="129"/>
       <c r="L101" s="131"/>
       <c r="M101" s="127"/>
@@ -11671,22 +11698,22 @@
     </row>
     <row r="102" spans="1:30" ht="30" customHeight="1" thickBot="1">
       <c r="A102" s="93">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B102" s="59" t="s">
-        <v>249</v>
+        <v>411</v>
       </c>
       <c r="C102" s="261"/>
       <c r="D102" s="117"/>
-      <c r="E102" s="132"/>
+      <c r="E102" s="314"/>
       <c r="F102" s="276"/>
-      <c r="G102" s="129"/>
-      <c r="H102" s="129"/>
-      <c r="I102" s="129"/>
-      <c r="J102" s="129"/>
+      <c r="G102" s="123"/>
+      <c r="H102" s="124"/>
+      <c r="I102" s="124"/>
+      <c r="J102" s="124"/>
       <c r="K102" s="129"/>
       <c r="L102" s="131"/>
-      <c r="M102" s="131"/>
+      <c r="M102" s="127"/>
       <c r="N102" s="127"/>
       <c r="O102" s="128"/>
       <c r="P102" s="128"/>
@@ -11707,23 +11734,23 @@
     </row>
     <row r="103" spans="1:30" ht="30" customHeight="1" thickBot="1">
       <c r="A103" s="93">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B103" s="59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C103" s="261"/>
       <c r="D103" s="117"/>
-      <c r="E103" s="309"/>
+      <c r="E103" s="132"/>
       <c r="F103" s="276"/>
-      <c r="G103" s="123"/>
-      <c r="H103" s="124"/>
-      <c r="I103" s="124"/>
-      <c r="J103" s="124"/>
+      <c r="G103" s="129"/>
+      <c r="H103" s="129"/>
+      <c r="I103" s="129"/>
+      <c r="J103" s="129"/>
       <c r="K103" s="129"/>
-      <c r="L103" s="130"/>
-      <c r="M103" s="127"/>
-      <c r="N103" s="133"/>
+      <c r="L103" s="131"/>
+      <c r="M103" s="131"/>
+      <c r="N103" s="127"/>
       <c r="O103" s="128"/>
       <c r="P103" s="128"/>
       <c r="Q103" s="128"/>
@@ -11743,19 +11770,19 @@
     </row>
     <row r="104" spans="1:30" ht="30" customHeight="1" thickBot="1">
       <c r="A104" s="93">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B104" s="59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C104" s="261"/>
       <c r="D104" s="117"/>
-      <c r="E104" s="309"/>
+      <c r="E104" s="315"/>
       <c r="F104" s="276"/>
-      <c r="G104" s="129"/>
-      <c r="H104" s="129"/>
-      <c r="I104" s="129"/>
-      <c r="J104" s="129"/>
+      <c r="G104" s="123"/>
+      <c r="H104" s="124"/>
+      <c r="I104" s="124"/>
+      <c r="J104" s="124"/>
       <c r="K104" s="129"/>
       <c r="L104" s="130"/>
       <c r="M104" s="127"/>
@@ -11779,22 +11806,22 @@
     </row>
     <row r="105" spans="1:30" ht="30" customHeight="1" thickBot="1">
       <c r="A105" s="93">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B105" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C105" s="261"/>
       <c r="D105" s="117"/>
-      <c r="E105" s="6"/>
+      <c r="E105" s="315"/>
       <c r="F105" s="276"/>
-      <c r="G105" s="123"/>
-      <c r="H105" s="124"/>
-      <c r="I105" s="124"/>
-      <c r="J105" s="124"/>
+      <c r="G105" s="129"/>
+      <c r="H105" s="129"/>
+      <c r="I105" s="129"/>
+      <c r="J105" s="129"/>
       <c r="K105" s="129"/>
-      <c r="L105" s="131"/>
-      <c r="M105" s="128"/>
+      <c r="L105" s="130"/>
+      <c r="M105" s="127"/>
       <c r="N105" s="133"/>
       <c r="O105" s="128"/>
       <c r="P105" s="128"/>
@@ -11815,22 +11842,22 @@
     </row>
     <row r="106" spans="1:30" ht="30" customHeight="1" thickBot="1">
       <c r="A106" s="93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B106" s="59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C106" s="261"/>
       <c r="D106" s="117"/>
-      <c r="E106" s="313"/>
+      <c r="E106" s="6"/>
       <c r="F106" s="276"/>
-      <c r="G106" s="129"/>
-      <c r="H106" s="129"/>
-      <c r="I106" s="129"/>
-      <c r="J106" s="129"/>
+      <c r="G106" s="123"/>
+      <c r="H106" s="124"/>
+      <c r="I106" s="124"/>
+      <c r="J106" s="124"/>
       <c r="K106" s="129"/>
       <c r="L106" s="131"/>
-      <c r="M106" s="127"/>
+      <c r="M106" s="128"/>
       <c r="N106" s="133"/>
       <c r="O106" s="128"/>
       <c r="P106" s="128"/>
@@ -11851,14 +11878,14 @@
     </row>
     <row r="107" spans="1:30" ht="30" customHeight="1" thickBot="1">
       <c r="A107" s="93">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B107" s="59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C107" s="261"/>
       <c r="D107" s="117"/>
-      <c r="E107" s="313"/>
+      <c r="E107" s="306"/>
       <c r="F107" s="276"/>
       <c r="G107" s="129"/>
       <c r="H107" s="129"/>
@@ -11887,14 +11914,14 @@
     </row>
     <row r="108" spans="1:30" ht="30" customHeight="1" thickBot="1">
       <c r="A108" s="93">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B108" s="59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C108" s="261"/>
       <c r="D108" s="117"/>
-      <c r="E108" s="313"/>
+      <c r="E108" s="306"/>
       <c r="F108" s="276"/>
       <c r="G108" s="129"/>
       <c r="H108" s="129"/>
@@ -11922,20 +11949,24 @@
       <c r="AD108" s="35"/>
     </row>
     <row r="109" spans="1:30" ht="30" customHeight="1" thickBot="1">
-      <c r="A109" s="122"/>
-      <c r="B109" s="223"/>
+      <c r="A109" s="93">
+        <v>94</v>
+      </c>
+      <c r="B109" s="59" t="s">
+        <v>255</v>
+      </c>
       <c r="C109" s="261"/>
       <c r="D109" s="117"/>
-      <c r="E109" s="313"/>
+      <c r="E109" s="306"/>
       <c r="F109" s="276"/>
-      <c r="G109" s="123"/>
-      <c r="H109" s="124"/>
-      <c r="I109" s="124"/>
-      <c r="J109" s="124"/>
+      <c r="G109" s="129"/>
+      <c r="H109" s="129"/>
+      <c r="I109" s="129"/>
+      <c r="J109" s="129"/>
       <c r="K109" s="129"/>
       <c r="L109" s="131"/>
       <c r="M109" s="127"/>
-      <c r="N109" s="127"/>
+      <c r="N109" s="133"/>
       <c r="O109" s="128"/>
       <c r="P109" s="128"/>
       <c r="Q109" s="128"/>
@@ -11958,12 +11989,12 @@
       <c r="B110" s="223"/>
       <c r="C110" s="261"/>
       <c r="D110" s="117"/>
-      <c r="E110" s="313"/>
+      <c r="E110" s="306"/>
       <c r="F110" s="276"/>
-      <c r="G110" s="135"/>
-      <c r="H110" s="131"/>
-      <c r="I110" s="131"/>
-      <c r="J110" s="131"/>
+      <c r="G110" s="123"/>
+      <c r="H110" s="124"/>
+      <c r="I110" s="124"/>
+      <c r="J110" s="124"/>
       <c r="K110" s="129"/>
       <c r="L110" s="131"/>
       <c r="M110" s="127"/>
@@ -11990,12 +12021,12 @@
       <c r="B111" s="223"/>
       <c r="C111" s="261"/>
       <c r="D111" s="117"/>
-      <c r="E111" s="313"/>
+      <c r="E111" s="306"/>
       <c r="F111" s="276"/>
-      <c r="G111" s="136"/>
-      <c r="H111" s="124"/>
-      <c r="I111" s="124"/>
-      <c r="J111" s="124"/>
+      <c r="G111" s="135"/>
+      <c r="H111" s="131"/>
+      <c r="I111" s="131"/>
+      <c r="J111" s="131"/>
       <c r="K111" s="129"/>
       <c r="L111" s="131"/>
       <c r="M111" s="127"/>
@@ -12022,12 +12053,12 @@
       <c r="B112" s="223"/>
       <c r="C112" s="261"/>
       <c r="D112" s="117"/>
-      <c r="E112" s="313"/>
+      <c r="E112" s="306"/>
       <c r="F112" s="276"/>
-      <c r="G112" s="137"/>
-      <c r="H112" s="131"/>
-      <c r="I112" s="131"/>
-      <c r="J112" s="131"/>
+      <c r="G112" s="136"/>
+      <c r="H112" s="124"/>
+      <c r="I112" s="124"/>
+      <c r="J112" s="124"/>
       <c r="K112" s="129"/>
       <c r="L112" s="131"/>
       <c r="M112" s="127"/>
@@ -12054,15 +12085,15 @@
       <c r="B113" s="223"/>
       <c r="C113" s="261"/>
       <c r="D113" s="117"/>
-      <c r="E113" s="138"/>
+      <c r="E113" s="306"/>
       <c r="F113" s="276"/>
-      <c r="G113" s="123"/>
-      <c r="H113" s="124"/>
-      <c r="I113" s="124"/>
-      <c r="J113" s="124"/>
+      <c r="G113" s="137"/>
+      <c r="H113" s="131"/>
+      <c r="I113" s="131"/>
+      <c r="J113" s="131"/>
       <c r="K113" s="129"/>
       <c r="L113" s="131"/>
-      <c r="M113" s="131"/>
+      <c r="M113" s="127"/>
       <c r="N113" s="127"/>
       <c r="O113" s="128"/>
       <c r="P113" s="128"/>
@@ -12086,15 +12117,15 @@
       <c r="B114" s="223"/>
       <c r="C114" s="261"/>
       <c r="D114" s="117"/>
-      <c r="E114" s="314"/>
+      <c r="E114" s="138"/>
       <c r="F114" s="276"/>
-      <c r="G114" s="139"/>
-      <c r="H114" s="131"/>
-      <c r="I114" s="131"/>
-      <c r="J114" s="131"/>
+      <c r="G114" s="123"/>
+      <c r="H114" s="124"/>
+      <c r="I114" s="124"/>
+      <c r="J114" s="124"/>
       <c r="K114" s="129"/>
       <c r="L114" s="131"/>
-      <c r="M114" s="127"/>
+      <c r="M114" s="131"/>
       <c r="N114" s="127"/>
       <c r="O114" s="128"/>
       <c r="P114" s="128"/>
@@ -12118,7 +12149,7 @@
       <c r="B115" s="223"/>
       <c r="C115" s="261"/>
       <c r="D115" s="117"/>
-      <c r="E115" s="314"/>
+      <c r="E115" s="307"/>
       <c r="F115" s="276"/>
       <c r="G115" s="139"/>
       <c r="H115" s="131"/>
@@ -12150,14 +12181,14 @@
       <c r="B116" s="223"/>
       <c r="C116" s="261"/>
       <c r="D116" s="117"/>
-      <c r="E116" s="314"/>
+      <c r="E116" s="307"/>
       <c r="F116" s="276"/>
-      <c r="G116" s="133"/>
-      <c r="H116" s="133"/>
-      <c r="I116" s="133"/>
-      <c r="J116" s="133"/>
-      <c r="K116" s="133"/>
-      <c r="L116" s="133"/>
+      <c r="G116" s="139"/>
+      <c r="H116" s="131"/>
+      <c r="I116" s="131"/>
+      <c r="J116" s="131"/>
+      <c r="K116" s="129"/>
+      <c r="L116" s="131"/>
       <c r="M116" s="127"/>
       <c r="N116" s="127"/>
       <c r="O116" s="128"/>
@@ -12182,7 +12213,7 @@
       <c r="B117" s="223"/>
       <c r="C117" s="261"/>
       <c r="D117" s="117"/>
-      <c r="E117" s="314"/>
+      <c r="E117" s="307"/>
       <c r="F117" s="276"/>
       <c r="G117" s="133"/>
       <c r="H117" s="133"/>
@@ -12214,7 +12245,7 @@
       <c r="B118" s="223"/>
       <c r="C118" s="261"/>
       <c r="D118" s="117"/>
-      <c r="E118" s="314"/>
+      <c r="E118" s="307"/>
       <c r="F118" s="276"/>
       <c r="G118" s="133"/>
       <c r="H118" s="133"/>
@@ -12246,7 +12277,7 @@
       <c r="B119" s="223"/>
       <c r="C119" s="261"/>
       <c r="D119" s="117"/>
-      <c r="E119" s="314"/>
+      <c r="E119" s="307"/>
       <c r="F119" s="276"/>
       <c r="G119" s="133"/>
       <c r="H119" s="133"/>
@@ -12255,7 +12286,7 @@
       <c r="K119" s="133"/>
       <c r="L119" s="133"/>
       <c r="M119" s="127"/>
-      <c r="N119" s="133"/>
+      <c r="N119" s="127"/>
       <c r="O119" s="128"/>
       <c r="P119" s="128"/>
       <c r="Q119" s="128"/>
@@ -12278,7 +12309,7 @@
       <c r="B120" s="223"/>
       <c r="C120" s="261"/>
       <c r="D120" s="117"/>
-      <c r="E120" s="314"/>
+      <c r="E120" s="307"/>
       <c r="F120" s="276"/>
       <c r="G120" s="133"/>
       <c r="H120" s="133"/>
@@ -12287,7 +12318,7 @@
       <c r="K120" s="133"/>
       <c r="L120" s="133"/>
       <c r="M120" s="127"/>
-      <c r="N120" s="127"/>
+      <c r="N120" s="133"/>
       <c r="O120" s="128"/>
       <c r="P120" s="128"/>
       <c r="Q120" s="128"/>
@@ -12310,7 +12341,7 @@
       <c r="B121" s="223"/>
       <c r="C121" s="261"/>
       <c r="D121" s="117"/>
-      <c r="E121" s="314"/>
+      <c r="E121" s="307"/>
       <c r="F121" s="276"/>
       <c r="G121" s="133"/>
       <c r="H121" s="133"/>
@@ -12342,7 +12373,7 @@
       <c r="B122" s="223"/>
       <c r="C122" s="261"/>
       <c r="D122" s="117"/>
-      <c r="E122" s="314"/>
+      <c r="E122" s="307"/>
       <c r="F122" s="276"/>
       <c r="G122" s="133"/>
       <c r="H122" s="133"/>
@@ -12373,8 +12404,8 @@
       <c r="A123" s="122"/>
       <c r="B123" s="223"/>
       <c r="C123" s="261"/>
-      <c r="D123" s="140"/>
-      <c r="E123" s="141"/>
+      <c r="D123" s="117"/>
+      <c r="E123" s="307"/>
       <c r="F123" s="276"/>
       <c r="G123" s="133"/>
       <c r="H123" s="133"/>
@@ -12405,7 +12436,7 @@
       <c r="A124" s="122"/>
       <c r="B124" s="223"/>
       <c r="C124" s="261"/>
-      <c r="D124" s="142"/>
+      <c r="D124" s="140"/>
       <c r="E124" s="141"/>
       <c r="F124" s="276"/>
       <c r="G124" s="133"/>
@@ -12438,7 +12469,7 @@
       <c r="B125" s="223"/>
       <c r="C125" s="261"/>
       <c r="D125" s="142"/>
-      <c r="E125" s="143"/>
+      <c r="E125" s="141"/>
       <c r="F125" s="276"/>
       <c r="G125" s="133"/>
       <c r="H125" s="133"/>
@@ -12470,7 +12501,7 @@
       <c r="B126" s="223"/>
       <c r="C126" s="261"/>
       <c r="D126" s="142"/>
-      <c r="E126" s="304"/>
+      <c r="E126" s="143"/>
       <c r="F126" s="276"/>
       <c r="G126" s="133"/>
       <c r="H126" s="133"/>
@@ -12502,7 +12533,7 @@
       <c r="B127" s="223"/>
       <c r="C127" s="261"/>
       <c r="D127" s="142"/>
-      <c r="E127" s="304"/>
+      <c r="E127" s="320"/>
       <c r="F127" s="276"/>
       <c r="G127" s="133"/>
       <c r="H127" s="133"/>
@@ -12534,7 +12565,7 @@
       <c r="B128" s="223"/>
       <c r="C128" s="261"/>
       <c r="D128" s="142"/>
-      <c r="E128" s="144"/>
+      <c r="E128" s="320"/>
       <c r="F128" s="276"/>
       <c r="G128" s="133"/>
       <c r="H128" s="133"/>
@@ -12566,7 +12597,7 @@
       <c r="B129" s="223"/>
       <c r="C129" s="261"/>
       <c r="D129" s="142"/>
-      <c r="E129" s="145"/>
+      <c r="E129" s="144"/>
       <c r="F129" s="276"/>
       <c r="G129" s="133"/>
       <c r="H129" s="133"/>
@@ -12640,7 +12671,7 @@
       <c r="L131" s="133"/>
       <c r="M131" s="127"/>
       <c r="N131" s="127"/>
-      <c r="O131" s="147"/>
+      <c r="O131" s="128"/>
       <c r="P131" s="128"/>
       <c r="Q131" s="128"/>
       <c r="R131" s="128"/>
@@ -12672,7 +12703,7 @@
       <c r="L132" s="133"/>
       <c r="M132" s="127"/>
       <c r="N132" s="127"/>
-      <c r="O132" s="128"/>
+      <c r="O132" s="147"/>
       <c r="P132" s="128"/>
       <c r="Q132" s="128"/>
       <c r="R132" s="128"/>
@@ -12735,7 +12766,7 @@
       <c r="K134" s="133"/>
       <c r="L134" s="133"/>
       <c r="M134" s="127"/>
-      <c r="N134" s="148"/>
+      <c r="N134" s="127"/>
       <c r="O134" s="128"/>
       <c r="P134" s="128"/>
       <c r="Q134" s="128"/>
@@ -12767,7 +12798,7 @@
       <c r="K135" s="133"/>
       <c r="L135" s="133"/>
       <c r="M135" s="127"/>
-      <c r="N135" s="127"/>
+      <c r="N135" s="148"/>
       <c r="O135" s="128"/>
       <c r="P135" s="128"/>
       <c r="Q135" s="128"/>
@@ -12825,10 +12856,10 @@
       <c r="E137" s="145"/>
       <c r="F137" s="276"/>
       <c r="G137" s="133"/>
-      <c r="H137" s="149"/>
-      <c r="I137" s="149"/>
-      <c r="J137" s="149"/>
-      <c r="K137" s="149"/>
+      <c r="H137" s="133"/>
+      <c r="I137" s="133"/>
+      <c r="J137" s="133"/>
+      <c r="K137" s="133"/>
       <c r="L137" s="133"/>
       <c r="M137" s="127"/>
       <c r="N137" s="127"/>
@@ -12857,13 +12888,13 @@
       <c r="E138" s="145"/>
       <c r="F138" s="276"/>
       <c r="G138" s="133"/>
-      <c r="H138" s="133"/>
-      <c r="I138" s="133"/>
-      <c r="J138" s="133"/>
-      <c r="K138" s="133"/>
+      <c r="H138" s="149"/>
+      <c r="I138" s="149"/>
+      <c r="J138" s="149"/>
+      <c r="K138" s="149"/>
       <c r="L138" s="133"/>
       <c r="M138" s="127"/>
-      <c r="N138" s="123"/>
+      <c r="N138" s="127"/>
       <c r="O138" s="128"/>
       <c r="P138" s="128"/>
       <c r="Q138" s="128"/>
@@ -12895,7 +12926,7 @@
       <c r="K139" s="133"/>
       <c r="L139" s="133"/>
       <c r="M139" s="127"/>
-      <c r="N139" s="127"/>
+      <c r="N139" s="123"/>
       <c r="O139" s="128"/>
       <c r="P139" s="128"/>
       <c r="Q139" s="128"/>
@@ -12953,10 +12984,10 @@
       <c r="E141" s="145"/>
       <c r="F141" s="276"/>
       <c r="G141" s="133"/>
-      <c r="H141" s="150"/>
-      <c r="I141" s="150"/>
-      <c r="J141" s="150"/>
-      <c r="K141" s="150"/>
+      <c r="H141" s="133"/>
+      <c r="I141" s="133"/>
+      <c r="J141" s="133"/>
+      <c r="K141" s="133"/>
       <c r="L141" s="133"/>
       <c r="M141" s="127"/>
       <c r="N141" s="127"/>
@@ -13023,7 +13054,7 @@
       <c r="K143" s="150"/>
       <c r="L143" s="133"/>
       <c r="M143" s="127"/>
-      <c r="N143" s="147"/>
+      <c r="N143" s="127"/>
       <c r="O143" s="128"/>
       <c r="P143" s="128"/>
       <c r="Q143" s="128"/>
@@ -13042,20 +13073,20 @@
       <c r="AD143" s="35"/>
     </row>
     <row r="144" spans="1:30" ht="30" customHeight="1" thickBot="1">
-      <c r="A144" s="151"/>
+      <c r="A144" s="122"/>
       <c r="B144" s="223"/>
       <c r="C144" s="261"/>
       <c r="D144" s="142"/>
-      <c r="E144" s="152"/>
+      <c r="E144" s="145"/>
       <c r="F144" s="276"/>
       <c r="G144" s="133"/>
-      <c r="H144" s="133"/>
-      <c r="I144" s="133"/>
-      <c r="J144" s="133"/>
-      <c r="K144" s="133"/>
+      <c r="H144" s="150"/>
+      <c r="I144" s="150"/>
+      <c r="J144" s="150"/>
+      <c r="K144" s="150"/>
       <c r="L144" s="133"/>
       <c r="M144" s="127"/>
-      <c r="N144" s="127"/>
+      <c r="N144" s="147"/>
       <c r="O144" s="128"/>
       <c r="P144" s="128"/>
       <c r="Q144" s="128"/>
@@ -13078,7 +13109,7 @@
       <c r="B145" s="223"/>
       <c r="C145" s="261"/>
       <c r="D145" s="142"/>
-      <c r="E145" s="153"/>
+      <c r="E145" s="152"/>
       <c r="F145" s="276"/>
       <c r="G145" s="133"/>
       <c r="H145" s="133"/>
@@ -13462,7 +13493,7 @@
       <c r="B157" s="223"/>
       <c r="C157" s="261"/>
       <c r="D157" s="142"/>
-      <c r="E157" s="154"/>
+      <c r="E157" s="153"/>
       <c r="F157" s="276"/>
       <c r="G157" s="133"/>
       <c r="H157" s="133"/>
@@ -13494,7 +13525,7 @@
       <c r="B158" s="223"/>
       <c r="C158" s="261"/>
       <c r="D158" s="142"/>
-      <c r="E158" s="155"/>
+      <c r="E158" s="154"/>
       <c r="F158" s="276"/>
       <c r="G158" s="133"/>
       <c r="H158" s="133"/>
@@ -13526,7 +13557,7 @@
       <c r="B159" s="223"/>
       <c r="C159" s="261"/>
       <c r="D159" s="142"/>
-      <c r="E159" s="305"/>
+      <c r="E159" s="155"/>
       <c r="F159" s="276"/>
       <c r="G159" s="133"/>
       <c r="H159" s="133"/>
@@ -13535,7 +13566,7 @@
       <c r="K159" s="133"/>
       <c r="L159" s="133"/>
       <c r="M159" s="127"/>
-      <c r="N159" s="306"/>
+      <c r="N159" s="127"/>
       <c r="O159" s="128"/>
       <c r="P159" s="128"/>
       <c r="Q159" s="128"/>
@@ -13554,11 +13585,11 @@
       <c r="AD159" s="35"/>
     </row>
     <row r="160" spans="1:30" ht="30" customHeight="1" thickBot="1">
-      <c r="A160" s="122"/>
+      <c r="A160" s="151"/>
       <c r="B160" s="223"/>
       <c r="C160" s="261"/>
       <c r="D160" s="142"/>
-      <c r="E160" s="305"/>
+      <c r="E160" s="321"/>
       <c r="F160" s="276"/>
       <c r="G160" s="133"/>
       <c r="H160" s="133"/>
@@ -13567,7 +13598,7 @@
       <c r="K160" s="133"/>
       <c r="L160" s="133"/>
       <c r="M160" s="127"/>
-      <c r="N160" s="306"/>
+      <c r="N160" s="311"/>
       <c r="O160" s="128"/>
       <c r="P160" s="128"/>
       <c r="Q160" s="128"/>
@@ -13590,7 +13621,7 @@
       <c r="B161" s="223"/>
       <c r="C161" s="261"/>
       <c r="D161" s="142"/>
-      <c r="E161" s="305"/>
+      <c r="E161" s="321"/>
       <c r="F161" s="276"/>
       <c r="G161" s="133"/>
       <c r="H161" s="133"/>
@@ -13599,7 +13630,7 @@
       <c r="K161" s="133"/>
       <c r="L161" s="133"/>
       <c r="M161" s="127"/>
-      <c r="N161" s="306"/>
+      <c r="N161" s="311"/>
       <c r="O161" s="128"/>
       <c r="P161" s="128"/>
       <c r="Q161" s="128"/>
@@ -13622,7 +13653,7 @@
       <c r="B162" s="223"/>
       <c r="C162" s="261"/>
       <c r="D162" s="142"/>
-      <c r="E162" s="305"/>
+      <c r="E162" s="321"/>
       <c r="F162" s="276"/>
       <c r="G162" s="133"/>
       <c r="H162" s="133"/>
@@ -13631,7 +13662,7 @@
       <c r="K162" s="133"/>
       <c r="L162" s="133"/>
       <c r="M162" s="127"/>
-      <c r="N162" s="306"/>
+      <c r="N162" s="311"/>
       <c r="O162" s="128"/>
       <c r="P162" s="128"/>
       <c r="Q162" s="128"/>
@@ -13654,7 +13685,7 @@
       <c r="B163" s="223"/>
       <c r="C163" s="261"/>
       <c r="D163" s="142"/>
-      <c r="E163" s="305"/>
+      <c r="E163" s="321"/>
       <c r="F163" s="276"/>
       <c r="G163" s="133"/>
       <c r="H163" s="133"/>
@@ -13663,7 +13694,7 @@
       <c r="K163" s="133"/>
       <c r="L163" s="133"/>
       <c r="M163" s="127"/>
-      <c r="N163" s="306"/>
+      <c r="N163" s="311"/>
       <c r="O163" s="128"/>
       <c r="P163" s="128"/>
       <c r="Q163" s="128"/>
@@ -13686,7 +13717,7 @@
       <c r="B164" s="223"/>
       <c r="C164" s="261"/>
       <c r="D164" s="142"/>
-      <c r="E164" s="305"/>
+      <c r="E164" s="321"/>
       <c r="F164" s="276"/>
       <c r="G164" s="133"/>
       <c r="H164" s="133"/>
@@ -13695,7 +13726,7 @@
       <c r="K164" s="133"/>
       <c r="L164" s="133"/>
       <c r="M164" s="127"/>
-      <c r="N164" s="306"/>
+      <c r="N164" s="311"/>
       <c r="O164" s="128"/>
       <c r="P164" s="128"/>
       <c r="Q164" s="128"/>
@@ -13718,7 +13749,7 @@
       <c r="B165" s="223"/>
       <c r="C165" s="261"/>
       <c r="D165" s="142"/>
-      <c r="E165" s="305"/>
+      <c r="E165" s="321"/>
       <c r="F165" s="276"/>
       <c r="G165" s="133"/>
       <c r="H165" s="133"/>
@@ -13727,7 +13758,7 @@
       <c r="K165" s="133"/>
       <c r="L165" s="133"/>
       <c r="M165" s="127"/>
-      <c r="N165" s="306"/>
+      <c r="N165" s="311"/>
       <c r="O165" s="128"/>
       <c r="P165" s="128"/>
       <c r="Q165" s="128"/>
@@ -13750,7 +13781,7 @@
       <c r="B166" s="223"/>
       <c r="C166" s="261"/>
       <c r="D166" s="142"/>
-      <c r="E166" s="305"/>
+      <c r="E166" s="321"/>
       <c r="F166" s="276"/>
       <c r="G166" s="133"/>
       <c r="H166" s="133"/>
@@ -13759,7 +13790,7 @@
       <c r="K166" s="133"/>
       <c r="L166" s="133"/>
       <c r="M166" s="127"/>
-      <c r="N166" s="306"/>
+      <c r="N166" s="311"/>
       <c r="O166" s="128"/>
       <c r="P166" s="128"/>
       <c r="Q166" s="128"/>
@@ -13782,7 +13813,7 @@
       <c r="B167" s="223"/>
       <c r="C167" s="261"/>
       <c r="D167" s="142"/>
-      <c r="E167" s="305"/>
+      <c r="E167" s="321"/>
       <c r="F167" s="276"/>
       <c r="G167" s="133"/>
       <c r="H167" s="133"/>
@@ -13791,7 +13822,7 @@
       <c r="K167" s="133"/>
       <c r="L167" s="133"/>
       <c r="M167" s="127"/>
-      <c r="N167" s="127"/>
+      <c r="N167" s="311"/>
       <c r="O167" s="128"/>
       <c r="P167" s="128"/>
       <c r="Q167" s="128"/>
@@ -13814,7 +13845,7 @@
       <c r="B168" s="223"/>
       <c r="C168" s="261"/>
       <c r="D168" s="142"/>
-      <c r="E168" s="305"/>
+      <c r="E168" s="321"/>
       <c r="F168" s="276"/>
       <c r="G168" s="133"/>
       <c r="H168" s="133"/>
@@ -13846,7 +13877,7 @@
       <c r="B169" s="223"/>
       <c r="C169" s="261"/>
       <c r="D169" s="142"/>
-      <c r="E169" s="305"/>
+      <c r="E169" s="321"/>
       <c r="F169" s="276"/>
       <c r="G169" s="133"/>
       <c r="H169" s="133"/>
@@ -13874,11 +13905,11 @@
       <c r="AD169" s="35"/>
     </row>
     <row r="170" spans="1:30" ht="30" customHeight="1" thickBot="1">
-      <c r="A170" s="156"/>
-      <c r="B170" s="163"/>
-      <c r="C170" s="157"/>
-      <c r="D170" s="158"/>
-      <c r="E170" s="153"/>
+      <c r="A170" s="122"/>
+      <c r="B170" s="223"/>
+      <c r="C170" s="261"/>
+      <c r="D170" s="142"/>
+      <c r="E170" s="321"/>
       <c r="F170" s="276"/>
       <c r="G170" s="133"/>
       <c r="H170" s="133"/>
@@ -13907,18 +13938,16 @@
     </row>
     <row r="171" spans="1:30" ht="30" customHeight="1" thickBot="1">
       <c r="A171" s="156"/>
-      <c r="B171" s="220"/>
-      <c r="C171" s="159"/>
-      <c r="D171" s="158" t="s">
-        <v>152</v>
-      </c>
-      <c r="E171" s="307"/>
+      <c r="B171" s="163"/>
+      <c r="C171" s="157"/>
+      <c r="D171" s="158"/>
+      <c r="E171" s="153"/>
       <c r="F171" s="276"/>
       <c r="G171" s="133"/>
-      <c r="H171" s="150"/>
-      <c r="I171" s="150"/>
-      <c r="J171" s="150"/>
-      <c r="K171" s="150"/>
+      <c r="H171" s="133"/>
+      <c r="I171" s="133"/>
+      <c r="J171" s="133"/>
+      <c r="K171" s="133"/>
       <c r="L171" s="133"/>
       <c r="M171" s="127"/>
       <c r="N171" s="127"/>
@@ -13942,9 +13971,11 @@
     <row r="172" spans="1:30" ht="30" customHeight="1" thickBot="1">
       <c r="A172" s="156"/>
       <c r="B172" s="220"/>
-      <c r="C172" s="155"/>
-      <c r="D172" s="160"/>
-      <c r="E172" s="307"/>
+      <c r="C172" s="159"/>
+      <c r="D172" s="158" t="s">
+        <v>152</v>
+      </c>
+      <c r="E172" s="312"/>
       <c r="F172" s="276"/>
       <c r="G172" s="133"/>
       <c r="H172" s="150"/>
@@ -13976,7 +14007,7 @@
       <c r="B173" s="220"/>
       <c r="C173" s="155"/>
       <c r="D173" s="160"/>
-      <c r="E173" s="307"/>
+      <c r="E173" s="312"/>
       <c r="F173" s="276"/>
       <c r="G173" s="133"/>
       <c r="H173" s="150"/>
@@ -14007,8 +14038,8 @@
       <c r="A174" s="156"/>
       <c r="B174" s="220"/>
       <c r="C174" s="155"/>
-      <c r="D174" s="155"/>
-      <c r="E174" s="307"/>
+      <c r="D174" s="160"/>
+      <c r="E174" s="312"/>
       <c r="F174" s="276"/>
       <c r="G174" s="133"/>
       <c r="H174" s="150"/>
@@ -14038,9 +14069,9 @@
     <row r="175" spans="1:30" ht="30" customHeight="1" thickBot="1">
       <c r="A175" s="156"/>
       <c r="B175" s="220"/>
-      <c r="C175" s="159"/>
+      <c r="C175" s="155"/>
       <c r="D175" s="155"/>
-      <c r="E175" s="307"/>
+      <c r="E175" s="312"/>
       <c r="F175" s="276"/>
       <c r="G175" s="133"/>
       <c r="H175" s="150"/>
@@ -14072,7 +14103,7 @@
       <c r="B176" s="220"/>
       <c r="C176" s="159"/>
       <c r="D176" s="155"/>
-      <c r="E176" s="307"/>
+      <c r="E176" s="312"/>
       <c r="F176" s="276"/>
       <c r="G176" s="133"/>
       <c r="H176" s="150"/>
@@ -14104,7 +14135,7 @@
       <c r="B177" s="220"/>
       <c r="C177" s="159"/>
       <c r="D177" s="155"/>
-      <c r="E177" s="307"/>
+      <c r="E177" s="312"/>
       <c r="F177" s="276"/>
       <c r="G177" s="133"/>
       <c r="H177" s="150"/>
@@ -14136,7 +14167,7 @@
       <c r="B178" s="220"/>
       <c r="C178" s="159"/>
       <c r="D178" s="155"/>
-      <c r="E178" s="307"/>
+      <c r="E178" s="312"/>
       <c r="F178" s="276"/>
       <c r="G178" s="133"/>
       <c r="H178" s="150"/>
@@ -14167,8 +14198,8 @@
       <c r="A179" s="156"/>
       <c r="B179" s="220"/>
       <c r="C179" s="159"/>
-      <c r="D179" s="159"/>
-      <c r="E179" s="307"/>
+      <c r="D179" s="155"/>
+      <c r="E179" s="312"/>
       <c r="F179" s="276"/>
       <c r="G179" s="133"/>
       <c r="H179" s="150"/>
@@ -14200,7 +14231,7 @@
       <c r="B180" s="220"/>
       <c r="C180" s="159"/>
       <c r="D180" s="159"/>
-      <c r="E180" s="161"/>
+      <c r="E180" s="312"/>
       <c r="F180" s="276"/>
       <c r="G180" s="133"/>
       <c r="H180" s="150"/>
@@ -14209,7 +14240,7 @@
       <c r="K180" s="150"/>
       <c r="L180" s="133"/>
       <c r="M180" s="127"/>
-      <c r="N180" s="133"/>
+      <c r="N180" s="127"/>
       <c r="O180" s="128"/>
       <c r="P180" s="128"/>
       <c r="Q180" s="128"/>
@@ -14241,7 +14272,7 @@
       <c r="K181" s="150"/>
       <c r="L181" s="133"/>
       <c r="M181" s="127"/>
-      <c r="N181" s="127"/>
+      <c r="N181" s="133"/>
       <c r="O181" s="128"/>
       <c r="P181" s="128"/>
       <c r="Q181" s="128"/>
@@ -14401,7 +14432,7 @@
       <c r="K186" s="150"/>
       <c r="L186" s="133"/>
       <c r="M186" s="127"/>
-      <c r="N186" s="133"/>
+      <c r="N186" s="127"/>
       <c r="O186" s="128"/>
       <c r="P186" s="128"/>
       <c r="Q186" s="128"/>
@@ -14561,7 +14592,7 @@
       <c r="K191" s="150"/>
       <c r="L191" s="133"/>
       <c r="M191" s="127"/>
-      <c r="N191" s="127"/>
+      <c r="N191" s="133"/>
       <c r="O191" s="128"/>
       <c r="P191" s="128"/>
       <c r="Q191" s="128"/>
@@ -14657,7 +14688,7 @@
       <c r="K194" s="150"/>
       <c r="L194" s="133"/>
       <c r="M194" s="127"/>
-      <c r="N194" s="133"/>
+      <c r="N194" s="127"/>
       <c r="O194" s="128"/>
       <c r="P194" s="128"/>
       <c r="Q194" s="128"/>
@@ -14677,10 +14708,10 @@
     </row>
     <row r="195" spans="1:30" ht="30" customHeight="1" thickBot="1">
       <c r="A195" s="156"/>
-      <c r="B195" s="224"/>
-      <c r="C195" s="164"/>
-      <c r="D195" s="165"/>
-      <c r="E195" s="166"/>
+      <c r="B195" s="220"/>
+      <c r="C195" s="159"/>
+      <c r="D195" s="159"/>
+      <c r="E195" s="161"/>
       <c r="F195" s="276"/>
       <c r="G195" s="133"/>
       <c r="H195" s="150"/>
@@ -14709,10 +14740,10 @@
     </row>
     <row r="196" spans="1:30" ht="30" customHeight="1" thickBot="1">
       <c r="A196" s="156"/>
-      <c r="B196" s="220"/>
-      <c r="C196" s="159"/>
-      <c r="D196" s="167"/>
-      <c r="E196" s="146"/>
+      <c r="B196" s="224"/>
+      <c r="C196" s="164"/>
+      <c r="D196" s="165"/>
+      <c r="E196" s="166"/>
       <c r="F196" s="276"/>
       <c r="G196" s="133"/>
       <c r="H196" s="150"/>
@@ -14721,7 +14752,7 @@
       <c r="K196" s="150"/>
       <c r="L196" s="133"/>
       <c r="M196" s="127"/>
-      <c r="N196" s="127"/>
+      <c r="N196" s="133"/>
       <c r="O196" s="128"/>
       <c r="P196" s="128"/>
       <c r="Q196" s="128"/>
@@ -14807,7 +14838,7 @@
       <c r="A199" s="156"/>
       <c r="B199" s="220"/>
       <c r="C199" s="159"/>
-      <c r="D199" s="146"/>
+      <c r="D199" s="167"/>
       <c r="E199" s="146"/>
       <c r="F199" s="276"/>
       <c r="G199" s="133"/>
@@ -14815,7 +14846,7 @@
       <c r="I199" s="150"/>
       <c r="J199" s="150"/>
       <c r="K199" s="150"/>
-      <c r="L199" s="150"/>
+      <c r="L199" s="133"/>
       <c r="M199" s="127"/>
       <c r="N199" s="127"/>
       <c r="O199" s="128"/>
@@ -14839,8 +14870,8 @@
       <c r="A200" s="156"/>
       <c r="B200" s="220"/>
       <c r="C200" s="159"/>
-      <c r="D200" s="167"/>
-      <c r="E200" s="168"/>
+      <c r="D200" s="146"/>
+      <c r="E200" s="146"/>
       <c r="F200" s="276"/>
       <c r="G200" s="133"/>
       <c r="H200" s="150"/>
@@ -14872,7 +14903,7 @@
       <c r="B201" s="220"/>
       <c r="C201" s="159"/>
       <c r="D201" s="167"/>
-      <c r="E201" s="169"/>
+      <c r="E201" s="168"/>
       <c r="F201" s="276"/>
       <c r="G201" s="133"/>
       <c r="H201" s="150"/>
@@ -14936,7 +14967,7 @@
       <c r="B203" s="220"/>
       <c r="C203" s="159"/>
       <c r="D203" s="167"/>
-      <c r="E203" s="170"/>
+      <c r="E203" s="169"/>
       <c r="F203" s="276"/>
       <c r="G203" s="133"/>
       <c r="H203" s="150"/>
@@ -14967,8 +14998,8 @@
       <c r="A204" s="156"/>
       <c r="B204" s="220"/>
       <c r="C204" s="159"/>
-      <c r="D204" s="146"/>
-      <c r="E204" s="146"/>
+      <c r="D204" s="167"/>
+      <c r="E204" s="170"/>
       <c r="F204" s="276"/>
       <c r="G204" s="133"/>
       <c r="H204" s="150"/>
@@ -14999,15 +15030,15 @@
       <c r="A205" s="156"/>
       <c r="B205" s="220"/>
       <c r="C205" s="159"/>
-      <c r="D205" s="159"/>
-      <c r="E205" s="155"/>
+      <c r="D205" s="146"/>
+      <c r="E205" s="146"/>
       <c r="F205" s="276"/>
       <c r="G205" s="133"/>
-      <c r="H205" s="133"/>
-      <c r="I205" s="133"/>
-      <c r="J205" s="133"/>
-      <c r="K205" s="133"/>
-      <c r="L205" s="133"/>
+      <c r="H205" s="150"/>
+      <c r="I205" s="150"/>
+      <c r="J205" s="150"/>
+      <c r="K205" s="150"/>
+      <c r="L205" s="150"/>
       <c r="M205" s="127"/>
       <c r="N205" s="127"/>
       <c r="O205" s="128"/>
@@ -15034,11 +15065,11 @@
       <c r="D206" s="159"/>
       <c r="E206" s="155"/>
       <c r="F206" s="276"/>
-      <c r="G206" s="172"/>
-      <c r="H206" s="172"/>
-      <c r="I206" s="172"/>
-      <c r="J206" s="172"/>
-      <c r="K206" s="172"/>
+      <c r="G206" s="133"/>
+      <c r="H206" s="133"/>
+      <c r="I206" s="133"/>
+      <c r="J206" s="133"/>
+      <c r="K206" s="133"/>
       <c r="L206" s="133"/>
       <c r="M206" s="127"/>
       <c r="N206" s="127"/>
@@ -15073,7 +15104,7 @@
       <c r="K207" s="172"/>
       <c r="L207" s="133"/>
       <c r="M207" s="127"/>
-      <c r="N207" s="173"/>
+      <c r="N207" s="127"/>
       <c r="O207" s="128"/>
       <c r="P207" s="128"/>
       <c r="Q207" s="128"/>
@@ -15091,13 +15122,13 @@
       <c r="AC207" s="35"/>
       <c r="AD207" s="35"/>
     </row>
-    <row r="208" spans="1:30" ht="30" customHeight="1">
+    <row r="208" spans="1:30" ht="30" customHeight="1" thickBot="1">
       <c r="A208" s="156"/>
       <c r="B208" s="220"/>
       <c r="C208" s="159"/>
       <c r="D208" s="159"/>
       <c r="E208" s="155"/>
-      <c r="F208" s="171"/>
+      <c r="F208" s="276"/>
       <c r="G208" s="172"/>
       <c r="H208" s="172"/>
       <c r="I208" s="172"/>
@@ -15195,11 +15226,11 @@
       <c r="E211" s="155"/>
       <c r="F211" s="171"/>
       <c r="G211" s="172"/>
-      <c r="H211" s="174"/>
-      <c r="I211" s="174"/>
-      <c r="J211" s="174"/>
-      <c r="K211" s="174"/>
-      <c r="L211" s="175"/>
+      <c r="H211" s="172"/>
+      <c r="I211" s="172"/>
+      <c r="J211" s="172"/>
+      <c r="K211" s="172"/>
+      <c r="L211" s="133"/>
       <c r="M211" s="127"/>
       <c r="N211" s="173"/>
       <c r="O211" s="128"/>
@@ -15226,12 +15257,12 @@
       <c r="D212" s="159"/>
       <c r="E212" s="155"/>
       <c r="F212" s="171"/>
-      <c r="G212" s="176"/>
-      <c r="H212" s="176"/>
-      <c r="I212" s="176"/>
-      <c r="J212" s="176"/>
-      <c r="K212" s="176"/>
-      <c r="L212" s="133"/>
+      <c r="G212" s="172"/>
+      <c r="H212" s="174"/>
+      <c r="I212" s="174"/>
+      <c r="J212" s="174"/>
+      <c r="K212" s="174"/>
+      <c r="L212" s="175"/>
       <c r="M212" s="127"/>
       <c r="N212" s="173"/>
       <c r="O212" s="128"/>
@@ -15255,8 +15286,8 @@
       <c r="A213" s="156"/>
       <c r="B213" s="220"/>
       <c r="C213" s="159"/>
-      <c r="D213" s="155"/>
-      <c r="E213" s="177"/>
+      <c r="D213" s="159"/>
+      <c r="E213" s="155"/>
       <c r="F213" s="171"/>
       <c r="G213" s="176"/>
       <c r="H213" s="176"/>
@@ -15286,10 +15317,10 @@
     <row r="214" spans="1:30" ht="30" customHeight="1">
       <c r="A214" s="156"/>
       <c r="B214" s="220"/>
-      <c r="C214" s="167"/>
-      <c r="D214" s="159"/>
+      <c r="C214" s="159"/>
+      <c r="D214" s="155"/>
       <c r="E214" s="177"/>
-      <c r="F214" s="134"/>
+      <c r="F214" s="171"/>
       <c r="G214" s="176"/>
       <c r="H214" s="176"/>
       <c r="I214" s="176"/>
@@ -15320,13 +15351,13 @@
       <c r="B215" s="220"/>
       <c r="C215" s="167"/>
       <c r="D215" s="159"/>
-      <c r="E215" s="155"/>
+      <c r="E215" s="177"/>
       <c r="F215" s="134"/>
-      <c r="G215" s="129"/>
-      <c r="H215" s="129"/>
-      <c r="I215" s="129"/>
-      <c r="J215" s="129"/>
-      <c r="K215" s="129"/>
+      <c r="G215" s="176"/>
+      <c r="H215" s="176"/>
+      <c r="I215" s="176"/>
+      <c r="J215" s="176"/>
+      <c r="K215" s="176"/>
       <c r="L215" s="133"/>
       <c r="M215" s="127"/>
       <c r="N215" s="173"/>
@@ -15418,12 +15449,12 @@
       <c r="D218" s="159"/>
       <c r="E218" s="155"/>
       <c r="F218" s="134"/>
-      <c r="G218" s="176"/>
-      <c r="H218" s="176"/>
-      <c r="I218" s="176"/>
-      <c r="J218" s="176"/>
-      <c r="K218" s="176"/>
-      <c r="L218" s="149"/>
+      <c r="G218" s="129"/>
+      <c r="H218" s="129"/>
+      <c r="I218" s="129"/>
+      <c r="J218" s="129"/>
+      <c r="K218" s="129"/>
+      <c r="L218" s="133"/>
       <c r="M218" s="127"/>
       <c r="N218" s="173"/>
       <c r="O218" s="128"/>
@@ -15546,13 +15577,13 @@
       <c r="D222" s="159"/>
       <c r="E222" s="155"/>
       <c r="F222" s="134"/>
-      <c r="G222" s="129"/>
-      <c r="H222" s="178"/>
-      <c r="I222" s="178"/>
-      <c r="J222" s="178"/>
-      <c r="K222" s="178"/>
-      <c r="L222" s="301"/>
-      <c r="M222" s="306"/>
+      <c r="G222" s="176"/>
+      <c r="H222" s="176"/>
+      <c r="I222" s="176"/>
+      <c r="J222" s="176"/>
+      <c r="K222" s="176"/>
+      <c r="L222" s="149"/>
+      <c r="M222" s="127"/>
       <c r="N222" s="173"/>
       <c r="O222" s="128"/>
       <c r="P222" s="128"/>
@@ -15579,12 +15610,12 @@
       <c r="E223" s="155"/>
       <c r="F223" s="134"/>
       <c r="G223" s="129"/>
-      <c r="H223" s="179"/>
-      <c r="I223" s="179"/>
-      <c r="J223" s="179"/>
-      <c r="K223" s="179"/>
-      <c r="L223" s="301"/>
-      <c r="M223" s="306"/>
+      <c r="H223" s="178"/>
+      <c r="I223" s="178"/>
+      <c r="J223" s="178"/>
+      <c r="K223" s="178"/>
+      <c r="L223" s="313"/>
+      <c r="M223" s="311"/>
       <c r="N223" s="173"/>
       <c r="O223" s="128"/>
       <c r="P223" s="128"/>
@@ -15603,7 +15634,7 @@
       <c r="AC223" s="35"/>
       <c r="AD223" s="35"/>
     </row>
-    <row r="224" spans="1:30" ht="15.75" customHeight="1">
+    <row r="224" spans="1:30" ht="30" customHeight="1">
       <c r="A224" s="156"/>
       <c r="B224" s="220"/>
       <c r="C224" s="167"/>
@@ -15611,12 +15642,12 @@
       <c r="E224" s="155"/>
       <c r="F224" s="134"/>
       <c r="G224" s="129"/>
-      <c r="H224" s="118"/>
-      <c r="I224" s="118"/>
-      <c r="J224" s="118"/>
-      <c r="K224" s="118"/>
-      <c r="L224" s="301"/>
-      <c r="M224" s="306"/>
+      <c r="H224" s="179"/>
+      <c r="I224" s="179"/>
+      <c r="J224" s="179"/>
+      <c r="K224" s="179"/>
+      <c r="L224" s="313"/>
+      <c r="M224" s="311"/>
       <c r="N224" s="173"/>
       <c r="O224" s="128"/>
       <c r="P224" s="128"/>
@@ -15639,16 +15670,16 @@
       <c r="A225" s="156"/>
       <c r="B225" s="220"/>
       <c r="C225" s="167"/>
-      <c r="D225" s="180"/>
-      <c r="E225" s="180"/>
+      <c r="D225" s="159"/>
+      <c r="E225" s="155"/>
       <c r="F225" s="134"/>
-      <c r="G225" s="181"/>
-      <c r="H225" s="181"/>
-      <c r="I225" s="181"/>
-      <c r="J225" s="181"/>
-      <c r="K225" s="181"/>
-      <c r="L225" s="172"/>
-      <c r="M225" s="182"/>
+      <c r="G225" s="129"/>
+      <c r="H225" s="118"/>
+      <c r="I225" s="118"/>
+      <c r="J225" s="118"/>
+      <c r="K225" s="118"/>
+      <c r="L225" s="313"/>
+      <c r="M225" s="311"/>
       <c r="N225" s="173"/>
       <c r="O225" s="128"/>
       <c r="P225" s="128"/>
@@ -15674,13 +15705,13 @@
       <c r="D226" s="180"/>
       <c r="E226" s="180"/>
       <c r="F226" s="134"/>
-      <c r="G226" s="118"/>
-      <c r="H226" s="118"/>
-      <c r="I226" s="118"/>
-      <c r="J226" s="118"/>
-      <c r="K226" s="118"/>
-      <c r="L226" s="183"/>
-      <c r="M226" s="126"/>
+      <c r="G226" s="181"/>
+      <c r="H226" s="181"/>
+      <c r="I226" s="181"/>
+      <c r="J226" s="181"/>
+      <c r="K226" s="181"/>
+      <c r="L226" s="172"/>
+      <c r="M226" s="182"/>
       <c r="N226" s="173"/>
       <c r="O226" s="128"/>
       <c r="P226" s="128"/>
@@ -15738,13 +15769,13 @@
       <c r="D228" s="180"/>
       <c r="E228" s="180"/>
       <c r="F228" s="134"/>
-      <c r="G228" s="129"/>
-      <c r="H228" s="129"/>
-      <c r="I228" s="129"/>
-      <c r="J228" s="129"/>
-      <c r="K228" s="129"/>
-      <c r="L228" s="133"/>
-      <c r="M228" s="127"/>
+      <c r="G228" s="118"/>
+      <c r="H228" s="118"/>
+      <c r="I228" s="118"/>
+      <c r="J228" s="118"/>
+      <c r="K228" s="118"/>
+      <c r="L228" s="183"/>
+      <c r="M228" s="126"/>
       <c r="N228" s="173"/>
       <c r="O228" s="128"/>
       <c r="P228" s="128"/>
@@ -15831,9 +15862,9 @@
       <c r="A231" s="156"/>
       <c r="B231" s="220"/>
       <c r="C231" s="167"/>
-      <c r="D231" s="295"/>
-      <c r="E231" s="155"/>
-      <c r="F231" s="302"/>
+      <c r="D231" s="180"/>
+      <c r="E231" s="180"/>
+      <c r="F231" s="134"/>
       <c r="G231" s="129"/>
       <c r="H231" s="129"/>
       <c r="I231" s="129"/>
@@ -15863,9 +15894,9 @@
       <c r="A232" s="156"/>
       <c r="B232" s="220"/>
       <c r="C232" s="167"/>
-      <c r="D232" s="295"/>
+      <c r="D232" s="317"/>
       <c r="E232" s="155"/>
-      <c r="F232" s="302"/>
+      <c r="F232" s="326"/>
       <c r="G232" s="129"/>
       <c r="H232" s="129"/>
       <c r="I232" s="129"/>
@@ -15895,9 +15926,9 @@
       <c r="A233" s="156"/>
       <c r="B233" s="220"/>
       <c r="C233" s="167"/>
-      <c r="D233" s="295"/>
+      <c r="D233" s="317"/>
       <c r="E233" s="155"/>
-      <c r="F233" s="302"/>
+      <c r="F233" s="326"/>
       <c r="G233" s="129"/>
       <c r="H233" s="129"/>
       <c r="I233" s="129"/>
@@ -15927,9 +15958,9 @@
       <c r="A234" s="156"/>
       <c r="B234" s="220"/>
       <c r="C234" s="167"/>
-      <c r="D234" s="295"/>
+      <c r="D234" s="317"/>
       <c r="E234" s="155"/>
-      <c r="F234" s="134"/>
+      <c r="F234" s="326"/>
       <c r="G234" s="129"/>
       <c r="H234" s="129"/>
       <c r="I234" s="129"/>
@@ -15959,7 +15990,7 @@
       <c r="A235" s="156"/>
       <c r="B235" s="220"/>
       <c r="C235" s="167"/>
-      <c r="D235" s="295"/>
+      <c r="D235" s="317"/>
       <c r="E235" s="155"/>
       <c r="F235" s="134"/>
       <c r="G235" s="129"/>
@@ -15991,15 +16022,15 @@
       <c r="A236" s="156"/>
       <c r="B236" s="220"/>
       <c r="C236" s="167"/>
-      <c r="D236" s="295"/>
+      <c r="D236" s="317"/>
       <c r="E236" s="155"/>
       <c r="F236" s="134"/>
-      <c r="G236" s="176"/>
-      <c r="H236" s="176"/>
-      <c r="I236" s="176"/>
-      <c r="J236" s="176"/>
-      <c r="K236" s="176"/>
-      <c r="L236" s="149"/>
+      <c r="G236" s="129"/>
+      <c r="H236" s="129"/>
+      <c r="I236" s="129"/>
+      <c r="J236" s="129"/>
+      <c r="K236" s="129"/>
+      <c r="L236" s="133"/>
       <c r="M236" s="127"/>
       <c r="N236" s="173"/>
       <c r="O236" s="128"/>
@@ -16023,15 +16054,15 @@
       <c r="A237" s="156"/>
       <c r="B237" s="220"/>
       <c r="C237" s="167"/>
-      <c r="D237" s="295"/>
+      <c r="D237" s="317"/>
       <c r="E237" s="155"/>
       <c r="F237" s="134"/>
-      <c r="G237" s="129"/>
-      <c r="H237" s="129"/>
-      <c r="I237" s="129"/>
-      <c r="J237" s="129"/>
-      <c r="K237" s="129"/>
-      <c r="L237" s="133"/>
+      <c r="G237" s="176"/>
+      <c r="H237" s="176"/>
+      <c r="I237" s="176"/>
+      <c r="J237" s="176"/>
+      <c r="K237" s="176"/>
+      <c r="L237" s="149"/>
       <c r="M237" s="127"/>
       <c r="N237" s="173"/>
       <c r="O237" s="128"/>
@@ -16055,15 +16086,15 @@
       <c r="A238" s="156"/>
       <c r="B238" s="220"/>
       <c r="C238" s="167"/>
-      <c r="D238" s="300"/>
-      <c r="E238" s="165"/>
+      <c r="D238" s="317"/>
+      <c r="E238" s="155"/>
       <c r="F238" s="134"/>
-      <c r="G238" s="176"/>
-      <c r="H238" s="176"/>
-      <c r="I238" s="176"/>
-      <c r="J238" s="176"/>
-      <c r="K238" s="176"/>
-      <c r="L238" s="149"/>
+      <c r="G238" s="129"/>
+      <c r="H238" s="129"/>
+      <c r="I238" s="129"/>
+      <c r="J238" s="129"/>
+      <c r="K238" s="129"/>
+      <c r="L238" s="133"/>
       <c r="M238" s="127"/>
       <c r="N238" s="173"/>
       <c r="O238" s="128"/>
@@ -16087,8 +16118,8 @@
       <c r="A239" s="156"/>
       <c r="B239" s="220"/>
       <c r="C239" s="167"/>
-      <c r="D239" s="300"/>
-      <c r="E239" s="184"/>
+      <c r="D239" s="316"/>
+      <c r="E239" s="165"/>
       <c r="F239" s="134"/>
       <c r="G239" s="176"/>
       <c r="H239" s="176"/>
@@ -16119,17 +16150,17 @@
       <c r="A240" s="156"/>
       <c r="B240" s="220"/>
       <c r="C240" s="167"/>
-      <c r="D240" s="155"/>
-      <c r="E240" s="155"/>
+      <c r="D240" s="316"/>
+      <c r="E240" s="184"/>
       <c r="F240" s="134"/>
-      <c r="G240" s="185"/>
-      <c r="H240" s="185"/>
-      <c r="I240" s="185"/>
-      <c r="J240" s="185"/>
-      <c r="K240" s="185"/>
-      <c r="L240" s="183"/>
-      <c r="M240" s="126"/>
-      <c r="N240" s="148"/>
+      <c r="G240" s="176"/>
+      <c r="H240" s="176"/>
+      <c r="I240" s="176"/>
+      <c r="J240" s="176"/>
+      <c r="K240" s="176"/>
+      <c r="L240" s="149"/>
+      <c r="M240" s="127"/>
+      <c r="N240" s="173"/>
       <c r="O240" s="128"/>
       <c r="P240" s="128"/>
       <c r="Q240" s="128"/>
@@ -16147,20 +16178,20 @@
       <c r="AC240" s="35"/>
       <c r="AD240" s="35"/>
     </row>
-    <row r="241" spans="1:30" ht="30" customHeight="1">
+    <row r="241" spans="1:30" ht="15.75" customHeight="1">
       <c r="A241" s="156"/>
       <c r="B241" s="220"/>
       <c r="C241" s="167"/>
-      <c r="D241" s="300"/>
-      <c r="E241" s="165"/>
+      <c r="D241" s="155"/>
+      <c r="E241" s="155"/>
       <c r="F241" s="134"/>
-      <c r="G241" s="129"/>
-      <c r="H241" s="129"/>
-      <c r="I241" s="129"/>
-      <c r="J241" s="129"/>
-      <c r="K241" s="129"/>
-      <c r="L241" s="133"/>
-      <c r="M241" s="127"/>
+      <c r="G241" s="185"/>
+      <c r="H241" s="185"/>
+      <c r="I241" s="185"/>
+      <c r="J241" s="185"/>
+      <c r="K241" s="185"/>
+      <c r="L241" s="183"/>
+      <c r="M241" s="126"/>
       <c r="N241" s="148"/>
       <c r="O241" s="128"/>
       <c r="P241" s="128"/>
@@ -16179,12 +16210,12 @@
       <c r="AC241" s="35"/>
       <c r="AD241" s="35"/>
     </row>
-    <row r="242" spans="1:30" ht="15.75" customHeight="1">
+    <row r="242" spans="1:30" ht="30" customHeight="1">
       <c r="A242" s="156"/>
       <c r="B242" s="220"/>
       <c r="C242" s="167"/>
-      <c r="D242" s="300"/>
-      <c r="E242" s="166"/>
+      <c r="D242" s="316"/>
+      <c r="E242" s="165"/>
       <c r="F242" s="134"/>
       <c r="G242" s="129"/>
       <c r="H242" s="129"/>
@@ -16215,7 +16246,7 @@
       <c r="A243" s="156"/>
       <c r="B243" s="220"/>
       <c r="C243" s="167"/>
-      <c r="D243" s="300"/>
+      <c r="D243" s="316"/>
       <c r="E243" s="166"/>
       <c r="F243" s="134"/>
       <c r="G243" s="129"/>
@@ -16247,15 +16278,15 @@
       <c r="A244" s="156"/>
       <c r="B244" s="220"/>
       <c r="C244" s="167"/>
-      <c r="D244" s="300"/>
+      <c r="D244" s="316"/>
       <c r="E244" s="166"/>
       <c r="F244" s="134"/>
-      <c r="G244" s="176"/>
-      <c r="H244" s="176"/>
-      <c r="I244" s="176"/>
-      <c r="J244" s="176"/>
-      <c r="K244" s="176"/>
-      <c r="L244" s="149"/>
+      <c r="G244" s="129"/>
+      <c r="H244" s="129"/>
+      <c r="I244" s="129"/>
+      <c r="J244" s="129"/>
+      <c r="K244" s="129"/>
+      <c r="L244" s="133"/>
       <c r="M244" s="127"/>
       <c r="N244" s="148"/>
       <c r="O244" s="128"/>
@@ -16279,15 +16310,15 @@
       <c r="A245" s="156"/>
       <c r="B245" s="220"/>
       <c r="C245" s="167"/>
-      <c r="D245" s="300"/>
+      <c r="D245" s="316"/>
       <c r="E245" s="166"/>
-      <c r="F245" s="186"/>
-      <c r="G245" s="129"/>
-      <c r="H245" s="129"/>
-      <c r="I245" s="129"/>
-      <c r="J245" s="129"/>
-      <c r="K245" s="129"/>
-      <c r="L245" s="133"/>
+      <c r="F245" s="134"/>
+      <c r="G245" s="176"/>
+      <c r="H245" s="176"/>
+      <c r="I245" s="176"/>
+      <c r="J245" s="176"/>
+      <c r="K245" s="176"/>
+      <c r="L245" s="149"/>
       <c r="M245" s="127"/>
       <c r="N245" s="148"/>
       <c r="O245" s="128"/>
@@ -16311,9 +16342,9 @@
       <c r="A246" s="156"/>
       <c r="B246" s="220"/>
       <c r="C246" s="167"/>
-      <c r="D246" s="184"/>
-      <c r="E246" s="184"/>
-      <c r="F246" s="134"/>
+      <c r="D246" s="316"/>
+      <c r="E246" s="166"/>
+      <c r="F246" s="186"/>
       <c r="G246" s="129"/>
       <c r="H246" s="129"/>
       <c r="I246" s="129"/>
@@ -16343,8 +16374,8 @@
       <c r="A247" s="156"/>
       <c r="B247" s="220"/>
       <c r="C247" s="167"/>
-      <c r="D247" s="159"/>
-      <c r="E247" s="159"/>
+      <c r="D247" s="184"/>
+      <c r="E247" s="184"/>
       <c r="F247" s="134"/>
       <c r="G247" s="129"/>
       <c r="H247" s="129"/>
@@ -16410,12 +16441,12 @@
       <c r="D249" s="159"/>
       <c r="E249" s="159"/>
       <c r="F249" s="134"/>
-      <c r="G249" s="176"/>
-      <c r="H249" s="176"/>
-      <c r="I249" s="176"/>
-      <c r="J249" s="176"/>
-      <c r="K249" s="176"/>
-      <c r="L249" s="149"/>
+      <c r="G249" s="129"/>
+      <c r="H249" s="129"/>
+      <c r="I249" s="129"/>
+      <c r="J249" s="129"/>
+      <c r="K249" s="129"/>
+      <c r="L249" s="133"/>
       <c r="M249" s="127"/>
       <c r="N249" s="148"/>
       <c r="O249" s="128"/>
@@ -16447,7 +16478,7 @@
       <c r="I250" s="176"/>
       <c r="J250" s="176"/>
       <c r="K250" s="176"/>
-      <c r="L250" s="133"/>
+      <c r="L250" s="149"/>
       <c r="M250" s="127"/>
       <c r="N250" s="148"/>
       <c r="O250" s="128"/>
@@ -16479,7 +16510,7 @@
       <c r="I251" s="176"/>
       <c r="J251" s="176"/>
       <c r="K251" s="176"/>
-      <c r="L251" s="149"/>
+      <c r="L251" s="133"/>
       <c r="M251" s="127"/>
       <c r="N251" s="148"/>
       <c r="O251" s="128"/>
@@ -16570,13 +16601,13 @@
       <c r="D254" s="159"/>
       <c r="E254" s="159"/>
       <c r="F254" s="134"/>
-      <c r="G254" s="179"/>
-      <c r="H254" s="179"/>
-      <c r="I254" s="179"/>
-      <c r="J254" s="179"/>
-      <c r="K254" s="179"/>
-      <c r="L254" s="187"/>
-      <c r="M254" s="188"/>
+      <c r="G254" s="176"/>
+      <c r="H254" s="176"/>
+      <c r="I254" s="176"/>
+      <c r="J254" s="176"/>
+      <c r="K254" s="176"/>
+      <c r="L254" s="149"/>
+      <c r="M254" s="127"/>
       <c r="N254" s="148"/>
       <c r="O254" s="128"/>
       <c r="P254" s="128"/>
@@ -16602,13 +16633,13 @@
       <c r="D255" s="159"/>
       <c r="E255" s="159"/>
       <c r="F255" s="134"/>
-      <c r="G255" s="118"/>
-      <c r="H255" s="118"/>
-      <c r="I255" s="118"/>
-      <c r="J255" s="118"/>
-      <c r="K255" s="118"/>
-      <c r="L255" s="183"/>
-      <c r="M255" s="126"/>
+      <c r="G255" s="179"/>
+      <c r="H255" s="179"/>
+      <c r="I255" s="179"/>
+      <c r="J255" s="179"/>
+      <c r="K255" s="179"/>
+      <c r="L255" s="187"/>
+      <c r="M255" s="188"/>
       <c r="N255" s="148"/>
       <c r="O255" s="128"/>
       <c r="P255" s="128"/>
@@ -16634,13 +16665,13 @@
       <c r="D256" s="159"/>
       <c r="E256" s="159"/>
       <c r="F256" s="134"/>
-      <c r="G256" s="176"/>
-      <c r="H256" s="176"/>
-      <c r="I256" s="176"/>
-      <c r="J256" s="176"/>
-      <c r="K256" s="176"/>
-      <c r="L256" s="149"/>
-      <c r="M256" s="127"/>
+      <c r="G256" s="118"/>
+      <c r="H256" s="118"/>
+      <c r="I256" s="118"/>
+      <c r="J256" s="118"/>
+      <c r="K256" s="118"/>
+      <c r="L256" s="183"/>
+      <c r="M256" s="126"/>
       <c r="N256" s="148"/>
       <c r="O256" s="128"/>
       <c r="P256" s="128"/>
@@ -16663,15 +16694,15 @@
       <c r="A257" s="156"/>
       <c r="B257" s="220"/>
       <c r="C257" s="167"/>
-      <c r="D257" s="167"/>
-      <c r="E257" s="167"/>
+      <c r="D257" s="159"/>
+      <c r="E257" s="159"/>
       <c r="F257" s="134"/>
       <c r="G257" s="176"/>
       <c r="H257" s="176"/>
       <c r="I257" s="176"/>
       <c r="J257" s="176"/>
       <c r="K257" s="176"/>
-      <c r="L257" s="299"/>
+      <c r="L257" s="149"/>
       <c r="M257" s="127"/>
       <c r="N257" s="148"/>
       <c r="O257" s="128"/>
@@ -16695,15 +16726,15 @@
       <c r="A258" s="156"/>
       <c r="B258" s="220"/>
       <c r="C258" s="167"/>
-      <c r="D258" s="159"/>
-      <c r="E258" s="159"/>
+      <c r="D258" s="167"/>
+      <c r="E258" s="167"/>
       <c r="F258" s="134"/>
       <c r="G258" s="176"/>
       <c r="H258" s="176"/>
       <c r="I258" s="176"/>
       <c r="J258" s="176"/>
       <c r="K258" s="176"/>
-      <c r="L258" s="299"/>
+      <c r="L258" s="325"/>
       <c r="M258" s="127"/>
       <c r="N258" s="148"/>
       <c r="O258" s="128"/>
@@ -16735,7 +16766,7 @@
       <c r="I259" s="176"/>
       <c r="J259" s="176"/>
       <c r="K259" s="176"/>
-      <c r="L259" s="149"/>
+      <c r="L259" s="325"/>
       <c r="M259" s="127"/>
       <c r="N259" s="148"/>
       <c r="O259" s="128"/>
@@ -16762,13 +16793,13 @@
       <c r="D260" s="159"/>
       <c r="E260" s="159"/>
       <c r="F260" s="134"/>
-      <c r="G260" s="185"/>
-      <c r="H260" s="185"/>
-      <c r="I260" s="185"/>
-      <c r="J260" s="185"/>
-      <c r="K260" s="185"/>
-      <c r="L260" s="183"/>
-      <c r="M260" s="126"/>
+      <c r="G260" s="176"/>
+      <c r="H260" s="176"/>
+      <c r="I260" s="176"/>
+      <c r="J260" s="176"/>
+      <c r="K260" s="176"/>
+      <c r="L260" s="149"/>
+      <c r="M260" s="127"/>
       <c r="N260" s="148"/>
       <c r="O260" s="128"/>
       <c r="P260" s="128"/>
@@ -16791,16 +16822,16 @@
       <c r="A261" s="156"/>
       <c r="B261" s="220"/>
       <c r="C261" s="167"/>
-      <c r="D261" s="300"/>
-      <c r="E261" s="165"/>
+      <c r="D261" s="159"/>
+      <c r="E261" s="159"/>
       <c r="F261" s="134"/>
-      <c r="G261" s="176"/>
-      <c r="H261" s="176"/>
-      <c r="I261" s="176"/>
-      <c r="J261" s="176"/>
-      <c r="K261" s="176"/>
-      <c r="L261" s="301"/>
-      <c r="M261" s="127"/>
+      <c r="G261" s="185"/>
+      <c r="H261" s="185"/>
+      <c r="I261" s="185"/>
+      <c r="J261" s="185"/>
+      <c r="K261" s="185"/>
+      <c r="L261" s="183"/>
+      <c r="M261" s="126"/>
       <c r="N261" s="148"/>
       <c r="O261" s="128"/>
       <c r="P261" s="128"/>
@@ -16823,15 +16854,15 @@
       <c r="A262" s="156"/>
       <c r="B262" s="220"/>
       <c r="C262" s="167"/>
-      <c r="D262" s="300"/>
-      <c r="E262" s="184"/>
+      <c r="D262" s="316"/>
+      <c r="E262" s="165"/>
       <c r="F262" s="134"/>
       <c r="G262" s="176"/>
       <c r="H262" s="176"/>
       <c r="I262" s="176"/>
       <c r="J262" s="176"/>
       <c r="K262" s="176"/>
-      <c r="L262" s="301"/>
+      <c r="L262" s="313"/>
       <c r="M262" s="127"/>
       <c r="N262" s="148"/>
       <c r="O262" s="128"/>
@@ -16855,15 +16886,15 @@
       <c r="A263" s="156"/>
       <c r="B263" s="220"/>
       <c r="C263" s="167"/>
-      <c r="D263" s="295"/>
-      <c r="E263" s="177"/>
-      <c r="F263" s="146"/>
-      <c r="G263" s="133"/>
-      <c r="H263" s="133"/>
-      <c r="I263" s="133"/>
-      <c r="J263" s="133"/>
-      <c r="K263" s="133"/>
-      <c r="L263" s="133"/>
+      <c r="D263" s="316"/>
+      <c r="E263" s="184"/>
+      <c r="F263" s="134"/>
+      <c r="G263" s="176"/>
+      <c r="H263" s="176"/>
+      <c r="I263" s="176"/>
+      <c r="J263" s="176"/>
+      <c r="K263" s="176"/>
+      <c r="L263" s="313"/>
       <c r="M263" s="127"/>
       <c r="N263" s="148"/>
       <c r="O263" s="128"/>
@@ -16887,8 +16918,8 @@
       <c r="A264" s="156"/>
       <c r="B264" s="220"/>
       <c r="C264" s="167"/>
-      <c r="D264" s="295"/>
-      <c r="E264" s="144"/>
+      <c r="D264" s="317"/>
+      <c r="E264" s="177"/>
       <c r="F264" s="146"/>
       <c r="G264" s="133"/>
       <c r="H264" s="133"/>
@@ -16919,8 +16950,8 @@
       <c r="A265" s="156"/>
       <c r="B265" s="220"/>
       <c r="C265" s="167"/>
-      <c r="D265" s="159"/>
-      <c r="E265" s="159"/>
+      <c r="D265" s="317"/>
+      <c r="E265" s="144"/>
       <c r="F265" s="146"/>
       <c r="G265" s="133"/>
       <c r="H265" s="133"/>
@@ -16951,8 +16982,8 @@
       <c r="A266" s="156"/>
       <c r="B266" s="220"/>
       <c r="C266" s="167"/>
-      <c r="D266" s="300"/>
-      <c r="E266" s="165"/>
+      <c r="D266" s="159"/>
+      <c r="E266" s="159"/>
       <c r="F266" s="146"/>
       <c r="G266" s="133"/>
       <c r="H266" s="133"/>
@@ -16983,8 +17014,8 @@
       <c r="A267" s="156"/>
       <c r="B267" s="220"/>
       <c r="C267" s="167"/>
-      <c r="D267" s="300"/>
-      <c r="E267" s="166"/>
+      <c r="D267" s="316"/>
+      <c r="E267" s="165"/>
       <c r="F267" s="146"/>
       <c r="G267" s="133"/>
       <c r="H267" s="133"/>
@@ -17015,8 +17046,8 @@
       <c r="A268" s="156"/>
       <c r="B268" s="220"/>
       <c r="C268" s="167"/>
-      <c r="D268" s="300"/>
-      <c r="E268" s="184"/>
+      <c r="D268" s="316"/>
+      <c r="E268" s="166"/>
       <c r="F268" s="146"/>
       <c r="G268" s="133"/>
       <c r="H268" s="133"/>
@@ -17043,69 +17074,69 @@
       <c r="AC268" s="35"/>
       <c r="AD268" s="35"/>
     </row>
-    <row r="269" spans="1:30" s="198" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A269" s="189"/>
-      <c r="B269" s="189"/>
-      <c r="C269" s="190"/>
-      <c r="D269" s="191"/>
-      <c r="E269" s="191"/>
-      <c r="F269" s="171"/>
-      <c r="G269" s="192"/>
-      <c r="H269" s="192"/>
-      <c r="I269" s="192"/>
-      <c r="J269" s="192"/>
-      <c r="K269" s="192"/>
-      <c r="L269" s="193"/>
-      <c r="M269" s="194"/>
-      <c r="N269" s="195"/>
-      <c r="O269" s="196"/>
-      <c r="P269" s="196"/>
-      <c r="Q269" s="196"/>
-      <c r="R269" s="196"/>
-      <c r="S269" s="196"/>
-      <c r="T269" s="196"/>
-      <c r="U269" s="196"/>
-      <c r="V269" s="197"/>
-      <c r="W269" s="197"/>
-      <c r="X269" s="197"/>
-      <c r="Y269" s="197"/>
-      <c r="Z269" s="197"/>
-      <c r="AA269" s="197"/>
-      <c r="AB269" s="197"/>
-      <c r="AC269" s="197"/>
-      <c r="AD269" s="197"/>
-    </row>
-    <row r="270" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A270" s="162"/>
-      <c r="B270" s="225"/>
-      <c r="C270" s="180"/>
-      <c r="D270" s="180"/>
-      <c r="E270" s="180"/>
-      <c r="F270" s="146"/>
-      <c r="G270" s="133"/>
-      <c r="H270" s="133"/>
-      <c r="I270" s="133"/>
-      <c r="J270" s="133"/>
-      <c r="K270" s="133"/>
-      <c r="L270" s="133"/>
-      <c r="M270" s="127"/>
-      <c r="N270" s="127"/>
-      <c r="O270" s="127"/>
-      <c r="P270" s="127"/>
-      <c r="Q270" s="127"/>
-      <c r="R270" s="127"/>
-      <c r="S270" s="127"/>
-      <c r="T270" s="127"/>
-      <c r="U270" s="127"/>
-      <c r="V270" s="162"/>
-      <c r="W270" s="162"/>
-      <c r="X270" s="162"/>
-      <c r="Y270" s="162"/>
-      <c r="Z270" s="162"/>
-      <c r="AA270" s="162"/>
-      <c r="AB270" s="162"/>
-      <c r="AC270" s="162"/>
-      <c r="AD270" s="162"/>
+    <row r="269" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A269" s="156"/>
+      <c r="B269" s="220"/>
+      <c r="C269" s="167"/>
+      <c r="D269" s="316"/>
+      <c r="E269" s="184"/>
+      <c r="F269" s="146"/>
+      <c r="G269" s="133"/>
+      <c r="H269" s="133"/>
+      <c r="I269" s="133"/>
+      <c r="J269" s="133"/>
+      <c r="K269" s="133"/>
+      <c r="L269" s="133"/>
+      <c r="M269" s="127"/>
+      <c r="N269" s="148"/>
+      <c r="O269" s="128"/>
+      <c r="P269" s="128"/>
+      <c r="Q269" s="128"/>
+      <c r="R269" s="128"/>
+      <c r="S269" s="128"/>
+      <c r="T269" s="128"/>
+      <c r="U269" s="128"/>
+      <c r="V269" s="35"/>
+      <c r="W269" s="35"/>
+      <c r="X269" s="35"/>
+      <c r="Y269" s="35"/>
+      <c r="Z269" s="35"/>
+      <c r="AA269" s="35"/>
+      <c r="AB269" s="35"/>
+      <c r="AC269" s="35"/>
+      <c r="AD269" s="35"/>
+    </row>
+    <row r="270" spans="1:30" s="198" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A270" s="189"/>
+      <c r="B270" s="189"/>
+      <c r="C270" s="190"/>
+      <c r="D270" s="191"/>
+      <c r="E270" s="191"/>
+      <c r="F270" s="171"/>
+      <c r="G270" s="192"/>
+      <c r="H270" s="192"/>
+      <c r="I270" s="192"/>
+      <c r="J270" s="192"/>
+      <c r="K270" s="192"/>
+      <c r="L270" s="193"/>
+      <c r="M270" s="194"/>
+      <c r="N270" s="195"/>
+      <c r="O270" s="196"/>
+      <c r="P270" s="196"/>
+      <c r="Q270" s="196"/>
+      <c r="R270" s="196"/>
+      <c r="S270" s="196"/>
+      <c r="T270" s="196"/>
+      <c r="U270" s="196"/>
+      <c r="V270" s="197"/>
+      <c r="W270" s="197"/>
+      <c r="X270" s="197"/>
+      <c r="Y270" s="197"/>
+      <c r="Z270" s="197"/>
+      <c r="AA270" s="197"/>
+      <c r="AB270" s="197"/>
+      <c r="AC270" s="197"/>
+      <c r="AD270" s="197"/>
     </row>
     <row r="271" spans="1:30" ht="15.75" customHeight="1">
       <c r="A271" s="162"/>
@@ -17178,13 +17209,13 @@
       <c r="D273" s="180"/>
       <c r="E273" s="180"/>
       <c r="F273" s="146"/>
-      <c r="G273" s="199"/>
-      <c r="H273" s="199"/>
-      <c r="I273" s="199"/>
-      <c r="J273" s="199"/>
-      <c r="K273" s="199"/>
-      <c r="L273" s="199"/>
-      <c r="M273" s="182"/>
+      <c r="G273" s="133"/>
+      <c r="H273" s="133"/>
+      <c r="I273" s="133"/>
+      <c r="J273" s="133"/>
+      <c r="K273" s="133"/>
+      <c r="L273" s="133"/>
+      <c r="M273" s="127"/>
       <c r="N273" s="127"/>
       <c r="O273" s="127"/>
       <c r="P273" s="127"/>
@@ -17205,19 +17236,19 @@
     </row>
     <row r="274" spans="1:30" ht="15.75" customHeight="1">
       <c r="A274" s="162"/>
-      <c r="B274" s="162"/>
-      <c r="C274" s="294"/>
-      <c r="D274" s="295"/>
-      <c r="E274" s="155"/>
-      <c r="F274" s="295"/>
-      <c r="G274" s="129"/>
-      <c r="H274" s="129"/>
-      <c r="I274" s="129"/>
-      <c r="J274" s="129"/>
-      <c r="K274" s="129"/>
-      <c r="L274" s="129"/>
-      <c r="M274" s="127"/>
-      <c r="N274" s="173"/>
+      <c r="B274" s="225"/>
+      <c r="C274" s="180"/>
+      <c r="D274" s="180"/>
+      <c r="E274" s="180"/>
+      <c r="F274" s="146"/>
+      <c r="G274" s="199"/>
+      <c r="H274" s="199"/>
+      <c r="I274" s="199"/>
+      <c r="J274" s="199"/>
+      <c r="K274" s="199"/>
+      <c r="L274" s="199"/>
+      <c r="M274" s="182"/>
+      <c r="N274" s="127"/>
       <c r="O274" s="127"/>
       <c r="P274" s="127"/>
       <c r="Q274" s="127"/>
@@ -17238,10 +17269,10 @@
     <row r="275" spans="1:30" ht="15.75" customHeight="1">
       <c r="A275" s="162"/>
       <c r="B275" s="162"/>
-      <c r="C275" s="294"/>
-      <c r="D275" s="294"/>
+      <c r="C275" s="318"/>
+      <c r="D275" s="317"/>
       <c r="E275" s="155"/>
-      <c r="F275" s="295"/>
+      <c r="F275" s="317"/>
       <c r="G275" s="129"/>
       <c r="H275" s="129"/>
       <c r="I275" s="129"/>
@@ -17270,10 +17301,10 @@
     <row r="276" spans="1:30" ht="15.75" customHeight="1">
       <c r="A276" s="162"/>
       <c r="B276" s="162"/>
-      <c r="C276" s="294"/>
-      <c r="D276" s="294"/>
+      <c r="C276" s="318"/>
+      <c r="D276" s="318"/>
       <c r="E276" s="155"/>
-      <c r="F276" s="295"/>
+      <c r="F276" s="317"/>
       <c r="G276" s="129"/>
       <c r="H276" s="129"/>
       <c r="I276" s="129"/>
@@ -17302,10 +17333,10 @@
     <row r="277" spans="1:30" ht="15.75" customHeight="1">
       <c r="A277" s="162"/>
       <c r="B277" s="162"/>
-      <c r="C277" s="294"/>
-      <c r="D277" s="294"/>
+      <c r="C277" s="318"/>
+      <c r="D277" s="318"/>
       <c r="E277" s="155"/>
-      <c r="F277" s="295"/>
+      <c r="F277" s="317"/>
       <c r="G277" s="129"/>
       <c r="H277" s="129"/>
       <c r="I277" s="129"/>
@@ -17334,10 +17365,10 @@
     <row r="278" spans="1:30" ht="15.75" customHeight="1">
       <c r="A278" s="162"/>
       <c r="B278" s="162"/>
-      <c r="C278" s="294"/>
-      <c r="D278" s="294"/>
+      <c r="C278" s="318"/>
+      <c r="D278" s="318"/>
       <c r="E278" s="155"/>
-      <c r="F278" s="295"/>
+      <c r="F278" s="317"/>
       <c r="G278" s="129"/>
       <c r="H278" s="129"/>
       <c r="I278" s="129"/>
@@ -17366,15 +17397,15 @@
     <row r="279" spans="1:30" ht="15.75" customHeight="1">
       <c r="A279" s="162"/>
       <c r="B279" s="162"/>
-      <c r="C279" s="294"/>
-      <c r="D279" s="294"/>
+      <c r="C279" s="318"/>
+      <c r="D279" s="318"/>
       <c r="E279" s="155"/>
-      <c r="F279" s="295"/>
-      <c r="G279" s="176"/>
-      <c r="H279" s="176"/>
-      <c r="I279" s="176"/>
-      <c r="J279" s="176"/>
-      <c r="K279" s="176"/>
+      <c r="F279" s="317"/>
+      <c r="G279" s="129"/>
+      <c r="H279" s="129"/>
+      <c r="I279" s="129"/>
+      <c r="J279" s="129"/>
+      <c r="K279" s="129"/>
       <c r="L279" s="129"/>
       <c r="M279" s="127"/>
       <c r="N279" s="173"/>
@@ -17398,15 +17429,15 @@
     <row r="280" spans="1:30" ht="15.75" customHeight="1">
       <c r="A280" s="162"/>
       <c r="B280" s="162"/>
-      <c r="C280" s="294"/>
-      <c r="D280" s="294"/>
+      <c r="C280" s="318"/>
+      <c r="D280" s="318"/>
       <c r="E280" s="155"/>
-      <c r="F280" s="295"/>
-      <c r="G280" s="129"/>
-      <c r="H280" s="129"/>
-      <c r="I280" s="129"/>
-      <c r="J280" s="129"/>
-      <c r="K280" s="129"/>
+      <c r="F280" s="317"/>
+      <c r="G280" s="176"/>
+      <c r="H280" s="176"/>
+      <c r="I280" s="176"/>
+      <c r="J280" s="176"/>
+      <c r="K280" s="176"/>
       <c r="L280" s="129"/>
       <c r="M280" s="127"/>
       <c r="N280" s="173"/>
@@ -17430,10 +17461,10 @@
     <row r="281" spans="1:30" ht="15.75" customHeight="1">
       <c r="A281" s="162"/>
       <c r="B281" s="162"/>
-      <c r="C281" s="294"/>
-      <c r="D281" s="294"/>
+      <c r="C281" s="318"/>
+      <c r="D281" s="318"/>
       <c r="E281" s="155"/>
-      <c r="F281" s="295"/>
+      <c r="F281" s="317"/>
       <c r="G281" s="129"/>
       <c r="H281" s="129"/>
       <c r="I281" s="129"/>
@@ -17462,18 +17493,18 @@
     <row r="282" spans="1:30" ht="15.75" customHeight="1">
       <c r="A282" s="162"/>
       <c r="B282" s="162"/>
-      <c r="C282" s="294"/>
-      <c r="D282" s="294"/>
+      <c r="C282" s="318"/>
+      <c r="D282" s="318"/>
       <c r="E282" s="155"/>
-      <c r="F282" s="159"/>
-      <c r="G282" s="126"/>
-      <c r="H282" s="126"/>
-      <c r="I282" s="126"/>
-      <c r="J282" s="126"/>
-      <c r="K282" s="126"/>
-      <c r="L282" s="183"/>
-      <c r="M282" s="126"/>
-      <c r="N282" s="127"/>
+      <c r="F282" s="317"/>
+      <c r="G282" s="129"/>
+      <c r="H282" s="129"/>
+      <c r="I282" s="129"/>
+      <c r="J282" s="129"/>
+      <c r="K282" s="129"/>
+      <c r="L282" s="129"/>
+      <c r="M282" s="127"/>
+      <c r="N282" s="173"/>
       <c r="O282" s="127"/>
       <c r="P282" s="127"/>
       <c r="Q282" s="127"/>
@@ -17494,17 +17525,17 @@
     <row r="283" spans="1:30" ht="15.75" customHeight="1">
       <c r="A283" s="162"/>
       <c r="B283" s="162"/>
-      <c r="C283" s="294"/>
-      <c r="D283" s="294"/>
+      <c r="C283" s="318"/>
+      <c r="D283" s="318"/>
       <c r="E283" s="155"/>
       <c r="F283" s="159"/>
-      <c r="G283" s="127"/>
-      <c r="H283" s="127"/>
-      <c r="I283" s="127"/>
-      <c r="J283" s="127"/>
-      <c r="K283" s="127"/>
-      <c r="L283" s="133"/>
-      <c r="M283" s="127"/>
+      <c r="G283" s="126"/>
+      <c r="H283" s="126"/>
+      <c r="I283" s="126"/>
+      <c r="J283" s="126"/>
+      <c r="K283" s="126"/>
+      <c r="L283" s="183"/>
+      <c r="M283" s="126"/>
       <c r="N283" s="127"/>
       <c r="O283" s="127"/>
       <c r="P283" s="127"/>
@@ -17526,15 +17557,15 @@
     <row r="284" spans="1:30" ht="15.75" customHeight="1">
       <c r="A284" s="162"/>
       <c r="B284" s="162"/>
-      <c r="C284" s="294"/>
-      <c r="D284" s="294"/>
-      <c r="E284" s="177"/>
-      <c r="F284" s="295"/>
-      <c r="G284" s="133"/>
-      <c r="H284" s="133"/>
-      <c r="I284" s="133"/>
-      <c r="J284" s="133"/>
-      <c r="K284" s="133"/>
+      <c r="C284" s="318"/>
+      <c r="D284" s="318"/>
+      <c r="E284" s="155"/>
+      <c r="F284" s="159"/>
+      <c r="G284" s="127"/>
+      <c r="H284" s="127"/>
+      <c r="I284" s="127"/>
+      <c r="J284" s="127"/>
+      <c r="K284" s="127"/>
       <c r="L284" s="133"/>
       <c r="M284" s="127"/>
       <c r="N284" s="127"/>
@@ -17558,15 +17589,15 @@
     <row r="285" spans="1:30" ht="15.75" customHeight="1">
       <c r="A285" s="162"/>
       <c r="B285" s="162"/>
-      <c r="C285" s="294"/>
-      <c r="D285" s="294"/>
-      <c r="E285" s="200"/>
-      <c r="F285" s="295"/>
-      <c r="G285" s="127"/>
-      <c r="H285" s="127"/>
-      <c r="I285" s="127"/>
-      <c r="J285" s="127"/>
-      <c r="K285" s="127"/>
+      <c r="C285" s="318"/>
+      <c r="D285" s="318"/>
+      <c r="E285" s="177"/>
+      <c r="F285" s="317"/>
+      <c r="G285" s="133"/>
+      <c r="H285" s="133"/>
+      <c r="I285" s="133"/>
+      <c r="J285" s="133"/>
+      <c r="K285" s="133"/>
       <c r="L285" s="133"/>
       <c r="M285" s="127"/>
       <c r="N285" s="127"/>
@@ -17590,10 +17621,10 @@
     <row r="286" spans="1:30" ht="15.75" customHeight="1">
       <c r="A286" s="162"/>
       <c r="B286" s="162"/>
-      <c r="C286" s="294"/>
-      <c r="D286" s="294"/>
+      <c r="C286" s="318"/>
+      <c r="D286" s="318"/>
       <c r="E286" s="200"/>
-      <c r="F286" s="295"/>
+      <c r="F286" s="317"/>
       <c r="G286" s="127"/>
       <c r="H286" s="127"/>
       <c r="I286" s="127"/>
@@ -17622,10 +17653,10 @@
     <row r="287" spans="1:30" ht="15.75" customHeight="1">
       <c r="A287" s="162"/>
       <c r="B287" s="162"/>
-      <c r="C287" s="294"/>
-      <c r="D287" s="295"/>
-      <c r="E287" s="144"/>
-      <c r="F287" s="295"/>
+      <c r="C287" s="318"/>
+      <c r="D287" s="318"/>
+      <c r="E287" s="200"/>
+      <c r="F287" s="317"/>
       <c r="G287" s="127"/>
       <c r="H287" s="127"/>
       <c r="I287" s="127"/>
@@ -17654,10 +17685,10 @@
     <row r="288" spans="1:30" ht="15.75" customHeight="1">
       <c r="A288" s="162"/>
       <c r="B288" s="162"/>
-      <c r="C288" s="294"/>
-      <c r="D288" s="155"/>
-      <c r="E288" s="200"/>
-      <c r="F288" s="200"/>
+      <c r="C288" s="318"/>
+      <c r="D288" s="317"/>
+      <c r="E288" s="144"/>
+      <c r="F288" s="317"/>
       <c r="G288" s="127"/>
       <c r="H288" s="127"/>
       <c r="I288" s="127"/>
@@ -17686,15 +17717,15 @@
     <row r="289" spans="1:30" ht="15.75" customHeight="1">
       <c r="A289" s="162"/>
       <c r="B289" s="162"/>
-      <c r="C289" s="294"/>
-      <c r="D289" s="295"/>
-      <c r="E289" s="177"/>
-      <c r="F289" s="303"/>
-      <c r="G289" s="133"/>
-      <c r="H289" s="133"/>
-      <c r="I289" s="133"/>
-      <c r="J289" s="133"/>
-      <c r="K289" s="133"/>
+      <c r="C289" s="318"/>
+      <c r="D289" s="155"/>
+      <c r="E289" s="200"/>
+      <c r="F289" s="200"/>
+      <c r="G289" s="127"/>
+      <c r="H289" s="127"/>
+      <c r="I289" s="127"/>
+      <c r="J289" s="127"/>
+      <c r="K289" s="127"/>
       <c r="L289" s="133"/>
       <c r="M289" s="127"/>
       <c r="N289" s="127"/>
@@ -17718,10 +17749,10 @@
     <row r="290" spans="1:30" ht="15.75" customHeight="1">
       <c r="A290" s="162"/>
       <c r="B290" s="162"/>
-      <c r="C290" s="294"/>
-      <c r="D290" s="294"/>
-      <c r="E290" s="144"/>
-      <c r="F290" s="303"/>
+      <c r="C290" s="318"/>
+      <c r="D290" s="317"/>
+      <c r="E290" s="177"/>
+      <c r="F290" s="319"/>
       <c r="G290" s="133"/>
       <c r="H290" s="133"/>
       <c r="I290" s="133"/>
@@ -17750,10 +17781,10 @@
     <row r="291" spans="1:30" ht="15.75" customHeight="1">
       <c r="A291" s="162"/>
       <c r="B291" s="162"/>
-      <c r="C291" s="294"/>
-      <c r="D291" s="294"/>
-      <c r="E291" s="155"/>
-      <c r="F291" s="303"/>
+      <c r="C291" s="318"/>
+      <c r="D291" s="318"/>
+      <c r="E291" s="144"/>
+      <c r="F291" s="319"/>
       <c r="G291" s="133"/>
       <c r="H291" s="133"/>
       <c r="I291" s="133"/>
@@ -17782,10 +17813,10 @@
     <row r="292" spans="1:30" ht="15.75" customHeight="1">
       <c r="A292" s="162"/>
       <c r="B292" s="162"/>
-      <c r="C292" s="294"/>
-      <c r="D292" s="295"/>
+      <c r="C292" s="318"/>
+      <c r="D292" s="318"/>
       <c r="E292" s="155"/>
-      <c r="F292" s="303"/>
+      <c r="F292" s="319"/>
       <c r="G292" s="133"/>
       <c r="H292" s="133"/>
       <c r="I292" s="133"/>
@@ -17814,15 +17845,15 @@
     <row r="293" spans="1:30" ht="15.75" customHeight="1">
       <c r="A293" s="162"/>
       <c r="B293" s="162"/>
-      <c r="C293" s="294"/>
-      <c r="D293" s="159"/>
-      <c r="E293" s="159"/>
-      <c r="F293" s="162"/>
-      <c r="G293" s="127"/>
-      <c r="H293" s="127"/>
-      <c r="I293" s="127"/>
-      <c r="J293" s="127"/>
-      <c r="K293" s="127"/>
+      <c r="C293" s="318"/>
+      <c r="D293" s="317"/>
+      <c r="E293" s="155"/>
+      <c r="F293" s="319"/>
+      <c r="G293" s="133"/>
+      <c r="H293" s="133"/>
+      <c r="I293" s="133"/>
+      <c r="J293" s="133"/>
+      <c r="K293" s="133"/>
       <c r="L293" s="133"/>
       <c r="M293" s="127"/>
       <c r="N293" s="127"/>
@@ -17846,15 +17877,15 @@
     <row r="294" spans="1:30" ht="15.75" customHeight="1">
       <c r="A294" s="162"/>
       <c r="B294" s="162"/>
-      <c r="C294" s="294"/>
-      <c r="D294" s="295"/>
-      <c r="E294" s="177"/>
-      <c r="F294" s="295"/>
-      <c r="G294" s="133"/>
-      <c r="H294" s="133"/>
-      <c r="I294" s="133"/>
-      <c r="J294" s="133"/>
-      <c r="K294" s="133"/>
+      <c r="C294" s="318"/>
+      <c r="D294" s="159"/>
+      <c r="E294" s="159"/>
+      <c r="F294" s="162"/>
+      <c r="G294" s="127"/>
+      <c r="H294" s="127"/>
+      <c r="I294" s="127"/>
+      <c r="J294" s="127"/>
+      <c r="K294" s="127"/>
       <c r="L294" s="133"/>
       <c r="M294" s="127"/>
       <c r="N294" s="127"/>
@@ -17878,10 +17909,10 @@
     <row r="295" spans="1:30" ht="15.75" customHeight="1">
       <c r="A295" s="162"/>
       <c r="B295" s="162"/>
-      <c r="C295" s="294"/>
-      <c r="D295" s="294"/>
-      <c r="E295" s="200"/>
-      <c r="F295" s="295"/>
+      <c r="C295" s="318"/>
+      <c r="D295" s="317"/>
+      <c r="E295" s="177"/>
+      <c r="F295" s="317"/>
       <c r="G295" s="133"/>
       <c r="H295" s="133"/>
       <c r="I295" s="133"/>
@@ -17910,10 +17941,10 @@
     <row r="296" spans="1:30" ht="15.75" customHeight="1">
       <c r="A296" s="162"/>
       <c r="B296" s="162"/>
-      <c r="C296" s="294"/>
-      <c r="D296" s="294"/>
+      <c r="C296" s="318"/>
+      <c r="D296" s="318"/>
       <c r="E296" s="200"/>
-      <c r="F296" s="295"/>
+      <c r="F296" s="317"/>
       <c r="G296" s="133"/>
       <c r="H296" s="133"/>
       <c r="I296" s="133"/>
@@ -17942,10 +17973,10 @@
     <row r="297" spans="1:30" ht="15.75" customHeight="1">
       <c r="A297" s="162"/>
       <c r="B297" s="162"/>
-      <c r="C297" s="294"/>
-      <c r="D297" s="294"/>
+      <c r="C297" s="318"/>
+      <c r="D297" s="318"/>
       <c r="E297" s="200"/>
-      <c r="F297" s="295"/>
+      <c r="F297" s="317"/>
       <c r="G297" s="133"/>
       <c r="H297" s="133"/>
       <c r="I297" s="133"/>
@@ -17974,15 +18005,15 @@
     <row r="298" spans="1:30" ht="15.75" customHeight="1">
       <c r="A298" s="162"/>
       <c r="B298" s="162"/>
-      <c r="C298" s="294"/>
-      <c r="D298" s="294"/>
+      <c r="C298" s="318"/>
+      <c r="D298" s="318"/>
       <c r="E298" s="200"/>
-      <c r="F298" s="295"/>
-      <c r="G298" s="129"/>
-      <c r="H298" s="129"/>
-      <c r="I298" s="129"/>
-      <c r="J298" s="129"/>
-      <c r="K298" s="129"/>
+      <c r="F298" s="317"/>
+      <c r="G298" s="133"/>
+      <c r="H298" s="133"/>
+      <c r="I298" s="133"/>
+      <c r="J298" s="133"/>
+      <c r="K298" s="133"/>
       <c r="L298" s="133"/>
       <c r="M298" s="127"/>
       <c r="N298" s="127"/>
@@ -18006,10 +18037,10 @@
     <row r="299" spans="1:30" ht="15.75" customHeight="1">
       <c r="A299" s="162"/>
       <c r="B299" s="162"/>
-      <c r="C299" s="294"/>
-      <c r="D299" s="294"/>
-      <c r="E299" s="144"/>
-      <c r="F299" s="295"/>
+      <c r="C299" s="318"/>
+      <c r="D299" s="318"/>
+      <c r="E299" s="200"/>
+      <c r="F299" s="317"/>
       <c r="G299" s="129"/>
       <c r="H299" s="129"/>
       <c r="I299" s="129"/>
@@ -18038,15 +18069,15 @@
     <row r="300" spans="1:30" ht="15.75" customHeight="1">
       <c r="A300" s="162"/>
       <c r="B300" s="162"/>
-      <c r="C300" s="294"/>
-      <c r="D300" s="294"/>
-      <c r="E300" s="177"/>
-      <c r="F300" s="295"/>
-      <c r="G300" s="133"/>
-      <c r="H300" s="133"/>
-      <c r="I300" s="133"/>
-      <c r="J300" s="133"/>
-      <c r="K300" s="133"/>
+      <c r="C300" s="318"/>
+      <c r="D300" s="318"/>
+      <c r="E300" s="144"/>
+      <c r="F300" s="317"/>
+      <c r="G300" s="129"/>
+      <c r="H300" s="129"/>
+      <c r="I300" s="129"/>
+      <c r="J300" s="129"/>
+      <c r="K300" s="129"/>
       <c r="L300" s="133"/>
       <c r="M300" s="127"/>
       <c r="N300" s="127"/>
@@ -18070,15 +18101,15 @@
     <row r="301" spans="1:30" ht="15.75" customHeight="1">
       <c r="A301" s="162"/>
       <c r="B301" s="162"/>
-      <c r="C301" s="294"/>
-      <c r="D301" s="294"/>
-      <c r="E301" s="200"/>
-      <c r="F301" s="295"/>
-      <c r="G301" s="127"/>
-      <c r="H301" s="127"/>
-      <c r="I301" s="127"/>
-      <c r="J301" s="127"/>
-      <c r="K301" s="127"/>
+      <c r="C301" s="318"/>
+      <c r="D301" s="318"/>
+      <c r="E301" s="177"/>
+      <c r="F301" s="317"/>
+      <c r="G301" s="133"/>
+      <c r="H301" s="133"/>
+      <c r="I301" s="133"/>
+      <c r="J301" s="133"/>
+      <c r="K301" s="133"/>
       <c r="L301" s="133"/>
       <c r="M301" s="127"/>
       <c r="N301" s="127"/>
@@ -18102,10 +18133,10 @@
     <row r="302" spans="1:30" ht="15.75" customHeight="1">
       <c r="A302" s="162"/>
       <c r="B302" s="162"/>
-      <c r="C302" s="294"/>
-      <c r="D302" s="294"/>
+      <c r="C302" s="318"/>
+      <c r="D302" s="318"/>
       <c r="E302" s="200"/>
-      <c r="F302" s="295"/>
+      <c r="F302" s="317"/>
       <c r="G302" s="127"/>
       <c r="H302" s="127"/>
       <c r="I302" s="127"/>
@@ -18134,10 +18165,10 @@
     <row r="303" spans="1:30" ht="15.75" customHeight="1">
       <c r="A303" s="162"/>
       <c r="B303" s="162"/>
-      <c r="C303" s="294"/>
-      <c r="D303" s="294"/>
-      <c r="E303" s="144"/>
-      <c r="F303" s="295"/>
+      <c r="C303" s="318"/>
+      <c r="D303" s="318"/>
+      <c r="E303" s="200"/>
+      <c r="F303" s="317"/>
       <c r="G303" s="127"/>
       <c r="H303" s="127"/>
       <c r="I303" s="127"/>
@@ -18166,10 +18197,10 @@
     <row r="304" spans="1:30" ht="15.75" customHeight="1">
       <c r="A304" s="162"/>
       <c r="B304" s="162"/>
-      <c r="C304" s="162"/>
-      <c r="D304" s="162"/>
-      <c r="E304" s="162"/>
-      <c r="F304" s="162"/>
+      <c r="C304" s="318"/>
+      <c r="D304" s="318"/>
+      <c r="E304" s="144"/>
+      <c r="F304" s="317"/>
       <c r="G304" s="127"/>
       <c r="H304" s="127"/>
       <c r="I304" s="127"/>
@@ -18260,11 +18291,11 @@
       <c r="AD306" s="162"/>
     </row>
     <row r="307" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A307" s="156"/>
-      <c r="B307" s="220"/>
-      <c r="C307" s="159"/>
-      <c r="D307" s="146"/>
-      <c r="E307" s="146"/>
+      <c r="A307" s="162"/>
+      <c r="B307" s="162"/>
+      <c r="C307" s="162"/>
+      <c r="D307" s="162"/>
+      <c r="E307" s="162"/>
       <c r="F307" s="162"/>
       <c r="G307" s="127"/>
       <c r="H307" s="127"/>
@@ -18273,23 +18304,23 @@
       <c r="K307" s="127"/>
       <c r="L307" s="133"/>
       <c r="M307" s="127"/>
-      <c r="N307" s="148"/>
-      <c r="O307" s="128"/>
-      <c r="P307" s="128"/>
-      <c r="Q307" s="128"/>
-      <c r="R307" s="128"/>
-      <c r="S307" s="128"/>
-      <c r="T307" s="128"/>
-      <c r="U307" s="128"/>
-      <c r="V307" s="35"/>
-      <c r="W307" s="35"/>
-      <c r="X307" s="35"/>
-      <c r="Y307" s="35"/>
-      <c r="Z307" s="35"/>
-      <c r="AA307" s="35"/>
-      <c r="AB307" s="35"/>
-      <c r="AC307" s="35"/>
-      <c r="AD307" s="35"/>
+      <c r="N307" s="127"/>
+      <c r="O307" s="127"/>
+      <c r="P307" s="127"/>
+      <c r="Q307" s="127"/>
+      <c r="R307" s="127"/>
+      <c r="S307" s="127"/>
+      <c r="T307" s="127"/>
+      <c r="U307" s="127"/>
+      <c r="V307" s="162"/>
+      <c r="W307" s="162"/>
+      <c r="X307" s="162"/>
+      <c r="Y307" s="162"/>
+      <c r="Z307" s="162"/>
+      <c r="AA307" s="162"/>
+      <c r="AB307" s="162"/>
+      <c r="AC307" s="162"/>
+      <c r="AD307" s="162"/>
     </row>
     <row r="308" spans="1:30" ht="15.75" customHeight="1">
       <c r="A308" s="156"/>
@@ -18391,8 +18422,8 @@
       <c r="A311" s="156"/>
       <c r="B311" s="220"/>
       <c r="C311" s="159"/>
-      <c r="D311" s="159"/>
-      <c r="E311" s="159"/>
+      <c r="D311" s="146"/>
+      <c r="E311" s="146"/>
       <c r="F311" s="162"/>
       <c r="G311" s="127"/>
       <c r="H311" s="127"/>
@@ -18548,19 +18579,19 @@
       <c r="AD315" s="35"/>
     </row>
     <row r="316" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A316" s="201"/>
-      <c r="B316" s="201"/>
-      <c r="C316" s="202"/>
-      <c r="D316" s="202"/>
-      <c r="E316" s="202"/>
-      <c r="F316" s="203"/>
-      <c r="G316" s="204"/>
-      <c r="H316" s="204"/>
-      <c r="I316" s="204"/>
-      <c r="J316" s="204"/>
-      <c r="K316" s="204"/>
-      <c r="L316" s="204"/>
-      <c r="M316" s="148"/>
+      <c r="A316" s="156"/>
+      <c r="B316" s="220"/>
+      <c r="C316" s="159"/>
+      <c r="D316" s="159"/>
+      <c r="E316" s="159"/>
+      <c r="F316" s="162"/>
+      <c r="G316" s="127"/>
+      <c r="H316" s="127"/>
+      <c r="I316" s="127"/>
+      <c r="J316" s="127"/>
+      <c r="K316" s="127"/>
+      <c r="L316" s="133"/>
+      <c r="M316" s="127"/>
       <c r="N316" s="148"/>
       <c r="O316" s="128"/>
       <c r="P316" s="128"/>
@@ -18681,12 +18712,12 @@
       <c r="C320" s="202"/>
       <c r="D320" s="202"/>
       <c r="E320" s="202"/>
-      <c r="F320" s="202"/>
-      <c r="G320" s="148"/>
-      <c r="H320" s="148"/>
-      <c r="I320" s="148"/>
-      <c r="J320" s="148"/>
-      <c r="K320" s="148"/>
+      <c r="F320" s="203"/>
+      <c r="G320" s="204"/>
+      <c r="H320" s="204"/>
+      <c r="I320" s="204"/>
+      <c r="J320" s="204"/>
+      <c r="K320" s="204"/>
       <c r="L320" s="204"/>
       <c r="M320" s="148"/>
       <c r="N320" s="148"/>
@@ -18772,36 +18803,36 @@
       <c r="AD322" s="35"/>
     </row>
     <row r="323" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A323" s="205"/>
-      <c r="B323" s="205"/>
-      <c r="C323" s="205"/>
-      <c r="D323" s="205"/>
-      <c r="E323" s="205"/>
-      <c r="F323" s="205"/>
+      <c r="A323" s="201"/>
+      <c r="B323" s="201"/>
+      <c r="C323" s="202"/>
+      <c r="D323" s="202"/>
+      <c r="E323" s="202"/>
+      <c r="F323" s="202"/>
       <c r="G323" s="148"/>
       <c r="H323" s="148"/>
       <c r="I323" s="148"/>
       <c r="J323" s="148"/>
       <c r="K323" s="148"/>
-      <c r="L323" s="148"/>
+      <c r="L323" s="204"/>
       <c r="M323" s="148"/>
       <c r="N323" s="148"/>
-      <c r="O323" s="148"/>
-      <c r="P323" s="148"/>
-      <c r="Q323" s="148"/>
-      <c r="R323" s="148"/>
-      <c r="S323" s="148"/>
-      <c r="T323" s="148"/>
-      <c r="U323" s="148"/>
-      <c r="V323" s="205"/>
-      <c r="W323" s="205"/>
-      <c r="X323" s="205"/>
-      <c r="Y323" s="205"/>
-      <c r="Z323" s="205"/>
-      <c r="AA323" s="205"/>
-      <c r="AB323" s="205"/>
-      <c r="AC323" s="205"/>
-      <c r="AD323" s="205"/>
+      <c r="O323" s="128"/>
+      <c r="P323" s="128"/>
+      <c r="Q323" s="128"/>
+      <c r="R323" s="128"/>
+      <c r="S323" s="128"/>
+      <c r="T323" s="128"/>
+      <c r="U323" s="128"/>
+      <c r="V323" s="35"/>
+      <c r="W323" s="35"/>
+      <c r="X323" s="35"/>
+      <c r="Y323" s="35"/>
+      <c r="Z323" s="35"/>
+      <c r="AA323" s="35"/>
+      <c r="AB323" s="35"/>
+      <c r="AC323" s="35"/>
+      <c r="AD323" s="35"/>
     </row>
     <row r="324" spans="1:30" ht="15.75" customHeight="1">
       <c r="A324" s="205"/>
@@ -20090,21 +20121,21 @@
       <c r="D364" s="205"/>
       <c r="E364" s="205"/>
       <c r="F364" s="205"/>
-      <c r="G364" s="205"/>
-      <c r="H364" s="205"/>
-      <c r="I364" s="205"/>
-      <c r="J364" s="205"/>
-      <c r="K364" s="205"/>
-      <c r="L364" s="205"/>
-      <c r="M364" s="205"/>
-      <c r="N364" s="205"/>
-      <c r="O364" s="205"/>
-      <c r="P364" s="205"/>
-      <c r="Q364" s="205"/>
-      <c r="R364" s="205"/>
-      <c r="S364" s="205"/>
-      <c r="T364" s="205"/>
-      <c r="U364" s="205"/>
+      <c r="G364" s="148"/>
+      <c r="H364" s="148"/>
+      <c r="I364" s="148"/>
+      <c r="J364" s="148"/>
+      <c r="K364" s="148"/>
+      <c r="L364" s="148"/>
+      <c r="M364" s="148"/>
+      <c r="N364" s="148"/>
+      <c r="O364" s="148"/>
+      <c r="P364" s="148"/>
+      <c r="Q364" s="148"/>
+      <c r="R364" s="148"/>
+      <c r="S364" s="148"/>
+      <c r="T364" s="148"/>
+      <c r="U364" s="148"/>
       <c r="V364" s="205"/>
       <c r="W364" s="205"/>
       <c r="X364" s="205"/>
@@ -20339,90 +20370,122 @@
       <c r="AC371" s="205"/>
       <c r="AD371" s="205"/>
     </row>
+    <row r="372" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A372" s="205"/>
+      <c r="B372" s="205"/>
+      <c r="C372" s="205"/>
+      <c r="D372" s="205"/>
+      <c r="E372" s="205"/>
+      <c r="F372" s="205"/>
+      <c r="G372" s="205"/>
+      <c r="H372" s="205"/>
+      <c r="I372" s="205"/>
+      <c r="J372" s="205"/>
+      <c r="K372" s="205"/>
+      <c r="L372" s="205"/>
+      <c r="M372" s="205"/>
+      <c r="N372" s="205"/>
+      <c r="O372" s="205"/>
+      <c r="P372" s="205"/>
+      <c r="Q372" s="205"/>
+      <c r="R372" s="205"/>
+      <c r="S372" s="205"/>
+      <c r="T372" s="205"/>
+      <c r="U372" s="205"/>
+      <c r="V372" s="205"/>
+      <c r="W372" s="205"/>
+      <c r="X372" s="205"/>
+      <c r="Y372" s="205"/>
+      <c r="Z372" s="205"/>
+      <c r="AA372" s="205"/>
+      <c r="AB372" s="205"/>
+      <c r="AC372" s="205"/>
+      <c r="AD372" s="205"/>
+    </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="C275:C304"/>
+    <mergeCell ref="D275:D288"/>
+    <mergeCell ref="D295:D304"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="L258:L259"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="L262:L263"/>
+    <mergeCell ref="F275:F282"/>
+    <mergeCell ref="F285:F288"/>
+    <mergeCell ref="D264:D265"/>
+    <mergeCell ref="D267:D269"/>
+    <mergeCell ref="D232:D238"/>
+    <mergeCell ref="F232:F234"/>
+    <mergeCell ref="F295:F300"/>
+    <mergeCell ref="F301:F304"/>
+    <mergeCell ref="D239:D240"/>
+    <mergeCell ref="D242:D246"/>
+    <mergeCell ref="D290:D293"/>
+    <mergeCell ref="F290:F291"/>
+    <mergeCell ref="F292:F293"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="E160:E170"/>
+    <mergeCell ref="N160:N167"/>
+    <mergeCell ref="E172:E180"/>
+    <mergeCell ref="L223:L225"/>
+    <mergeCell ref="M223:M225"/>
+    <mergeCell ref="E93:E102"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E62:E92"/>
+    <mergeCell ref="E107:E113"/>
+    <mergeCell ref="E115:E123"/>
+    <mergeCell ref="C10:C60"/>
+    <mergeCell ref="D42:D58"/>
+    <mergeCell ref="E42:E58"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E40"/>
     <mergeCell ref="D15:D37"/>
     <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="E61:E91"/>
-    <mergeCell ref="E106:E112"/>
-    <mergeCell ref="E114:E122"/>
-    <mergeCell ref="C10:C59"/>
-    <mergeCell ref="D42:D57"/>
-    <mergeCell ref="E42:E57"/>
-    <mergeCell ref="N159:N166"/>
-    <mergeCell ref="E171:E179"/>
-    <mergeCell ref="L222:L224"/>
-    <mergeCell ref="M222:M224"/>
-    <mergeCell ref="E92:E101"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="D241:D245"/>
-    <mergeCell ref="D289:D292"/>
-    <mergeCell ref="F289:F290"/>
-    <mergeCell ref="F291:F292"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="E159:E169"/>
-    <mergeCell ref="C274:C303"/>
-    <mergeCell ref="D274:D287"/>
-    <mergeCell ref="D294:D303"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="L257:L258"/>
-    <mergeCell ref="D261:D262"/>
-    <mergeCell ref="L261:L262"/>
-    <mergeCell ref="F274:F281"/>
-    <mergeCell ref="F284:F287"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="D266:D268"/>
-    <mergeCell ref="D231:D237"/>
-    <mergeCell ref="F231:F233"/>
-    <mergeCell ref="F294:F299"/>
-    <mergeCell ref="F300:F303"/>
-    <mergeCell ref="D238:D239"/>
   </mergeCells>
-  <conditionalFormatting sqref="L205:L210 L212:L213 L250 L264:L273 M80:M90 M92:M95 M97:M101 M103:M104 M106:M110 M112 M114:M371 M42:M46 M52:M53 M14:M40 M58:M78">
+  <conditionalFormatting sqref="L206:L211 L213:L214 L251 L265:L274 M81:M91 M93:M96 M98:M102 M104:M105 M107:M111 M113 M115:M372 M42:M46 M52:M53 M14:M40 M59:M79">
     <cfRule type="cellIs" dxfId="55" priority="10" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L205:L210 L212:L213 L250 L264:L273 M80:M90 M92:M95 M97:M101 M103:M104 M106:M110 M112 M114:M371 M42:M46 M52:M53 M14:M40 M58:M78">
+  <conditionalFormatting sqref="L206:L211 L213:L214 L251 L265:L274 M81:M91 M93:M96 M98:M102 M104:M105 M107:M111 M113 M115:M372 M42:M46 M52:M53 M14:M40 M59:M79">
     <cfRule type="cellIs" dxfId="54" priority="11" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L205:L210 L212:L213 L250 L264:L273 M80:M90 M92:M95 M97:M101 M103:M104 M106:M110 M112 M114:M371 M42:M46 M52:M53 M14:M40 M58:M78">
+  <conditionalFormatting sqref="L206:L211 L213:L214 L251 L265:L274 M81:M91 M93:M96 M98:M102 M104:M105 M107:M111 M113 M115:M372 M42:M46 M52:M53 M14:M40 M59:M79">
     <cfRule type="cellIs" dxfId="53" priority="12" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L205:L210 L212:L213 L250 L264:L273 M80:M90 M92:M95 M97:M101 M103:M104 M106:M110 M112 M114:M371 M42:M46 M52:M53 M14:M40 M58:M78">
+  <conditionalFormatting sqref="L206:L211 L213:L214 L251 L265:L274 M81:M91 M93:M96 M98:M102 M104:M105 M107:M111 M113 M115:M372 M42:M46 M52:M53 M14:M40 M59:M79">
     <cfRule type="cellIs" dxfId="52" priority="13" operator="equal">
       <formula>"Out of Scope"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M111">
+  <conditionalFormatting sqref="M112">
     <cfRule type="cellIs" dxfId="51" priority="14" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M111">
+  <conditionalFormatting sqref="M112">
     <cfRule type="cellIs" dxfId="50" priority="15" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M111">
+  <conditionalFormatting sqref="M112">
     <cfRule type="cellIs" dxfId="49" priority="16" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M111">
+  <conditionalFormatting sqref="M112">
     <cfRule type="cellIs" dxfId="48" priority="17" operator="equal">
       <formula>"Out of Scope"</formula>
     </cfRule>
@@ -20632,7 +20695,7 @@
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M55:M57">
+  <conditionalFormatting sqref="M55:M58">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
@@ -20652,35 +20715,35 @@
       <formula>"Out of Scope"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M55:M57">
+  <conditionalFormatting sqref="M55:M58">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M55:M57">
+  <conditionalFormatting sqref="M55:M58">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M55:M57">
+  <conditionalFormatting sqref="M55:M58">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Out of Scope"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="M8 M80:M90 M92:M95 M97:M101 M103:M104 M106:M112 L205:L210 L212:L213 M114:M218 M221:M222 M225 M228:M239 L250 M241:M253 M256:M257 M259 L264:L273 M261:M303 M316:M319 M339:M371 M10:M40 M42:M78">
+    <dataValidation type="list" allowBlank="1" sqref="M8 M81:M91 M93:M96 M98:M102 M104:M105 M107:M113 L206:L211 L213:L214 M115:M219 M222:M223 M226 M229:M240 L251 M242:M254 M257:M258 M260 L265:L274 M262:M304 M317:M320 M340:M372 M10:M40 M42:M79" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Passed,Failed,Not Executed,Out of Scope"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1"/>
-    <hyperlink ref="K18" r:id="rId2"/>
-    <hyperlink ref="K19" r:id="rId3"/>
-    <hyperlink ref="K20" r:id="rId4"/>
-    <hyperlink ref="K23" r:id="rId5"/>
-    <hyperlink ref="K35" r:id="rId6"/>
-    <hyperlink ref="K51" r:id="rId7"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="K18" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="K19" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="K20" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="K23" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="K35" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="K51" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -20688,7 +20751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:H49"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
